--- a/rfuse/summary.xlsx
+++ b/rfuse/summary.xlsx
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>7314</v>
+        <v>10900</v>
       </c>
       <c r="C3" s="3">
-        <v>13900</v>
+        <v>14300</v>
       </c>
       <c r="D3" s="3">
-        <v>26400</v>
+        <v>28200</v>
       </c>
       <c r="E3" s="3">
-        <v>41200</v>
+        <v>41400</v>
       </c>
       <c r="F3" s="3">
-        <v>51700</v>
+        <v>51800</v>
       </c>
       <c r="G3" s="3">
-        <v>54200</v>
+        <v>53900</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -581,22 +581,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>3482</v>
+        <v>2625</v>
       </c>
       <c r="C4" s="3">
-        <v>7907</v>
+        <v>15600</v>
       </c>
       <c r="D4" s="3">
-        <v>15300</v>
+        <v>26300</v>
       </c>
       <c r="E4" s="3">
-        <v>28100</v>
+        <v>43100</v>
       </c>
       <c r="F4" s="3">
-        <v>38300</v>
+        <v>51700</v>
       </c>
       <c r="G4" s="3">
-        <v>49200</v>
+        <v>48700</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -604,22 +604,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>3200</v>
+        <v>3220</v>
       </c>
       <c r="C5" s="3">
-        <v>6714</v>
+        <v>10700</v>
       </c>
       <c r="D5" s="3">
-        <v>10300</v>
+        <v>10900</v>
       </c>
       <c r="E5" s="3">
-        <v>23700</v>
+        <v>24000</v>
       </c>
       <c r="F5" s="3">
-        <v>36700</v>
+        <v>32000</v>
       </c>
       <c r="G5" s="3">
-        <v>51500</v>
+        <v>50400</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -658,22 +658,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="4">
-        <v>958.398464</v>
+        <v>1428.160512</v>
       </c>
       <c r="C9" s="4">
-        <v>1825.570816</v>
+        <v>1876.95104</v>
       </c>
       <c r="D9" s="4">
-        <v>3463.446528</v>
+        <v>3702.521856</v>
       </c>
       <c r="E9" s="4">
-        <v>5395.972096</v>
+        <v>5423.235072</v>
       </c>
       <c r="F9" s="4">
-        <v>6774.849536</v>
+        <v>6795.821056</v>
       </c>
       <c r="G9" s="4">
-        <v>7098.85952</v>
+        <v>7064.256512</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -681,22 +681,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>456.13056</v>
+        <v>343.932928</v>
       </c>
       <c r="C10" s="4">
-        <v>1035.993088</v>
+        <v>2048.917504</v>
       </c>
       <c r="D10" s="4">
-        <v>2002.78016</v>
+        <v>3441.426432</v>
       </c>
       <c r="E10" s="4">
-        <v>3677.356032</v>
+        <v>5650.776064</v>
       </c>
       <c r="F10" s="4">
-        <v>5017.43616</v>
+        <v>6774.849536</v>
       </c>
       <c r="G10" s="4">
-        <v>6448.7424</v>
+        <v>6381.633536</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -704,22 +704,22 @@
         <v>3</v>
       </c>
       <c r="B11" s="4">
-        <v>419.4304</v>
+        <v>422.576128</v>
       </c>
       <c r="C11" s="4">
-        <v>879.755264</v>
+        <v>1405.09184</v>
       </c>
       <c r="D11" s="4">
-        <v>1355.808768</v>
+        <v>1423.966208</v>
       </c>
       <c r="E11" s="4">
-        <v>3112.173568</v>
+        <v>3148.873728</v>
       </c>
       <c r="F11" s="4">
-        <v>4804.575232</v>
+        <v>4321.181696</v>
       </c>
       <c r="G11" s="4">
-        <v>6752.82944</v>
+        <v>6608.125952</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -758,22 +758,22 @@
         <v>1</v>
       </c>
       <c r="B15" s="4">
-        <v>135.55</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="C15" s="4">
-        <v>140.76</v>
+        <v>137.61</v>
       </c>
       <c r="D15" s="4">
-        <v>148.17</v>
+        <v>138.18</v>
       </c>
       <c r="E15" s="4">
-        <v>185.47</v>
+        <v>184.08</v>
       </c>
       <c r="F15" s="4">
-        <v>298.48</v>
+        <v>297.8</v>
       </c>
       <c r="G15" s="4">
-        <v>578.83</v>
+        <v>579.08</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -781,22 +781,22 @@
         <v>2</v>
       </c>
       <c r="B16" s="4">
-        <v>285.15</v>
+        <v>378.98</v>
       </c>
       <c r="C16" s="4">
-        <v>247.61</v>
+        <v>124.27</v>
       </c>
       <c r="D16" s="4">
-        <v>249.76</v>
+        <v>149.87</v>
       </c>
       <c r="E16" s="4">
-        <v>271.2</v>
+        <v>179.89</v>
       </c>
       <c r="F16" s="4">
-        <v>405.86</v>
+        <v>304.63</v>
       </c>
       <c r="G16" s="4">
-        <v>639.09</v>
+        <v>646.0599999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -804,22 +804,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="4">
-        <v>303.95</v>
+        <v>302.32</v>
       </c>
       <c r="C17" s="4">
-        <v>283.53</v>
+        <v>170.34</v>
       </c>
       <c r="D17" s="4">
-        <v>369.95</v>
+        <v>357.78</v>
       </c>
       <c r="E17" s="4">
-        <v>314.08</v>
+        <v>296.76</v>
       </c>
       <c r="F17" s="4">
-        <v>412.87</v>
+        <v>460.22</v>
       </c>
       <c r="G17" s="4">
-        <v>594.74</v>
+        <v>597.3099999999999</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -858,13 +858,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="4">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="C21" s="4">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D21" s="4">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E21" s="4">
         <v>338</v>
@@ -873,7 +873,7 @@
         <v>627</v>
       </c>
       <c r="G21" s="4">
-        <v>1254</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -881,22 +881,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>594</v>
+        <v>644</v>
       </c>
       <c r="C22" s="4">
-        <v>586</v>
+        <v>215</v>
       </c>
       <c r="D22" s="4">
-        <v>478</v>
+        <v>318</v>
       </c>
       <c r="E22" s="4">
-        <v>519</v>
+        <v>343</v>
       </c>
       <c r="F22" s="4">
-        <v>742</v>
+        <v>627</v>
       </c>
       <c r="G22" s="4">
-        <v>1483</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -904,22 +904,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C23" s="4">
-        <v>635</v>
+        <v>494</v>
       </c>
       <c r="D23" s="4">
-        <v>701</v>
+        <v>668</v>
       </c>
       <c r="E23" s="4">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="F23" s="4">
-        <v>865</v>
+        <v>938</v>
       </c>
       <c r="G23" s="4">
-        <v>1270</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -958,10 +958,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="4">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="C27" s="4">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D27" s="4">
         <v>281</v>
@@ -970,10 +970,10 @@
         <v>388</v>
       </c>
       <c r="F27" s="4">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="G27" s="4">
-        <v>1483</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -981,22 +981,22 @@
         <v>2</v>
       </c>
       <c r="B28" s="4">
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="C28" s="4">
-        <v>644</v>
+        <v>243</v>
       </c>
       <c r="D28" s="4">
-        <v>545</v>
+        <v>586</v>
       </c>
       <c r="E28" s="4">
-        <v>652</v>
+        <v>396</v>
       </c>
       <c r="F28" s="4">
-        <v>889</v>
+        <v>791</v>
       </c>
       <c r="G28" s="4">
-        <v>2057</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1004,22 +1004,22 @@
         <v>3</v>
       </c>
       <c r="B29" s="4">
-        <v>693</v>
+        <v>644</v>
       </c>
       <c r="C29" s="4">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="D29" s="4">
-        <v>783</v>
+        <v>734</v>
       </c>
       <c r="E29" s="4">
-        <v>791</v>
+        <v>1106</v>
       </c>
       <c r="F29" s="4">
-        <v>1188</v>
+        <v>1221</v>
       </c>
       <c r="G29" s="4">
-        <v>1663</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1058,22 +1058,22 @@
         <v>1</v>
       </c>
       <c r="B34" s="3">
-        <v>23900</v>
+        <v>23200</v>
       </c>
       <c r="C34" s="3">
-        <v>50100</v>
+        <v>49500</v>
       </c>
       <c r="D34" s="3">
         <v>102000</v>
       </c>
       <c r="E34" s="3">
-        <v>215000</v>
+        <v>222000</v>
       </c>
       <c r="F34" s="3">
-        <v>387000</v>
+        <v>382000</v>
       </c>
       <c r="G34" s="3">
-        <v>636000</v>
+        <v>547000</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1081,22 +1081,22 @@
         <v>2</v>
       </c>
       <c r="B35" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="C35" s="3">
-        <v>32600</v>
+        <v>33100</v>
       </c>
       <c r="D35" s="3">
-        <v>69800</v>
+        <v>65300</v>
       </c>
       <c r="E35" s="3">
-        <v>170000</v>
+        <v>191000</v>
       </c>
       <c r="F35" s="3">
-        <v>308000</v>
+        <v>322000</v>
       </c>
       <c r="G35" s="3">
-        <v>312000</v>
+        <v>306000</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1104,22 +1104,22 @@
         <v>3</v>
       </c>
       <c r="B36" s="3">
-        <v>14500</v>
+        <v>16400</v>
       </c>
       <c r="C36" s="3">
-        <v>31400</v>
+        <v>31700</v>
       </c>
       <c r="D36" s="3">
-        <v>61400</v>
+        <v>78700</v>
       </c>
       <c r="E36" s="3">
-        <v>130000</v>
+        <v>175000</v>
       </c>
       <c r="F36" s="3">
-        <v>305000</v>
+        <v>249000</v>
       </c>
       <c r="G36" s="3">
-        <v>447000</v>
+        <v>357000</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1158,22 +1158,22 @@
         <v>1</v>
       </c>
       <c r="B40" s="4">
-        <v>97.7272832</v>
+        <v>95.2107008</v>
       </c>
       <c r="C40" s="4">
-        <v>205.520896</v>
+        <v>202.375168</v>
       </c>
       <c r="D40" s="4">
         <v>419.4304</v>
       </c>
       <c r="E40" s="4">
-        <v>878.706688</v>
+        <v>908.066816</v>
       </c>
       <c r="F40" s="4">
-        <v>1584.398336</v>
+        <v>1563.426816</v>
       </c>
       <c r="G40" s="4">
-        <v>2604.662784</v>
+        <v>2240.806912</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1181,22 +1181,22 @@
         <v>2</v>
       </c>
       <c r="B41" s="4">
-        <v>65.6408576</v>
+        <v>67.52829440000001</v>
       </c>
       <c r="C41" s="4">
-        <v>133.169152</v>
+        <v>135.266304</v>
       </c>
       <c r="D41" s="4">
-        <v>286.261248</v>
+        <v>267.38688</v>
       </c>
       <c r="E41" s="4">
-        <v>695.205888</v>
+        <v>780.140544</v>
       </c>
       <c r="F41" s="4">
-        <v>1261.436928</v>
+        <v>1319.108608</v>
       </c>
       <c r="G41" s="4">
-        <v>1279.26272</v>
+        <v>1251.999744</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1204,22 +1204,22 @@
         <v>3</v>
       </c>
       <c r="B42" s="4">
-        <v>59.244544</v>
+        <v>67.00400639999999</v>
       </c>
       <c r="C42" s="4">
-        <v>128.974848</v>
+        <v>130.023424</v>
       </c>
       <c r="D42" s="4">
-        <v>251.65824</v>
+        <v>322.961408</v>
       </c>
       <c r="E42" s="4">
-        <v>531.628032</v>
+        <v>716.177408</v>
       </c>
       <c r="F42" s="4">
-        <v>1248.854016</v>
+        <v>1019.215872</v>
       </c>
       <c r="G42" s="4">
-        <v>1829.76512</v>
+        <v>1463.812096</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1258,22 +1258,22 @@
         <v>1</v>
       </c>
       <c r="B46" s="4">
-        <v>41.02474</v>
+        <v>42.26125</v>
       </c>
       <c r="C46" s="4">
-        <v>38.11348</v>
+        <v>39.61178</v>
       </c>
       <c r="D46" s="4">
-        <v>37.08512</v>
+        <v>35.99106</v>
       </c>
       <c r="E46" s="4">
-        <v>35.32131</v>
+        <v>33.33878</v>
       </c>
       <c r="F46" s="4">
-        <v>39.17995</v>
+        <v>39.28735</v>
       </c>
       <c r="G46" s="4">
-        <v>49.49196</v>
+        <v>55.54562000000001</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1281,22 +1281,22 @@
         <v>2</v>
       </c>
       <c r="B47" s="4">
-        <v>61.59657</v>
+        <v>59.91373</v>
       </c>
       <c r="C47" s="4">
-        <v>60.51818</v>
+        <v>59.41616</v>
       </c>
       <c r="D47" s="4">
-        <v>56.42345</v>
+        <v>60.19107</v>
       </c>
       <c r="E47" s="4">
-        <v>46.28016</v>
+        <v>41.41822000000001</v>
       </c>
       <c r="F47" s="4">
-        <v>51.33878</v>
+        <v>49.1736</v>
       </c>
       <c r="G47" s="4">
-        <v>101.7794</v>
+        <v>103.90328</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1304,22 +1304,22 @@
         <v>3</v>
       </c>
       <c r="B48" s="4">
-        <v>68.09746000000001</v>
+        <v>60.18635</v>
       </c>
       <c r="C48" s="4">
-        <v>62.49258</v>
+        <v>62.15586</v>
       </c>
       <c r="D48" s="4">
-        <v>63.67208</v>
+        <v>49.89255000000001</v>
       </c>
       <c r="E48" s="4">
-        <v>59.6425</v>
+        <v>44.38476</v>
       </c>
       <c r="F48" s="4">
-        <v>50.58021</v>
+        <v>61.9583</v>
       </c>
       <c r="G48" s="4">
-        <v>68.8599</v>
+        <v>85.36058</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1358,22 +1358,22 @@
         <v>1</v>
       </c>
       <c r="B52" s="4">
-        <v>70.14400000000001</v>
+        <v>69.12</v>
       </c>
       <c r="C52" s="4">
-        <v>68.096</v>
+        <v>67.072</v>
       </c>
       <c r="D52" s="4">
-        <v>70.14400000000001</v>
+        <v>69.12</v>
       </c>
       <c r="E52" s="4">
-        <v>69.12</v>
+        <v>66.048</v>
       </c>
       <c r="F52" s="4">
-        <v>84.48</v>
+        <v>83.456</v>
       </c>
       <c r="G52" s="4">
-        <v>134.144</v>
+        <v>128.512</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1381,22 +1381,22 @@
         <v>2</v>
       </c>
       <c r="B53" s="4">
+        <v>116.224</v>
+      </c>
+      <c r="C53" s="4">
         <v>118.272</v>
-      </c>
-      <c r="C53" s="4">
-        <v>120.32</v>
       </c>
       <c r="D53" s="4">
         <v>118.272</v>
       </c>
       <c r="E53" s="4">
-        <v>110.08</v>
+        <v>102.912</v>
       </c>
       <c r="F53" s="4">
-        <v>136.192</v>
+        <v>124.416</v>
       </c>
       <c r="G53" s="4">
-        <v>292.864</v>
+        <v>309.248</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1404,22 +1404,22 @@
         <v>3</v>
       </c>
       <c r="B54" s="4">
-        <v>136.192</v>
+        <v>121.344</v>
       </c>
       <c r="C54" s="4">
-        <v>124.416</v>
+        <v>125.44</v>
       </c>
       <c r="D54" s="4">
-        <v>126.464</v>
+        <v>114.176</v>
       </c>
       <c r="E54" s="4">
-        <v>134.144</v>
+        <v>97.792</v>
       </c>
       <c r="F54" s="4">
-        <v>132.096</v>
+        <v>123.392</v>
       </c>
       <c r="G54" s="4">
-        <v>214.016</v>
+        <v>205.824</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1458,22 +1458,22 @@
         <v>1</v>
       </c>
       <c r="B58" s="4">
-        <v>74.23999999999999</v>
+        <v>72.19200000000001</v>
       </c>
       <c r="C58" s="4">
         <v>72.19200000000001</v>
       </c>
       <c r="D58" s="4">
-        <v>80.384</v>
+        <v>77.312</v>
       </c>
       <c r="E58" s="4">
-        <v>82.432</v>
+        <v>79.36</v>
       </c>
       <c r="F58" s="4">
-        <v>108.032</v>
+        <v>107.008</v>
       </c>
       <c r="G58" s="4">
-        <v>189.44</v>
+        <v>168.96</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1481,22 +1481,22 @@
         <v>2</v>
       </c>
       <c r="B59" s="4">
-        <v>146.432</v>
+        <v>152.576</v>
       </c>
       <c r="C59" s="4">
-        <v>148.48</v>
+        <v>144.384</v>
       </c>
       <c r="D59" s="4">
         <v>144.384</v>
       </c>
       <c r="E59" s="4">
-        <v>146.432</v>
+        <v>136.192</v>
       </c>
       <c r="F59" s="4">
-        <v>191.488</v>
+        <v>183.296</v>
       </c>
       <c r="G59" s="4">
-        <v>452.608</v>
+        <v>473.088</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1504,22 +1504,22 @@
         <v>3</v>
       </c>
       <c r="B60" s="4">
-        <v>264.192</v>
+        <v>148.48</v>
       </c>
       <c r="C60" s="4">
-        <v>150.528</v>
+        <v>158.72</v>
       </c>
       <c r="D60" s="4">
-        <v>154.624</v>
+        <v>152.576</v>
       </c>
       <c r="E60" s="4">
-        <v>168.96</v>
+        <v>146.432</v>
       </c>
       <c r="F60" s="4">
-        <v>201.728</v>
+        <v>224.256</v>
       </c>
       <c r="G60" s="4">
-        <v>370.688</v>
+        <v>452.608</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1558,22 +1558,22 @@
         <v>1</v>
       </c>
       <c r="B65" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="C65" s="3">
-        <v>20300</v>
+        <v>21300</v>
       </c>
       <c r="D65" s="3">
-        <v>23400</v>
+        <v>22600</v>
       </c>
       <c r="E65" s="3">
-        <v>25700</v>
+        <v>24500</v>
       </c>
       <c r="F65" s="3">
         <v>27300</v>
       </c>
       <c r="G65" s="3">
-        <v>27700</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1581,22 +1581,22 @@
         <v>2</v>
       </c>
       <c r="B66" s="3">
-        <v>2443</v>
+        <v>4248</v>
       </c>
       <c r="C66" s="3">
-        <v>7907</v>
+        <v>7314</v>
       </c>
       <c r="D66" s="3">
-        <v>16700</v>
+        <v>14600</v>
       </c>
       <c r="E66" s="3">
-        <v>18300</v>
+        <v>18700</v>
       </c>
       <c r="F66" s="3">
         <v>21300</v>
       </c>
       <c r="G66" s="3">
-        <v>22200</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1604,22 +1604,22 @@
         <v>3</v>
       </c>
       <c r="B67" s="3">
-        <v>8982</v>
+        <v>9142</v>
       </c>
       <c r="C67" s="3">
-        <v>11000</v>
+        <v>10400</v>
       </c>
       <c r="D67" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E67" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F67" s="3">
         <v>13800</v>
       </c>
-      <c r="E67" s="3">
-        <v>16100</v>
-      </c>
-      <c r="F67" s="3">
-        <v>14500</v>
-      </c>
       <c r="G67" s="3">
-        <v>14000</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1658,22 +1658,22 @@
         <v>1</v>
       </c>
       <c r="B71" s="4">
-        <v>1720.713216</v>
+        <v>1765.801984</v>
       </c>
       <c r="C71" s="4">
-        <v>2658.14016</v>
+        <v>2796.552192</v>
       </c>
       <c r="D71" s="4">
-        <v>3068.133376</v>
+        <v>2966.421504</v>
       </c>
       <c r="E71" s="4">
-        <v>3365.92896</v>
+        <v>3205.496832</v>
       </c>
       <c r="F71" s="4">
-        <v>3573.547008</v>
+        <v>3578.789888</v>
       </c>
       <c r="G71" s="4">
-        <v>3633.31584</v>
+        <v>3544.18688</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -1681,22 +1681,22 @@
         <v>2</v>
       </c>
       <c r="B72" s="4">
-        <v>319.81568</v>
+        <v>556.793856</v>
       </c>
       <c r="C72" s="4">
-        <v>1035.993088</v>
+        <v>958.398464</v>
       </c>
       <c r="D72" s="4">
-        <v>2191.52384</v>
+        <v>1910.505472</v>
       </c>
       <c r="E72" s="4">
-        <v>2402.287616</v>
+        <v>2451.570688</v>
       </c>
       <c r="F72" s="4">
-        <v>2796.552192</v>
+        <v>2792.357888</v>
       </c>
       <c r="G72" s="4">
-        <v>2909.7984</v>
+        <v>3009.41312</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -1704,22 +1704,22 @@
         <v>3</v>
       </c>
       <c r="B73" s="4">
-        <v>1177.550848</v>
+        <v>1198.522368</v>
       </c>
       <c r="C73" s="4">
-        <v>1442.840576</v>
+        <v>1369.440256</v>
       </c>
       <c r="D73" s="4">
-        <v>1807.745024</v>
+        <v>1478.49216</v>
       </c>
       <c r="E73" s="4">
-        <v>2105.540608</v>
+        <v>1858.076672</v>
       </c>
       <c r="F73" s="4">
-        <v>1900.019712</v>
+        <v>1805.647872</v>
       </c>
       <c r="G73" s="4">
-        <v>1837.105152</v>
+        <v>1563.426816</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -1758,22 +1758,22 @@
         <v>1</v>
       </c>
       <c r="B77" s="4">
-        <v>39.47</v>
+        <v>30.26</v>
       </c>
       <c r="C77" s="4">
-        <v>27.01</v>
+        <v>27.91</v>
       </c>
       <c r="D77" s="4">
-        <v>32.9</v>
+        <v>37.11</v>
       </c>
       <c r="E77" s="4">
-        <v>43.93</v>
+        <v>60.05</v>
       </c>
       <c r="F77" s="4">
-        <v>83.22</v>
+        <v>82.79000000000001</v>
       </c>
       <c r="G77" s="4">
-        <v>153.9</v>
+        <v>149.54</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -1781,22 +1781,22 @@
         <v>2</v>
       </c>
       <c r="B78" s="4">
-        <v>359.01</v>
+        <v>190.85</v>
       </c>
       <c r="C78" s="4">
-        <v>188</v>
+        <v>199.88</v>
       </c>
       <c r="D78" s="4">
-        <v>100.9</v>
+        <v>140.04</v>
       </c>
       <c r="E78" s="4">
-        <v>155.57</v>
+        <v>165.59</v>
       </c>
       <c r="F78" s="4">
-        <v>221.6</v>
+        <v>229.43</v>
       </c>
       <c r="G78" s="4">
-        <v>386.93</v>
+        <v>362.27</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -1804,22 +1804,22 @@
         <v>3</v>
       </c>
       <c r="B79" s="4">
-        <v>74.83</v>
+        <v>57.95</v>
       </c>
       <c r="C79" s="4">
-        <v>99.04000000000001</v>
+        <v>116.38</v>
       </c>
       <c r="D79" s="4">
-        <v>172.42</v>
+        <v>210.73</v>
       </c>
       <c r="E79" s="4">
-        <v>278.34</v>
+        <v>306.89</v>
       </c>
       <c r="F79" s="4">
-        <v>658.7</v>
+        <v>745.85</v>
       </c>
       <c r="G79" s="4">
-        <v>1611.76</v>
+        <v>1774.43</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -1858,22 +1858,22 @@
         <v>1</v>
       </c>
       <c r="B83" s="4">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="C83" s="4">
         <v>34</v>
       </c>
       <c r="D83" s="4">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E83" s="4">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="F83" s="4">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G83" s="4">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -1884,19 +1884,19 @@
         <v>449</v>
       </c>
       <c r="C84" s="4">
-        <v>347</v>
+        <v>416</v>
       </c>
       <c r="D84" s="4">
-        <v>137</v>
+        <v>285</v>
       </c>
       <c r="E84" s="4">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F84" s="4">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="G84" s="4">
-        <v>660</v>
+        <v>502</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -1904,22 +1904,22 @@
         <v>3</v>
       </c>
       <c r="B85" s="4">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C85" s="4">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="D85" s="4">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E85" s="4">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="F85" s="4">
-        <v>1057</v>
+        <v>1106</v>
       </c>
       <c r="G85" s="4">
-        <v>5997</v>
+        <v>6259</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -1958,22 +1958,22 @@
         <v>1</v>
       </c>
       <c r="B89" s="4">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="C89" s="4">
         <v>145</v>
       </c>
       <c r="D89" s="4">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E89" s="4">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F89" s="4">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="G89" s="4">
-        <v>338</v>
+        <v>383</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -1981,22 +1981,22 @@
         <v>2</v>
       </c>
       <c r="B90" s="4">
-        <v>553</v>
+        <v>578</v>
       </c>
       <c r="C90" s="4">
-        <v>371</v>
+        <v>529</v>
       </c>
       <c r="D90" s="4">
-        <v>486</v>
+        <v>343</v>
       </c>
       <c r="E90" s="4">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="F90" s="4">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="G90" s="4">
-        <v>1057</v>
+        <v>775</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2004,22 +2004,22 @@
         <v>3</v>
       </c>
       <c r="B91" s="4">
-        <v>269</v>
+        <v>89</v>
       </c>
       <c r="C91" s="4">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="D91" s="4">
-        <v>383</v>
+        <v>2966</v>
       </c>
       <c r="E91" s="4">
-        <v>725</v>
+        <v>1205</v>
       </c>
       <c r="F91" s="4">
-        <v>3818</v>
+        <v>5866</v>
       </c>
       <c r="G91" s="4">
-        <v>11994</v>
+        <v>11863</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2058,22 +2058,22 @@
         <v>1</v>
       </c>
       <c r="B96" s="3">
-        <v>386000</v>
+        <v>334000</v>
       </c>
       <c r="C96" s="3">
-        <v>533000</v>
+        <v>529000</v>
       </c>
       <c r="D96" s="3">
-        <v>679000</v>
+        <v>662000</v>
       </c>
       <c r="E96" s="3">
-        <v>778000</v>
+        <v>787000</v>
       </c>
       <c r="F96" s="3">
-        <v>747000</v>
+        <v>742000</v>
       </c>
       <c r="G96" s="3">
-        <v>838000</v>
+        <v>842000</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2081,22 +2081,22 @@
         <v>2</v>
       </c>
       <c r="B97" s="3">
-        <v>106000</v>
+        <v>45300</v>
       </c>
       <c r="C97" s="3">
-        <v>150000</v>
+        <v>203000</v>
       </c>
       <c r="D97" s="3">
-        <v>282000</v>
+        <v>275000</v>
       </c>
       <c r="E97" s="3">
-        <v>358000</v>
+        <v>374000</v>
       </c>
       <c r="F97" s="3">
-        <v>433000</v>
+        <v>425000</v>
       </c>
       <c r="G97" s="3">
-        <v>517000</v>
+        <v>521000</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2104,22 +2104,22 @@
         <v>3</v>
       </c>
       <c r="B98" s="3">
-        <v>120000</v>
+        <v>116000</v>
       </c>
       <c r="C98" s="3">
-        <v>160000</v>
+        <v>143000</v>
       </c>
       <c r="D98" s="3">
-        <v>192000</v>
+        <v>183000</v>
       </c>
       <c r="E98" s="3">
-        <v>232000</v>
+        <v>227000</v>
       </c>
       <c r="F98" s="3">
-        <v>193000</v>
+        <v>174000</v>
       </c>
       <c r="G98" s="3">
-        <v>158000</v>
+        <v>156000</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2158,22 +2158,22 @@
         <v>1</v>
       </c>
       <c r="B102" s="4">
-        <v>1579.155456</v>
+        <v>1369.440256</v>
       </c>
       <c r="C102" s="4">
-        <v>2182.086656</v>
+        <v>2165.30944</v>
       </c>
       <c r="D102" s="4">
-        <v>2781.872128</v>
+        <v>2711.617536</v>
       </c>
       <c r="E102" s="4">
-        <v>3186.622464</v>
+        <v>3224.3712</v>
       </c>
       <c r="F102" s="4">
-        <v>3058.696192</v>
+        <v>3037.724672</v>
       </c>
       <c r="G102" s="4">
-        <v>3430.940672</v>
+        <v>3449.81504</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2181,22 +2181,22 @@
         <v>2</v>
       </c>
       <c r="B103" s="4">
-        <v>433.061888</v>
+        <v>185.597952</v>
       </c>
       <c r="C103" s="4">
-        <v>612.368384</v>
+        <v>831.520768</v>
       </c>
       <c r="D103" s="4">
-        <v>1156.579328</v>
+        <v>1125.122048</v>
       </c>
       <c r="E103" s="4">
-        <v>1466.957824</v>
+        <v>1531.969536</v>
       </c>
       <c r="F103" s="4">
-        <v>1772.09344</v>
+        <v>1738.539008</v>
       </c>
       <c r="G103" s="4">
-        <v>2117.074944</v>
+        <v>2134.900736</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2204,22 +2204,22 @@
         <v>3</v>
       </c>
       <c r="B104" s="4">
-        <v>489.684992</v>
+        <v>476.053504</v>
       </c>
       <c r="C104" s="4">
-        <v>656.408576</v>
+        <v>585.105408</v>
       </c>
       <c r="D104" s="4">
-        <v>785.383424</v>
+        <v>747.634688</v>
       </c>
       <c r="E104" s="4">
-        <v>948.96128</v>
+        <v>931.135488</v>
       </c>
       <c r="F104" s="4">
-        <v>788.529152</v>
+        <v>711.983104</v>
       </c>
       <c r="G104" s="4">
-        <v>648.0199679999999</v>
+        <v>637.534208</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2258,41 +2258,41 @@
         <v>1</v>
       </c>
       <c r="B108" s="4">
-        <v>1.1328</v>
+        <v>1.45387</v>
       </c>
       <c r="C108" s="4">
-        <v>1.19576</v>
+        <v>1.20593</v>
       </c>
       <c r="D108" s="4">
-        <v>1.29701</v>
+        <v>1.31233</v>
       </c>
       <c r="E108" s="4">
-        <v>1.74332</v>
+        <v>1.70807</v>
       </c>
       <c r="F108" s="4">
-        <v>2.73804</v>
+        <v>2.71507</v>
       </c>
       <c r="G108" s="4">
-        <v>4.65728</v>
+        <v>4.70041</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4">
-        <v>10.71</v>
-      </c>
+      <c r="B109" s="4">
+        <v>20.3</v>
+      </c>
+      <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4">
-        <v>13.91</v>
+        <v>12.36</v>
       </c>
       <c r="F109" s="4">
-        <v>19.25</v>
+        <v>19.73</v>
       </c>
       <c r="G109" s="4">
-        <v>27.68</v>
+        <v>27.25</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2300,18 +2300,20 @@
         <v>3</v>
       </c>
       <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
+      <c r="C110" s="4">
+        <v>11.73</v>
+      </c>
       <c r="D110" s="4">
-        <v>17.17</v>
+        <v>17.63</v>
       </c>
       <c r="E110" s="4">
-        <v>28.02</v>
+        <v>27.32</v>
       </c>
       <c r="F110" s="4">
-        <v>68.66</v>
+        <v>74.11</v>
       </c>
       <c r="G110" s="4">
-        <v>165.1</v>
+        <v>174.53</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2350,22 +2352,22 @@
         <v>1</v>
       </c>
       <c r="B114" s="4">
-        <v>1.736</v>
+        <v>5.664</v>
       </c>
       <c r="C114" s="4">
         <v>1.912</v>
       </c>
       <c r="D114" s="4">
-        <v>2.008</v>
+        <v>2.024</v>
       </c>
       <c r="E114" s="4">
-        <v>2.928</v>
+        <v>2.8</v>
       </c>
       <c r="F114" s="4">
-        <v>4.704</v>
+        <v>4.64</v>
       </c>
       <c r="G114" s="4">
-        <v>6.56</v>
+        <v>6.624000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -2373,22 +2375,22 @@
         <v>2</v>
       </c>
       <c r="B115" s="4">
-        <v>12.224</v>
+        <v>41</v>
       </c>
       <c r="C115" s="4">
-        <v>16</v>
+        <v>9.536</v>
       </c>
       <c r="D115" s="4">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E115" s="4">
+        <v>28</v>
+      </c>
+      <c r="F115" s="4">
+        <v>53</v>
+      </c>
+      <c r="G115" s="4">
         <v>45</v>
-      </c>
-      <c r="F115" s="4">
-        <v>49</v>
-      </c>
-      <c r="G115" s="4">
-        <v>46</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -2399,19 +2401,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="4">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D116" s="4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E116" s="4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F116" s="4">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G116" s="4">
-        <v>420</v>
+        <v>449</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -2450,22 +2452,22 @@
         <v>1</v>
       </c>
       <c r="B120" s="4">
-        <v>6.432</v>
+        <v>6.88</v>
       </c>
       <c r="C120" s="4">
-        <v>6.624000000000001</v>
+        <v>6.688</v>
       </c>
       <c r="D120" s="4">
         <v>6.56</v>
       </c>
       <c r="E120" s="4">
-        <v>6.752</v>
+        <v>6.88</v>
       </c>
       <c r="F120" s="4">
-        <v>8.896000000000001</v>
+        <v>9.536</v>
       </c>
       <c r="G120" s="4">
-        <v>10.944</v>
+        <v>11.072</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -2473,22 +2475,22 @@
         <v>2</v>
       </c>
       <c r="B121" s="4">
-        <v>14.272</v>
+        <v>77</v>
       </c>
       <c r="C121" s="4">
-        <v>42</v>
+        <v>10.816</v>
       </c>
       <c r="D121" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E121" s="4">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F121" s="4">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G121" s="4">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -2496,22 +2498,22 @@
         <v>3</v>
       </c>
       <c r="B122" s="4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C122" s="4">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D122" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E122" s="4">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F122" s="4">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G122" s="4">
-        <v>586</v>
+        <v>627</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -2553,16 +2555,16 @@
         <v>16500</v>
       </c>
       <c r="C127" s="3">
-        <v>30100</v>
+        <v>34100</v>
       </c>
       <c r="D127" s="3">
-        <v>43100</v>
+        <v>42700</v>
       </c>
       <c r="E127" s="3">
-        <v>43300</v>
+        <v>42900</v>
       </c>
       <c r="F127" s="3">
-        <v>41300</v>
+        <v>41200</v>
       </c>
       <c r="G127" s="3">
         <v>41700</v>
@@ -2573,22 +2575,22 @@
         <v>2</v>
       </c>
       <c r="B128" s="3">
-        <v>11100</v>
+        <v>9570</v>
       </c>
       <c r="C128" s="3">
-        <v>18800</v>
+        <v>16700</v>
       </c>
       <c r="D128" s="3">
-        <v>26400</v>
+        <v>39400</v>
       </c>
       <c r="E128" s="3">
-        <v>28200</v>
+        <v>27300</v>
       </c>
       <c r="F128" s="3">
-        <v>35500</v>
+        <v>29200</v>
       </c>
       <c r="G128" s="3">
-        <v>36200</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -2596,22 +2598,22 @@
         <v>3</v>
       </c>
       <c r="B129" s="3">
-        <v>5851</v>
+        <v>5818</v>
       </c>
       <c r="C129" s="3">
-        <v>10400</v>
+        <v>11300</v>
       </c>
       <c r="D129" s="3">
-        <v>31000</v>
+        <v>23000</v>
       </c>
       <c r="E129" s="3">
-        <v>26300</v>
+        <v>32800</v>
       </c>
       <c r="F129" s="3">
-        <v>37900</v>
+        <v>38200</v>
       </c>
       <c r="G129" s="3">
-        <v>38800</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -2653,16 +2655,16 @@
         <v>2165.30944</v>
       </c>
       <c r="C133" s="4">
-        <v>3947.88864</v>
+        <v>4474.273792</v>
       </c>
       <c r="D133" s="4">
-        <v>5650.776064</v>
+        <v>5592.055808</v>
       </c>
       <c r="E133" s="4">
-        <v>5681.184768</v>
+        <v>5621.415936</v>
       </c>
       <c r="F133" s="4">
-        <v>5409.603584</v>
+        <v>5395.972096</v>
       </c>
       <c r="G133" s="4">
         <v>5464.129536</v>
@@ -2673,22 +2675,22 @@
         <v>2</v>
       </c>
       <c r="B134" s="4">
-        <v>1458.569216</v>
+        <v>1254.096896</v>
       </c>
       <c r="C134" s="4">
-        <v>2463.105024</v>
+        <v>2182.086656</v>
       </c>
       <c r="D134" s="4">
-        <v>3463.446528</v>
+        <v>5162.139648</v>
       </c>
       <c r="E134" s="4">
-        <v>3702.521856</v>
+        <v>3578.789888</v>
       </c>
       <c r="F134" s="4">
-        <v>4648.337408</v>
+        <v>3828.350976</v>
       </c>
       <c r="G134" s="4">
-        <v>4751.097856</v>
+        <v>3661.627392</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -2696,22 +2698,22 @@
         <v>3</v>
       </c>
       <c r="B135" s="4">
-        <v>766.509056</v>
+        <v>762.314752</v>
       </c>
       <c r="C135" s="4">
-        <v>1362.100224</v>
+        <v>1482.686464</v>
       </c>
       <c r="D135" s="4">
-        <v>4067.426304</v>
+        <v>3139.436544</v>
       </c>
       <c r="E135" s="4">
-        <v>3452.960768</v>
+        <v>4294.967296</v>
       </c>
       <c r="F135" s="4">
-        <v>4971.298816</v>
+        <v>5005.901824</v>
       </c>
       <c r="G135" s="4">
-        <v>5088.739328</v>
+        <v>5112.856576</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -2750,22 +2752,22 @@
         <v>1</v>
       </c>
       <c r="B139" s="4">
-        <v>59.8</v>
+        <v>59.78</v>
       </c>
       <c r="C139" s="4">
-        <v>64.93000000000001</v>
+        <v>57.68</v>
       </c>
       <c r="D139" s="4">
-        <v>91.40000000000001</v>
+        <v>92.47</v>
       </c>
       <c r="E139" s="4">
-        <v>183.46</v>
+        <v>184.05</v>
       </c>
       <c r="F139" s="4">
-        <v>383.13</v>
+        <v>384.16</v>
       </c>
       <c r="G139" s="4">
-        <v>760.55</v>
+        <v>761.34</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -2773,22 +2775,22 @@
         <v>2</v>
       </c>
       <c r="B140" s="4">
-        <v>89.12</v>
+        <v>102.87</v>
       </c>
       <c r="C140" s="4">
-        <v>97.37</v>
+        <v>107.62</v>
       </c>
       <c r="D140" s="4">
-        <v>147.8</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="E140" s="4">
-        <v>275.2</v>
+        <v>287.17</v>
       </c>
       <c r="F140" s="4">
-        <v>413.59</v>
+        <v>530.01</v>
       </c>
       <c r="G140" s="4">
-        <v>816.3200000000001</v>
+        <v>1107.29</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -2796,22 +2798,22 @@
         <v>3</v>
       </c>
       <c r="B141" s="4">
-        <v>169.16</v>
+        <v>164.83</v>
       </c>
       <c r="C141" s="4">
-        <v>174.95</v>
+        <v>172.15</v>
       </c>
       <c r="D141" s="4">
-        <v>121.64</v>
+        <v>153.46</v>
       </c>
       <c r="E141" s="4">
-        <v>285.98</v>
+        <v>213.35</v>
       </c>
       <c r="F141" s="4">
-        <v>388.36</v>
+        <v>389.62</v>
       </c>
       <c r="G141" s="4">
-        <v>778</v>
+        <v>782.04</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -2850,22 +2852,22 @@
         <v>1</v>
       </c>
       <c r="B145" s="4">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C145" s="4">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="D145" s="4">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E145" s="4">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="F145" s="4">
-        <v>1172</v>
+        <v>1287</v>
       </c>
       <c r="G145" s="4">
-        <v>2638</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -2873,22 +2875,22 @@
         <v>2</v>
       </c>
       <c r="B146" s="4">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="C146" s="4">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="D146" s="4">
-        <v>424</v>
+        <v>302</v>
       </c>
       <c r="E146" s="4">
-        <v>873</v>
+        <v>889</v>
       </c>
       <c r="F146" s="4">
-        <v>1057</v>
+        <v>1287</v>
       </c>
       <c r="G146" s="4">
-        <v>2212</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -2896,22 +2898,22 @@
         <v>3</v>
       </c>
       <c r="B147" s="4">
-        <v>603</v>
+        <v>693</v>
       </c>
       <c r="C147" s="4">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="D147" s="4">
-        <v>363</v>
+        <v>494</v>
       </c>
       <c r="E147" s="4">
-        <v>914</v>
+        <v>586</v>
       </c>
       <c r="F147" s="4">
         <v>1434</v>
       </c>
       <c r="G147" s="4">
-        <v>3195</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -2950,22 +2952,22 @@
         <v>1</v>
       </c>
       <c r="B151" s="4">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C151" s="4">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="D151" s="4">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E151" s="4">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="F151" s="4">
-        <v>1319</v>
+        <v>1369</v>
       </c>
       <c r="G151" s="4">
-        <v>2802</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -2973,22 +2975,22 @@
         <v>2</v>
       </c>
       <c r="B152" s="4">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C152" s="4">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="D152" s="4">
-        <v>529</v>
+        <v>359</v>
       </c>
       <c r="E152" s="4">
         <v>1057</v>
       </c>
       <c r="F152" s="4">
-        <v>1270</v>
+        <v>1418</v>
       </c>
       <c r="G152" s="4">
-        <v>2966</v>
+        <v>4047</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -2996,22 +2998,22 @@
         <v>3</v>
       </c>
       <c r="B153" s="4">
-        <v>758</v>
+        <v>775</v>
       </c>
       <c r="C153" s="4">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="D153" s="4">
-        <v>478</v>
+        <v>865</v>
       </c>
       <c r="E153" s="4">
-        <v>1450</v>
+        <v>1844</v>
       </c>
       <c r="F153" s="4">
-        <v>2212</v>
+        <v>1827</v>
       </c>
       <c r="G153" s="4">
-        <v>8717</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3050,10 +3052,10 @@
         <v>1</v>
       </c>
       <c r="B158" s="3">
-        <v>520000</v>
+        <v>504000</v>
       </c>
       <c r="C158" s="3">
-        <v>799000</v>
+        <v>898000</v>
       </c>
       <c r="D158" s="3">
         <v>1016000</v>
@@ -3062,10 +3064,10 @@
         <v>1181000</v>
       </c>
       <c r="F158" s="3">
-        <v>1200000</v>
+        <v>1202000</v>
       </c>
       <c r="G158" s="3">
-        <v>1219000</v>
+        <v>1212000</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -3073,22 +3075,22 @@
         <v>2</v>
       </c>
       <c r="B159" s="3">
-        <v>443000</v>
+        <v>405000</v>
       </c>
       <c r="C159" s="3">
-        <v>630000</v>
+        <v>669000</v>
       </c>
       <c r="D159" s="3">
-        <v>964000</v>
+        <v>1049000</v>
       </c>
       <c r="E159" s="3">
-        <v>923000</v>
+        <v>857000</v>
       </c>
       <c r="F159" s="3">
-        <v>1028000</v>
+        <v>802000</v>
       </c>
       <c r="G159" s="3">
-        <v>1001000</v>
+        <v>791000</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -3096,22 +3098,22 @@
         <v>3</v>
       </c>
       <c r="B160" s="3">
-        <v>223000</v>
+        <v>239000</v>
       </c>
       <c r="C160" s="3">
-        <v>415000</v>
+        <v>395000</v>
       </c>
       <c r="D160" s="3">
-        <v>736000</v>
+        <v>732000</v>
       </c>
       <c r="E160" s="3">
-        <v>933000</v>
+        <v>907000</v>
       </c>
       <c r="F160" s="3">
-        <v>1042000</v>
+        <v>1051000</v>
       </c>
       <c r="G160" s="3">
-        <v>1099000</v>
+        <v>1089000</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -3150,10 +3152,10 @@
         <v>1</v>
       </c>
       <c r="B164" s="4">
-        <v>2130.706432</v>
+        <v>2064.646144</v>
       </c>
       <c r="C164" s="4">
-        <v>3273.654272</v>
+        <v>3677.356032</v>
       </c>
       <c r="D164" s="4">
         <v>4161.798144</v>
@@ -3162,10 +3164,10 @@
         <v>4837.081088</v>
       </c>
       <c r="F164" s="4">
-        <v>4913.627136</v>
+        <v>4925.161472</v>
       </c>
       <c r="G164" s="4">
-        <v>4994.367488</v>
+        <v>4965.00736</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -3173,22 +3175,22 @@
         <v>2</v>
       </c>
       <c r="B165" s="4">
-        <v>1814.03648</v>
+        <v>1656.75008</v>
       </c>
       <c r="C165" s="4">
-        <v>2581.594112</v>
+        <v>2738.880512</v>
       </c>
       <c r="D165" s="4">
-        <v>3947.88864</v>
+        <v>4294.967296</v>
       </c>
       <c r="E165" s="4">
-        <v>3781.165056</v>
+        <v>3508.535296</v>
       </c>
       <c r="F165" s="4">
-        <v>4211.081216</v>
+        <v>3283.091456</v>
       </c>
       <c r="G165" s="4">
-        <v>4097.835008</v>
+        <v>3241.148416</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -3196,22 +3198,22 @@
         <v>3</v>
       </c>
       <c r="B166" s="4">
-        <v>913.309696</v>
+        <v>979.369984</v>
       </c>
       <c r="C166" s="4">
-        <v>1698.69312</v>
+        <v>1616.904192</v>
       </c>
       <c r="D166" s="4">
-        <v>3015.704576</v>
+        <v>2998.92736</v>
       </c>
       <c r="E166" s="4">
-        <v>3821.010944</v>
+        <v>3715.104768</v>
       </c>
       <c r="F166" s="4">
-        <v>4269.801472</v>
+        <v>4303.355904</v>
       </c>
       <c r="G166" s="4">
-        <v>4502.585344</v>
+        <v>4459.593728</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -3250,22 +3252,22 @@
         <v>1</v>
       </c>
       <c r="B170" s="4">
-        <v>1.75524</v>
+        <v>1.80629</v>
       </c>
       <c r="C170" s="4">
-        <v>2.29437</v>
+        <v>2.10489</v>
       </c>
       <c r="D170" s="4">
-        <v>3.64751</v>
+        <v>3.67534</v>
       </c>
       <c r="E170" s="4">
-        <v>6.311680000000001</v>
+        <v>6.42747</v>
       </c>
       <c r="F170" s="4">
-        <v>12.85602</v>
+        <v>12.98542</v>
       </c>
       <c r="G170" s="4">
-        <v>25.72513</v>
+        <v>25.88689</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -3273,22 +3275,22 @@
         <v>2</v>
       </c>
       <c r="B171" s="4">
-        <v>2.01945</v>
+        <v>2.25164</v>
       </c>
       <c r="C171" s="4">
-        <v>2.72601</v>
+        <v>2.76331</v>
       </c>
       <c r="D171" s="4">
-        <v>3.83673</v>
+        <v>3.56805</v>
       </c>
       <c r="E171" s="4">
-        <v>7.88434</v>
+        <v>8.666729999999999</v>
       </c>
       <c r="F171" s="4">
-        <v>14.54642</v>
+        <v>18.93058</v>
       </c>
       <c r="G171" s="4">
-        <v>29.1124</v>
+        <v>39.18757</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -3296,22 +3298,22 @@
         <v>3</v>
       </c>
       <c r="B172" s="4">
-        <v>3.93465</v>
+        <v>3.70613</v>
       </c>
       <c r="C172" s="4">
-        <v>4.2949</v>
+        <v>4.60566</v>
       </c>
       <c r="D172" s="4">
-        <v>4.802180000000001</v>
+        <v>4.69608</v>
       </c>
       <c r="E172" s="4">
-        <v>7.58363</v>
+        <v>7.872560000000001</v>
       </c>
       <c r="F172" s="4">
-        <v>14.29153</v>
+        <v>13.9851</v>
       </c>
       <c r="G172" s="4">
-        <v>27.69226</v>
+        <v>27.82546</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -3350,22 +3352,22 @@
         <v>1</v>
       </c>
       <c r="B176" s="4">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="C176" s="4">
-        <v>1.672</v>
+        <v>0.724</v>
       </c>
       <c r="D176" s="4">
         <v>1.672</v>
       </c>
       <c r="E176" s="4">
-        <v>2.576</v>
+        <v>1.704</v>
       </c>
       <c r="F176" s="4">
-        <v>2.416</v>
+        <v>1.512</v>
       </c>
       <c r="G176" s="4">
-        <v>2.576</v>
+        <v>1.912</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -3373,22 +3375,22 @@
         <v>2</v>
       </c>
       <c r="B177" s="4">
-        <v>2.096</v>
+        <v>1.944</v>
       </c>
       <c r="C177" s="4">
-        <v>1.928</v>
+        <v>1.992</v>
       </c>
       <c r="D177" s="4">
-        <v>1.992</v>
+        <v>0.716</v>
       </c>
       <c r="E177" s="4">
+        <v>2.992</v>
+      </c>
+      <c r="F177" s="4">
         <v>3.088</v>
       </c>
-      <c r="F177" s="4">
-        <v>2.512</v>
-      </c>
       <c r="G177" s="4">
-        <v>2.736</v>
+        <v>2.832</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -3396,22 +3398,22 @@
         <v>3</v>
       </c>
       <c r="B178" s="4">
-        <v>2.008</v>
+        <v>1.896</v>
       </c>
       <c r="C178" s="4">
-        <v>2.064</v>
+        <v>1.944</v>
       </c>
       <c r="D178" s="4">
-        <v>1.992</v>
+        <v>1.976</v>
       </c>
       <c r="E178" s="4">
-        <v>2.024</v>
+        <v>2.448</v>
       </c>
       <c r="F178" s="4">
-        <v>2.928</v>
+        <v>2.896</v>
       </c>
       <c r="G178" s="4">
-        <v>3.088</v>
+        <v>2.544</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -3450,22 +3452,22 @@
         <v>1</v>
       </c>
       <c r="B182" s="4">
-        <v>32.128</v>
+        <v>36.608</v>
       </c>
       <c r="C182" s="4">
-        <v>92.672</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="D182" s="4">
-        <v>154.624</v>
+        <v>134.144</v>
       </c>
       <c r="E182" s="4">
-        <v>232.448</v>
+        <v>284.672</v>
       </c>
       <c r="F182" s="4">
-        <v>577.5360000000001</v>
+        <v>651.264</v>
       </c>
       <c r="G182" s="4">
-        <v>1138.688</v>
+        <v>741.376</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -3473,22 +3475,22 @@
         <v>2</v>
       </c>
       <c r="B183" s="4">
-        <v>61.696</v>
+        <v>63.232</v>
       </c>
       <c r="C183" s="4">
-        <v>81.408</v>
+        <v>87.55200000000001</v>
       </c>
       <c r="D183" s="4">
-        <v>162.816</v>
+        <v>152.576</v>
       </c>
       <c r="E183" s="4">
-        <v>261.12</v>
+        <v>329.728</v>
       </c>
       <c r="F183" s="4">
-        <v>806.912</v>
+        <v>1089.536</v>
       </c>
       <c r="G183" s="4">
-        <v>1581.056</v>
+        <v>2408.448</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -3496,22 +3498,22 @@
         <v>3</v>
       </c>
       <c r="B184" s="4">
-        <v>96.768</v>
+        <v>77.312</v>
       </c>
       <c r="C184" s="4">
-        <v>104.96</v>
+        <v>97.792</v>
       </c>
       <c r="D184" s="4">
         <v>142.336</v>
       </c>
       <c r="E184" s="4">
-        <v>252.928</v>
+        <v>246.784</v>
       </c>
       <c r="F184" s="4">
-        <v>432.128</v>
+        <v>481.28</v>
       </c>
       <c r="G184" s="4">
-        <v>321.536</v>
+        <v>238.592</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -3550,19 +3552,19 @@
         <v>1</v>
       </c>
       <c r="B189" s="3">
-        <v>11600</v>
+        <v>10900</v>
       </c>
       <c r="C189" s="3">
         <v>14200</v>
       </c>
       <c r="D189" s="3">
-        <v>16500</v>
+        <v>16400</v>
       </c>
       <c r="E189" s="3">
-        <v>17700</v>
+        <v>17900</v>
       </c>
       <c r="F189" s="3">
-        <v>16900</v>
+        <v>16000</v>
       </c>
       <c r="G189" s="3">
         <v>17400</v>
@@ -3573,22 +3575,22 @@
         <v>2</v>
       </c>
       <c r="B190" s="3">
-        <v>2708</v>
+        <v>2301</v>
       </c>
       <c r="C190" s="3">
-        <v>4785</v>
+        <v>4697</v>
       </c>
       <c r="D190" s="3">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="E190" s="3">
-        <v>12300</v>
+        <v>14400</v>
       </c>
       <c r="F190" s="3">
-        <v>15600</v>
+        <v>15000</v>
       </c>
       <c r="G190" s="3">
-        <v>16200</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -3596,22 +3598,22 @@
         <v>3</v>
       </c>
       <c r="B191" s="3">
-        <v>6320</v>
+        <v>6440</v>
       </c>
       <c r="C191" s="3">
-        <v>8943</v>
+        <v>8641</v>
       </c>
       <c r="D191" s="3">
-        <v>9525</v>
+        <v>11300</v>
       </c>
       <c r="E191" s="3">
-        <v>11300</v>
+        <v>11600</v>
       </c>
       <c r="F191" s="3">
-        <v>11200</v>
+        <v>10800</v>
       </c>
       <c r="G191" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -3650,22 +3652,22 @@
         <v>1</v>
       </c>
       <c r="B195" s="4">
-        <v>1525.67808</v>
+        <v>1428.160512</v>
       </c>
       <c r="C195" s="4">
         <v>1864.368128</v>
       </c>
       <c r="D195" s="4">
-        <v>2165.30944</v>
+        <v>2155.872256</v>
       </c>
       <c r="E195" s="4">
-        <v>2319.450112</v>
+        <v>2344.615936</v>
       </c>
       <c r="F195" s="4">
-        <v>2218.786816</v>
+        <v>2225.078272</v>
       </c>
       <c r="G195" s="4">
-        <v>2280.6528</v>
+        <v>2279.604224</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -3673,22 +3675,22 @@
         <v>2</v>
       </c>
       <c r="B196" s="4">
-        <v>355.467264</v>
+        <v>301.989888</v>
       </c>
       <c r="C196" s="4">
-        <v>627.048448</v>
+        <v>615.514112</v>
       </c>
       <c r="D196" s="4">
-        <v>1772.09344</v>
+        <v>1315.96288</v>
       </c>
       <c r="E196" s="4">
-        <v>1612.709888</v>
+        <v>1887.4368</v>
       </c>
       <c r="F196" s="4">
-        <v>2041.577472</v>
+        <v>2092.957696</v>
       </c>
       <c r="G196" s="4">
-        <v>2127.560704</v>
+        <v>2154.82368</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -3696,22 +3698,22 @@
         <v>3</v>
       </c>
       <c r="B197" s="4">
-        <v>828.37504</v>
+        <v>844.1036800000001</v>
       </c>
       <c r="C197" s="4">
-        <v>1172.307968</v>
+        <v>1132.46208</v>
       </c>
       <c r="D197" s="4">
-        <v>1248.854016</v>
+        <v>1486.880768</v>
       </c>
       <c r="E197" s="4">
-        <v>1475.346432</v>
+        <v>1522.532352</v>
       </c>
       <c r="F197" s="4">
-        <v>1462.76352</v>
+        <v>1419.771904</v>
       </c>
       <c r="G197" s="4">
-        <v>1415.5776</v>
+        <v>1399.84896</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -3750,22 +3752,22 @@
         <v>1</v>
       </c>
       <c r="B201" s="4">
-        <v>26.17</v>
+        <v>26.55886</v>
       </c>
       <c r="C201" s="4">
-        <v>27.69</v>
+        <v>28.17</v>
       </c>
       <c r="D201" s="4">
-        <v>32.71</v>
+        <v>30.47381</v>
       </c>
       <c r="E201" s="4">
-        <v>42.86</v>
+        <v>42.51</v>
       </c>
       <c r="F201" s="4">
-        <v>81.23</v>
+        <v>81.69</v>
       </c>
       <c r="G201" s="4">
-        <v>140.31</v>
+        <v>138.32</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -3773,22 +3775,22 @@
         <v>2</v>
       </c>
       <c r="B202" s="4">
-        <v>302.25</v>
+        <v>369.24</v>
       </c>
       <c r="C202" s="4">
-        <v>304.47</v>
+        <v>307.6</v>
       </c>
       <c r="D202" s="4">
-        <v>91.20999999999999</v>
+        <v>184.79</v>
       </c>
       <c r="E202" s="4">
-        <v>237.45</v>
+        <v>154.42</v>
       </c>
       <c r="F202" s="4">
-        <v>173.48</v>
+        <v>184.24</v>
       </c>
       <c r="G202" s="4">
-        <v>389.34</v>
+        <v>359.47</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -3796,22 +3798,22 @@
         <v>3</v>
       </c>
       <c r="B203" s="4">
-        <v>86.23999999999999</v>
+        <v>80.87</v>
       </c>
       <c r="C203" s="4">
-        <v>101.05</v>
+        <v>112.29</v>
       </c>
       <c r="D203" s="4">
-        <v>204.33</v>
+        <v>152.83</v>
       </c>
       <c r="E203" s="4">
-        <v>355.19</v>
+        <v>360.49</v>
       </c>
       <c r="F203" s="4">
-        <v>847.39</v>
+        <v>837.09</v>
       </c>
       <c r="G203" s="4">
-        <v>1664.29</v>
+        <v>1905.59</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -3850,22 +3852,22 @@
         <v>1</v>
       </c>
       <c r="B207" s="4">
-        <v>27</v>
+        <v>55.04</v>
       </c>
       <c r="C207" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D207" s="4">
-        <v>36</v>
+        <v>38.144</v>
       </c>
       <c r="E207" s="4">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F207" s="4">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G207" s="4">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -3873,22 +3875,22 @@
         <v>2</v>
       </c>
       <c r="B208" s="4">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="C208" s="4">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D208" s="4">
-        <v>167</v>
+        <v>347</v>
       </c>
       <c r="E208" s="4">
-        <v>424</v>
+        <v>371</v>
       </c>
       <c r="F208" s="4">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="G208" s="4">
-        <v>701</v>
+        <v>486</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -3896,22 +3898,22 @@
         <v>3</v>
       </c>
       <c r="B209" s="4">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C209" s="4">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D209" s="4">
-        <v>260</v>
+        <v>178</v>
       </c>
       <c r="E209" s="4">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F209" s="4">
-        <v>996</v>
+        <v>1020</v>
       </c>
       <c r="G209" s="4">
-        <v>5342</v>
+        <v>5735</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -3950,22 +3952,22 @@
         <v>1</v>
       </c>
       <c r="B213" s="4">
-        <v>112</v>
+        <v>63.232</v>
       </c>
       <c r="C213" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D213" s="4">
-        <v>117</v>
+        <v>45.312</v>
       </c>
       <c r="E213" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F213" s="4">
         <v>178</v>
       </c>
       <c r="G213" s="4">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -3973,22 +3975,22 @@
         <v>2</v>
       </c>
       <c r="B214" s="4">
-        <v>537</v>
+        <v>461</v>
       </c>
       <c r="C214" s="4">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="D214" s="4">
-        <v>379</v>
+        <v>445</v>
       </c>
       <c r="E214" s="4">
-        <v>478</v>
+        <v>424</v>
       </c>
       <c r="F214" s="4">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="G214" s="4">
-        <v>906</v>
+        <v>701</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -3996,22 +3998,22 @@
         <v>3</v>
       </c>
       <c r="B215" s="4">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="C215" s="4">
-        <v>260</v>
+        <v>123</v>
       </c>
       <c r="D215" s="4">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="E215" s="4">
-        <v>676</v>
+        <v>742</v>
       </c>
       <c r="F215" s="4">
-        <v>4817</v>
+        <v>6783</v>
       </c>
       <c r="G215" s="4">
-        <v>12387</v>
+        <v>11207</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -4050,22 +4052,22 @@
         <v>1</v>
       </c>
       <c r="B220" s="3">
-        <v>321000</v>
+        <v>334000</v>
       </c>
       <c r="C220" s="3">
-        <v>415000</v>
+        <v>417000</v>
       </c>
       <c r="D220" s="3">
-        <v>504000</v>
+        <v>500000</v>
       </c>
       <c r="E220" s="3">
-        <v>552000</v>
+        <v>557000</v>
       </c>
       <c r="F220" s="3">
-        <v>529000</v>
+        <v>583000</v>
       </c>
       <c r="G220" s="3">
-        <v>553000</v>
+        <v>558000</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -4073,22 +4075,22 @@
         <v>2</v>
       </c>
       <c r="B221" s="3">
-        <v>63600</v>
+        <v>67000</v>
       </c>
       <c r="C221" s="3">
-        <v>134000</v>
+        <v>169000</v>
       </c>
       <c r="D221" s="3">
-        <v>246000</v>
+        <v>248000</v>
       </c>
       <c r="E221" s="3">
-        <v>315000</v>
+        <v>310000</v>
       </c>
       <c r="F221" s="3">
-        <v>360000</v>
+        <v>388000</v>
       </c>
       <c r="G221" s="3">
-        <v>450000</v>
+        <v>449000</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -4096,22 +4098,22 @@
         <v>3</v>
       </c>
       <c r="B222" s="3">
-        <v>108000</v>
+        <v>126000</v>
       </c>
       <c r="C222" s="3">
-        <v>156000</v>
+        <v>169000</v>
       </c>
       <c r="D222" s="3">
-        <v>196000</v>
+        <v>188000</v>
       </c>
       <c r="E222" s="3">
-        <v>218000</v>
+        <v>222000</v>
       </c>
       <c r="F222" s="3">
-        <v>202000</v>
+        <v>201000</v>
       </c>
       <c r="G222" s="3">
-        <v>174000</v>
+        <v>179000</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -4150,22 +4152,22 @@
         <v>1</v>
       </c>
       <c r="B226" s="4">
-        <v>1315.96288</v>
+        <v>1369.440256</v>
       </c>
       <c r="C226" s="4">
-        <v>1698.69312</v>
+        <v>1710.227456</v>
       </c>
       <c r="D226" s="4">
-        <v>2064.646144</v>
+        <v>2048.917504</v>
       </c>
       <c r="E226" s="4">
-        <v>2260.729856</v>
+        <v>2279.604224</v>
       </c>
       <c r="F226" s="4">
-        <v>2167.406592</v>
+        <v>2386.558976</v>
       </c>
       <c r="G226" s="4">
-        <v>2263.875584</v>
+        <v>2285.89568</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -4173,22 +4175,22 @@
         <v>2</v>
       </c>
       <c r="B227" s="4">
-        <v>261.095424</v>
+        <v>278.921216</v>
       </c>
       <c r="C227" s="4">
-        <v>550.5024</v>
+        <v>693.108736</v>
       </c>
       <c r="D227" s="4">
-        <v>1008.730112</v>
+        <v>1017.11872</v>
       </c>
       <c r="E227" s="4">
-        <v>1288.699904</v>
+        <v>1270.874112</v>
       </c>
       <c r="F227" s="4">
-        <v>1473.24928</v>
+        <v>1589.641216</v>
       </c>
       <c r="G227" s="4">
-        <v>1844.445184</v>
+        <v>1840.25088</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -4196,22 +4198,22 @@
         <v>3</v>
       </c>
       <c r="B228" s="4">
-        <v>442.499072</v>
+        <v>513.80224</v>
       </c>
       <c r="C228" s="4">
-        <v>639.63136</v>
+        <v>693.108736</v>
       </c>
       <c r="D228" s="4">
-        <v>801.112064</v>
+        <v>770.70336</v>
       </c>
       <c r="E228" s="4">
-        <v>891.2896</v>
+        <v>910.163968</v>
       </c>
       <c r="F228" s="4">
-        <v>828.37504</v>
+        <v>822.083584</v>
       </c>
       <c r="G228" s="4">
-        <v>713.0316800000001</v>
+        <v>732.954624</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -4250,22 +4252,22 @@
         <v>1</v>
       </c>
       <c r="B232" s="4">
-        <v>0.98603</v>
+        <v>0.90073</v>
       </c>
       <c r="C232" s="4">
-        <v>1.05996</v>
+        <v>1.03875</v>
       </c>
       <c r="D232" s="4">
-        <v>1.11285</v>
+        <v>1.11355</v>
       </c>
       <c r="E232" s="4">
-        <v>1.37136</v>
+        <v>1.39333</v>
       </c>
       <c r="F232" s="4">
-        <v>2.47946</v>
+        <v>2.50539</v>
       </c>
       <c r="G232" s="4">
-        <v>4.26153</v>
+        <v>4.08878</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -4273,22 +4275,18 @@
         <v>2</v>
       </c>
       <c r="B233" s="4">
-        <v>13.37</v>
-      </c>
-      <c r="C233" s="4">
-        <v>11.02</v>
-      </c>
-      <c r="D233" s="4">
-        <v>10.21</v>
-      </c>
+        <v>12.32</v>
+      </c>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4"/>
       <c r="E233" s="4">
-        <v>12.87</v>
+        <v>13.09</v>
       </c>
       <c r="F233" s="4">
-        <v>18.61</v>
+        <v>15.39</v>
       </c>
       <c r="G233" s="4">
-        <v>27.09</v>
+        <v>28.45</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -4298,16 +4296,16 @@
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4">
-        <v>15.53</v>
+        <v>15.26</v>
       </c>
       <c r="E234" s="4">
-        <v>24.94</v>
+        <v>27</v>
       </c>
       <c r="F234" s="4">
-        <v>62.99</v>
+        <v>64.09</v>
       </c>
       <c r="G234" s="4">
-        <v>150.38</v>
+        <v>154.75</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -4346,22 +4344,22 @@
         <v>1</v>
       </c>
       <c r="B238" s="4">
-        <v>1.496</v>
+        <v>1.304</v>
       </c>
       <c r="C238" s="4">
-        <v>1.848</v>
+        <v>1.96</v>
       </c>
       <c r="D238" s="4">
-        <v>2.576</v>
+        <v>2.064</v>
       </c>
       <c r="E238" s="4">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="F238" s="4">
-        <v>4.32</v>
+        <v>4.64</v>
       </c>
       <c r="G238" s="4">
-        <v>6.048</v>
+        <v>5.792</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -4369,22 +4367,22 @@
         <v>2</v>
       </c>
       <c r="B239" s="4">
+        <v>34</v>
+      </c>
+      <c r="C239" s="4">
+        <v>21</v>
+      </c>
+      <c r="D239" s="4">
+        <v>23</v>
+      </c>
+      <c r="E239" s="4">
         <v>39</v>
       </c>
-      <c r="C239" s="4">
-        <v>28</v>
-      </c>
-      <c r="D239" s="4">
-        <v>18</v>
-      </c>
-      <c r="E239" s="4">
-        <v>31.616</v>
-      </c>
       <c r="F239" s="4">
-        <v>50</v>
+        <v>28.544</v>
       </c>
       <c r="G239" s="4">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -4392,19 +4390,19 @@
         <v>3</v>
       </c>
       <c r="B240" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C240" s="4">
         <v>10</v>
       </c>
       <c r="D240" s="4">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E240" s="4">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F240" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G240" s="4">
         <v>338</v>
@@ -4446,22 +4444,22 @@
         <v>1</v>
       </c>
       <c r="B244" s="4">
-        <v>4.256</v>
+        <v>2.416</v>
       </c>
       <c r="C244" s="4">
-        <v>4.32</v>
+        <v>2.928</v>
       </c>
       <c r="D244" s="4">
-        <v>3.984</v>
+        <v>3.184</v>
       </c>
       <c r="E244" s="4">
-        <v>4.832</v>
+        <v>5.024</v>
       </c>
       <c r="F244" s="4">
-        <v>8.384</v>
+        <v>8.768000000000001</v>
       </c>
       <c r="G244" s="4">
-        <v>12.608</v>
+        <v>12.864</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -4469,22 +4467,22 @@
         <v>2</v>
       </c>
       <c r="B245" s="4">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C245" s="4">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D245" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E245" s="4">
-        <v>48.896</v>
+        <v>58</v>
       </c>
       <c r="F245" s="4">
-        <v>80</v>
+        <v>43.776</v>
       </c>
       <c r="G245" s="4">
-        <v>95</v>
+        <v>121</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -4492,19 +4490,19 @@
         <v>3</v>
       </c>
       <c r="B246" s="4">
+        <v>18</v>
+      </c>
+      <c r="C246" s="4">
         <v>16</v>
       </c>
-      <c r="C246" s="4">
-        <v>12</v>
-      </c>
       <c r="D246" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E246" s="4">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F246" s="4">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G246" s="4">
         <v>498</v>

--- a/rfuse/summary.xlsx
+++ b/rfuse/summary.xlsx
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="C3" s="3">
-        <v>14300</v>
+        <v>21800</v>
       </c>
       <c r="D3" s="3">
-        <v>28200</v>
+        <v>35600</v>
       </c>
       <c r="E3" s="3">
-        <v>41400</v>
+        <v>47400</v>
       </c>
       <c r="F3" s="3">
-        <v>51800</v>
+        <v>53500</v>
       </c>
       <c r="G3" s="3">
-        <v>53900</v>
+        <v>54300</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -581,22 +581,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2625</v>
+        <v>8393</v>
       </c>
       <c r="C4" s="3">
-        <v>15600</v>
+        <v>16400</v>
       </c>
       <c r="D4" s="3">
-        <v>26300</v>
+        <v>29700</v>
       </c>
       <c r="E4" s="3">
-        <v>43100</v>
+        <v>43800</v>
       </c>
       <c r="F4" s="3">
         <v>51700</v>
       </c>
       <c r="G4" s="3">
-        <v>48700</v>
+        <v>52100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -604,22 +604,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>3220</v>
+        <v>6692</v>
       </c>
       <c r="C5" s="3">
-        <v>10700</v>
+        <v>8224</v>
       </c>
       <c r="D5" s="3">
-        <v>10900</v>
+        <v>19200</v>
       </c>
       <c r="E5" s="3">
-        <v>24000</v>
+        <v>28600</v>
       </c>
       <c r="F5" s="3">
-        <v>32000</v>
+        <v>33900</v>
       </c>
       <c r="G5" s="3">
-        <v>50400</v>
+        <v>50500</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -658,22 +658,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="4">
-        <v>1428.160512</v>
+        <v>1458.569216</v>
       </c>
       <c r="C9" s="4">
-        <v>1876.95104</v>
+        <v>2855.272448</v>
       </c>
       <c r="D9" s="4">
-        <v>3702.521856</v>
+        <v>4668.260352</v>
       </c>
       <c r="E9" s="4">
-        <v>5423.235072</v>
+        <v>6206.521344</v>
       </c>
       <c r="F9" s="4">
-        <v>6795.821056</v>
+        <v>7018.119168</v>
       </c>
       <c r="G9" s="4">
-        <v>7064.256512</v>
+        <v>7110.393856</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -681,22 +681,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>343.932928</v>
+        <v>1099.956224</v>
       </c>
       <c r="C10" s="4">
-        <v>2048.917504</v>
+        <v>2147.483648</v>
       </c>
       <c r="D10" s="4">
-        <v>3441.426432</v>
+        <v>3890.21696</v>
       </c>
       <c r="E10" s="4">
-        <v>5650.776064</v>
+        <v>5742.002176</v>
       </c>
       <c r="F10" s="4">
         <v>6774.849536</v>
       </c>
       <c r="G10" s="4">
-        <v>6381.633536</v>
+        <v>6828.326912</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -704,22 +704,22 @@
         <v>3</v>
       </c>
       <c r="B11" s="4">
-        <v>422.576128</v>
+        <v>877.658112</v>
       </c>
       <c r="C11" s="4">
-        <v>1405.09184</v>
+        <v>1077.936128</v>
       </c>
       <c r="D11" s="4">
-        <v>1423.966208</v>
+        <v>2520.776704</v>
       </c>
       <c r="E11" s="4">
-        <v>3148.873728</v>
+        <v>3753.90208</v>
       </c>
       <c r="F11" s="4">
-        <v>4321.181696</v>
+        <v>4436.525056</v>
       </c>
       <c r="G11" s="4">
-        <v>6608.125952</v>
+        <v>6617.563136</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -758,22 +758,22 @@
         <v>1</v>
       </c>
       <c r="B15" s="4">
-        <v>91.65000000000001</v>
+        <v>88.73</v>
       </c>
       <c r="C15" s="4">
-        <v>137.61</v>
+        <v>90.03</v>
       </c>
       <c r="D15" s="4">
-        <v>138.18</v>
+        <v>110.37</v>
       </c>
       <c r="E15" s="4">
-        <v>184.08</v>
+        <v>165.62</v>
       </c>
       <c r="F15" s="4">
-        <v>297.8</v>
+        <v>293.46</v>
       </c>
       <c r="G15" s="4">
-        <v>579.08</v>
+        <v>579.85</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -781,22 +781,22 @@
         <v>2</v>
       </c>
       <c r="B16" s="4">
-        <v>378.98</v>
+        <v>118.36</v>
       </c>
       <c r="C16" s="4">
-        <v>124.27</v>
+        <v>118.87</v>
       </c>
       <c r="D16" s="4">
-        <v>149.87</v>
+        <v>131.46</v>
       </c>
       <c r="E16" s="4">
-        <v>179.89</v>
+        <v>178.7</v>
       </c>
       <c r="F16" s="4">
-        <v>304.63</v>
+        <v>304.78</v>
       </c>
       <c r="G16" s="4">
-        <v>646.0599999999999</v>
+        <v>604.4</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -804,22 +804,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="4">
-        <v>302.32</v>
+        <v>143.06</v>
       </c>
       <c r="C17" s="4">
-        <v>170.34</v>
+        <v>226.6</v>
       </c>
       <c r="D17" s="4">
-        <v>357.78</v>
+        <v>192.78</v>
       </c>
       <c r="E17" s="4">
-        <v>296.76</v>
+        <v>252.55</v>
       </c>
       <c r="F17" s="4">
-        <v>460.22</v>
+        <v>418.55</v>
       </c>
       <c r="G17" s="4">
-        <v>597.3099999999999</v>
+        <v>594.86</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -858,22 +858,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="4">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C21" s="4">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="D21" s="4">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="E21" s="4">
         <v>338</v>
       </c>
       <c r="F21" s="4">
-        <v>627</v>
+        <v>668</v>
       </c>
       <c r="G21" s="4">
-        <v>1221</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -881,22 +881,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>644</v>
+        <v>206</v>
       </c>
       <c r="C22" s="4">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D22" s="4">
-        <v>318</v>
+        <v>229</v>
       </c>
       <c r="E22" s="4">
         <v>343</v>
       </c>
       <c r="F22" s="4">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="G22" s="4">
-        <v>1516</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -904,22 +904,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>603</v>
+        <v>239</v>
       </c>
       <c r="C23" s="4">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="D23" s="4">
-        <v>668</v>
+        <v>408</v>
       </c>
       <c r="E23" s="4">
-        <v>603</v>
+        <v>570</v>
       </c>
       <c r="F23" s="4">
-        <v>938</v>
+        <v>1045</v>
       </c>
       <c r="G23" s="4">
-        <v>1287</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -958,22 +958,22 @@
         <v>1</v>
       </c>
       <c r="B27" s="4">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C27" s="4">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="D27" s="4">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c r="E27" s="4">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="F27" s="4">
-        <v>791</v>
+        <v>840</v>
       </c>
       <c r="G27" s="4">
-        <v>1467</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -981,22 +981,22 @@
         <v>2</v>
       </c>
       <c r="B28" s="4">
-        <v>668</v>
+        <v>265</v>
       </c>
       <c r="C28" s="4">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D28" s="4">
-        <v>586</v>
+        <v>253</v>
       </c>
       <c r="E28" s="4">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F28" s="4">
         <v>791</v>
       </c>
       <c r="G28" s="4">
-        <v>2147</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1004,22 +1004,22 @@
         <v>3</v>
       </c>
       <c r="B29" s="4">
-        <v>644</v>
+        <v>269</v>
       </c>
       <c r="C29" s="4">
-        <v>709</v>
+        <v>660</v>
       </c>
       <c r="D29" s="4">
-        <v>734</v>
+        <v>799</v>
       </c>
       <c r="E29" s="4">
-        <v>1106</v>
+        <v>1795</v>
       </c>
       <c r="F29" s="4">
-        <v>1221</v>
+        <v>5538</v>
       </c>
       <c r="G29" s="4">
-        <v>1713</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1058,22 +1058,22 @@
         <v>1</v>
       </c>
       <c r="B34" s="3">
-        <v>23200</v>
+        <v>29900</v>
       </c>
       <c r="C34" s="3">
-        <v>49500</v>
+        <v>64900</v>
       </c>
       <c r="D34" s="3">
-        <v>102000</v>
+        <v>136000</v>
       </c>
       <c r="E34" s="3">
-        <v>222000</v>
+        <v>257000</v>
       </c>
       <c r="F34" s="3">
-        <v>382000</v>
+        <v>450000</v>
       </c>
       <c r="G34" s="3">
-        <v>547000</v>
+        <v>642000</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1081,22 +1081,22 @@
         <v>2</v>
       </c>
       <c r="B35" s="3">
-        <v>16500</v>
+        <v>23100</v>
       </c>
       <c r="C35" s="3">
-        <v>33100</v>
+        <v>55200</v>
       </c>
       <c r="D35" s="3">
-        <v>65300</v>
+        <v>118000</v>
       </c>
       <c r="E35" s="3">
-        <v>191000</v>
+        <v>221000</v>
       </c>
       <c r="F35" s="3">
-        <v>322000</v>
+        <v>317000</v>
       </c>
       <c r="G35" s="3">
-        <v>306000</v>
+        <v>319000</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1104,22 +1104,22 @@
         <v>3</v>
       </c>
       <c r="B36" s="3">
-        <v>16400</v>
+        <v>16900</v>
       </c>
       <c r="C36" s="3">
-        <v>31700</v>
+        <v>48200</v>
       </c>
       <c r="D36" s="3">
-        <v>78700</v>
+        <v>94400</v>
       </c>
       <c r="E36" s="3">
-        <v>175000</v>
+        <v>99800</v>
       </c>
       <c r="F36" s="3">
-        <v>249000</v>
+        <v>121000</v>
       </c>
       <c r="G36" s="3">
-        <v>357000</v>
+        <v>152000</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1158,22 +1158,22 @@
         <v>1</v>
       </c>
       <c r="B40" s="4">
-        <v>95.2107008</v>
+        <v>122.683392</v>
       </c>
       <c r="C40" s="4">
-        <v>202.375168</v>
+        <v>265.289728</v>
       </c>
       <c r="D40" s="4">
-        <v>419.4304</v>
+        <v>558.8910080000001</v>
       </c>
       <c r="E40" s="4">
-        <v>908.066816</v>
+        <v>1053.81888</v>
       </c>
       <c r="F40" s="4">
-        <v>1563.426816</v>
+        <v>1841.299456</v>
       </c>
       <c r="G40" s="4">
-        <v>2240.806912</v>
+        <v>2629.828608</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1181,22 +1181,22 @@
         <v>2</v>
       </c>
       <c r="B41" s="4">
-        <v>67.52829440000001</v>
+        <v>94.6864128</v>
       </c>
       <c r="C41" s="4">
-        <v>135.266304</v>
+        <v>226.492416</v>
       </c>
       <c r="D41" s="4">
-        <v>267.38688</v>
+        <v>481.296384</v>
       </c>
       <c r="E41" s="4">
-        <v>780.140544</v>
+        <v>903.872512</v>
       </c>
       <c r="F41" s="4">
-        <v>1319.108608</v>
+        <v>1299.185664</v>
       </c>
       <c r="G41" s="4">
-        <v>1251.999744</v>
+        <v>1304.428544</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1204,22 +1204,22 @@
         <v>3</v>
       </c>
       <c r="B42" s="4">
-        <v>67.00400639999999</v>
+        <v>68.9963008</v>
       </c>
       <c r="C42" s="4">
-        <v>130.023424</v>
+        <v>197.132288</v>
       </c>
       <c r="D42" s="4">
-        <v>322.961408</v>
+        <v>386.924544</v>
       </c>
       <c r="E42" s="4">
-        <v>716.177408</v>
+        <v>408.94464</v>
       </c>
       <c r="F42" s="4">
-        <v>1019.215872</v>
+        <v>495.976448</v>
       </c>
       <c r="G42" s="4">
-        <v>1463.812096</v>
+        <v>621.805568</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1258,22 +1258,22 @@
         <v>1</v>
       </c>
       <c r="B46" s="4">
-        <v>42.26125</v>
+        <v>33.02207</v>
       </c>
       <c r="C46" s="4">
-        <v>39.61178</v>
+        <v>30.53375</v>
       </c>
       <c r="D46" s="4">
-        <v>35.99106</v>
+        <v>28.91772</v>
       </c>
       <c r="E46" s="4">
-        <v>33.33878</v>
+        <v>29.96353</v>
       </c>
       <c r="F46" s="4">
-        <v>39.28735</v>
+        <v>34.77941000000001</v>
       </c>
       <c r="G46" s="4">
-        <v>55.54562000000001</v>
+        <v>49.09805</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1281,22 +1281,22 @@
         <v>2</v>
       </c>
       <c r="B47" s="4">
-        <v>59.91373</v>
+        <v>42.96025</v>
       </c>
       <c r="C47" s="4">
-        <v>59.41616</v>
+        <v>35.69687</v>
       </c>
       <c r="D47" s="4">
-        <v>60.19107</v>
+        <v>33.51166000000001</v>
       </c>
       <c r="E47" s="4">
-        <v>41.41822000000001</v>
+        <v>35.71396</v>
       </c>
       <c r="F47" s="4">
-        <v>49.1736</v>
+        <v>49.86084</v>
       </c>
       <c r="G47" s="4">
-        <v>103.90328</v>
+        <v>99.79921</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1304,22 +1304,22 @@
         <v>3</v>
       </c>
       <c r="B48" s="4">
-        <v>60.18635</v>
+        <v>58.48469</v>
       </c>
       <c r="C48" s="4">
-        <v>62.15586</v>
+        <v>40.74677</v>
       </c>
       <c r="D48" s="4">
-        <v>49.89255000000001</v>
+        <v>41.66247</v>
       </c>
       <c r="E48" s="4">
-        <v>44.38476</v>
+        <v>78.70552000000001</v>
       </c>
       <c r="F48" s="4">
-        <v>61.9583</v>
+        <v>128.29305</v>
       </c>
       <c r="G48" s="4">
-        <v>85.36058</v>
+        <v>203.49275</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1358,22 +1358,22 @@
         <v>1</v>
       </c>
       <c r="B52" s="4">
-        <v>69.12</v>
+        <v>67.072</v>
       </c>
       <c r="C52" s="4">
-        <v>67.072</v>
+        <v>62.208</v>
       </c>
       <c r="D52" s="4">
-        <v>69.12</v>
+        <v>58.112</v>
       </c>
       <c r="E52" s="4">
-        <v>66.048</v>
+        <v>62.72</v>
       </c>
       <c r="F52" s="4">
-        <v>83.456</v>
+        <v>81.408</v>
       </c>
       <c r="G52" s="4">
-        <v>128.512</v>
+        <v>134.144</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1381,22 +1381,22 @@
         <v>2</v>
       </c>
       <c r="B53" s="4">
-        <v>116.224</v>
+        <v>98.816</v>
       </c>
       <c r="C53" s="4">
-        <v>118.272</v>
+        <v>72.19200000000001</v>
       </c>
       <c r="D53" s="4">
-        <v>118.272</v>
+        <v>76.288</v>
       </c>
       <c r="E53" s="4">
-        <v>102.912</v>
+        <v>90.624</v>
       </c>
       <c r="F53" s="4">
-        <v>124.416</v>
+        <v>125.44</v>
       </c>
       <c r="G53" s="4">
-        <v>309.248</v>
+        <v>292.864</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1404,22 +1404,22 @@
         <v>3</v>
       </c>
       <c r="B54" s="4">
-        <v>121.344</v>
+        <v>123.392</v>
       </c>
       <c r="C54" s="4">
-        <v>125.44</v>
+        <v>86.52800000000001</v>
       </c>
       <c r="D54" s="4">
-        <v>114.176</v>
+        <v>82.432</v>
       </c>
       <c r="E54" s="4">
-        <v>97.792</v>
+        <v>119.296</v>
       </c>
       <c r="F54" s="4">
-        <v>123.392</v>
+        <v>140.288</v>
       </c>
       <c r="G54" s="4">
-        <v>205.824</v>
+        <v>238.592</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1458,22 +1458,22 @@
         <v>1</v>
       </c>
       <c r="B58" s="4">
-        <v>72.19200000000001</v>
+        <v>71.16800000000001</v>
       </c>
       <c r="C58" s="4">
-        <v>72.19200000000001</v>
+        <v>71.16800000000001</v>
       </c>
       <c r="D58" s="4">
-        <v>77.312</v>
+        <v>73.21600000000001</v>
       </c>
       <c r="E58" s="4">
-        <v>79.36</v>
+        <v>78.336</v>
       </c>
       <c r="F58" s="4">
-        <v>107.008</v>
+        <v>109.056</v>
       </c>
       <c r="G58" s="4">
-        <v>168.96</v>
+        <v>189.44</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1481,22 +1481,22 @@
         <v>2</v>
       </c>
       <c r="B59" s="4">
-        <v>152.576</v>
+        <v>118.272</v>
       </c>
       <c r="C59" s="4">
-        <v>144.384</v>
+        <v>94.72</v>
       </c>
       <c r="D59" s="4">
-        <v>144.384</v>
+        <v>100.864</v>
       </c>
       <c r="E59" s="4">
-        <v>136.192</v>
+        <v>129.536</v>
       </c>
       <c r="F59" s="4">
-        <v>183.296</v>
+        <v>185.344</v>
       </c>
       <c r="G59" s="4">
-        <v>473.088</v>
+        <v>415.744</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1504,22 +1504,22 @@
         <v>3</v>
       </c>
       <c r="B60" s="4">
-        <v>148.48</v>
+        <v>214.016</v>
       </c>
       <c r="C60" s="4">
-        <v>158.72</v>
+        <v>114.176</v>
       </c>
       <c r="D60" s="4">
-        <v>152.576</v>
+        <v>127.488</v>
       </c>
       <c r="E60" s="4">
-        <v>146.432</v>
+        <v>724.992</v>
       </c>
       <c r="F60" s="4">
-        <v>224.256</v>
+        <v>1384.448</v>
       </c>
       <c r="G60" s="4">
-        <v>452.608</v>
+        <v>5406.72</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1558,22 +1558,22 @@
         <v>1</v>
       </c>
       <c r="B65" s="3">
-        <v>13500</v>
+        <v>15300</v>
       </c>
       <c r="C65" s="3">
-        <v>21300</v>
+        <v>20700</v>
       </c>
       <c r="D65" s="3">
-        <v>22600</v>
+        <v>23300</v>
       </c>
       <c r="E65" s="3">
-        <v>24500</v>
+        <v>26600</v>
       </c>
       <c r="F65" s="3">
-        <v>27300</v>
+        <v>26500</v>
       </c>
       <c r="G65" s="3">
-        <v>27000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1581,22 +1581,22 @@
         <v>2</v>
       </c>
       <c r="B66" s="3">
-        <v>4248</v>
+        <v>10600</v>
       </c>
       <c r="C66" s="3">
-        <v>7314</v>
+        <v>14100</v>
       </c>
       <c r="D66" s="3">
-        <v>14600</v>
+        <v>13200</v>
       </c>
       <c r="E66" s="3">
-        <v>18700</v>
+        <v>16100</v>
       </c>
       <c r="F66" s="3">
-        <v>21300</v>
+        <v>21100</v>
       </c>
       <c r="G66" s="3">
-        <v>22000</v>
+        <v>22800</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1604,22 +1604,22 @@
         <v>3</v>
       </c>
       <c r="B67" s="3">
-        <v>9142</v>
+        <v>6826</v>
       </c>
       <c r="C67" s="3">
-        <v>10400</v>
+        <v>9061</v>
       </c>
       <c r="D67" s="3">
-        <v>11300</v>
+        <v>10000</v>
       </c>
       <c r="E67" s="3">
-        <v>14200</v>
+        <v>13300</v>
       </c>
       <c r="F67" s="3">
-        <v>13800</v>
+        <v>13700</v>
       </c>
       <c r="G67" s="3">
-        <v>11900</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1658,22 +1658,22 @@
         <v>1</v>
       </c>
       <c r="B71" s="4">
-        <v>1765.801984</v>
+        <v>2002.78016</v>
       </c>
       <c r="C71" s="4">
-        <v>2796.552192</v>
+        <v>2711.617536</v>
       </c>
       <c r="D71" s="4">
-        <v>2966.421504</v>
+        <v>3050.307584</v>
       </c>
       <c r="E71" s="4">
-        <v>3205.496832</v>
+        <v>3486.5152</v>
       </c>
       <c r="F71" s="4">
-        <v>3578.789888</v>
+        <v>3469.737984</v>
       </c>
       <c r="G71" s="4">
-        <v>3544.18688</v>
+        <v>3602.907136</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -1681,22 +1681,22 @@
         <v>2</v>
       </c>
       <c r="B72" s="4">
-        <v>556.793856</v>
+        <v>1384.12032</v>
       </c>
       <c r="C72" s="4">
-        <v>958.398464</v>
+        <v>1851.785216</v>
       </c>
       <c r="D72" s="4">
-        <v>1910.505472</v>
+        <v>1725.956096</v>
       </c>
       <c r="E72" s="4">
-        <v>2451.570688</v>
+        <v>2109.734912</v>
       </c>
       <c r="F72" s="4">
-        <v>2792.357888</v>
+        <v>2759.852032</v>
       </c>
       <c r="G72" s="4">
-        <v>3009.41312</v>
+        <v>2984.247296</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -1704,22 +1704,22 @@
         <v>3</v>
       </c>
       <c r="B73" s="4">
-        <v>1198.522368</v>
+        <v>894.435328</v>
       </c>
       <c r="C73" s="4">
-        <v>1369.440256</v>
+        <v>1188.036608</v>
       </c>
       <c r="D73" s="4">
-        <v>1478.49216</v>
+        <v>1435.500544</v>
       </c>
       <c r="E73" s="4">
-        <v>1858.076672</v>
+        <v>1749.024768</v>
       </c>
       <c r="F73" s="4">
-        <v>1805.647872</v>
+        <v>1793.06496</v>
       </c>
       <c r="G73" s="4">
-        <v>1563.426816</v>
+        <v>1763.704832</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -1758,22 +1758,22 @@
         <v>1</v>
       </c>
       <c r="B77" s="4">
-        <v>30.26</v>
+        <v>24.72</v>
       </c>
       <c r="C77" s="4">
-        <v>27.91</v>
+        <v>26.99</v>
       </c>
       <c r="D77" s="4">
-        <v>37.11</v>
+        <v>32.27</v>
       </c>
       <c r="E77" s="4">
-        <v>60.05</v>
+        <v>40.63</v>
       </c>
       <c r="F77" s="4">
-        <v>82.79000000000001</v>
+        <v>82.63</v>
       </c>
       <c r="G77" s="4">
-        <v>149.54</v>
+        <v>182.2</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -1781,22 +1781,22 @@
         <v>2</v>
       </c>
       <c r="B78" s="4">
-        <v>190.85</v>
+        <v>58.78</v>
       </c>
       <c r="C78" s="4">
-        <v>199.88</v>
+        <v>64.19</v>
       </c>
       <c r="D78" s="4">
-        <v>140.04</v>
+        <v>166.81</v>
       </c>
       <c r="E78" s="4">
-        <v>165.59</v>
+        <v>229.85</v>
       </c>
       <c r="F78" s="4">
-        <v>229.43</v>
+        <v>229.91</v>
       </c>
       <c r="G78" s="4">
-        <v>362.27</v>
+        <v>357.08</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -1804,22 +1804,22 @@
         <v>3</v>
       </c>
       <c r="B79" s="4">
-        <v>57.95</v>
+        <v>94.77</v>
       </c>
       <c r="C79" s="4">
-        <v>116.38</v>
+        <v>157.92</v>
       </c>
       <c r="D79" s="4">
-        <v>210.73</v>
+        <v>230.86</v>
       </c>
       <c r="E79" s="4">
-        <v>306.89</v>
+        <v>344.14</v>
       </c>
       <c r="F79" s="4">
-        <v>745.85</v>
+        <v>724.0599999999999</v>
       </c>
       <c r="G79" s="4">
-        <v>1774.43</v>
+        <v>1715.54</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -1858,22 +1858,22 @@
         <v>1</v>
       </c>
       <c r="B83" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C83" s="4">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D83" s="4">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="E83" s="4">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="F83" s="4">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G83" s="4">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -1881,22 +1881,22 @@
         <v>2</v>
       </c>
       <c r="B84" s="4">
-        <v>449</v>
+        <v>103</v>
       </c>
       <c r="C84" s="4">
-        <v>416</v>
+        <v>85</v>
       </c>
       <c r="D84" s="4">
-        <v>285</v>
+        <v>363</v>
       </c>
       <c r="E84" s="4">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="F84" s="4">
         <v>478</v>
       </c>
       <c r="G84" s="4">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -1904,22 +1904,22 @@
         <v>3</v>
       </c>
       <c r="B85" s="4">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="C85" s="4">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D85" s="4">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="E85" s="4">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="F85" s="4">
         <v>1106</v>
       </c>
       <c r="G85" s="4">
-        <v>6259</v>
+        <v>6128</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -1958,22 +1958,22 @@
         <v>1</v>
       </c>
       <c r="B89" s="4">
-        <v>347</v>
+        <v>106</v>
       </c>
       <c r="C89" s="4">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="D89" s="4">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="E89" s="4">
+        <v>97</v>
+      </c>
+      <c r="F89" s="4">
         <v>172</v>
       </c>
-      <c r="F89" s="4">
-        <v>225</v>
-      </c>
       <c r="G89" s="4">
-        <v>383</v>
+        <v>816</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -1981,19 +1981,19 @@
         <v>2</v>
       </c>
       <c r="B90" s="4">
-        <v>578</v>
+        <v>151</v>
       </c>
       <c r="C90" s="4">
-        <v>529</v>
+        <v>145</v>
       </c>
       <c r="D90" s="4">
-        <v>343</v>
+        <v>486</v>
       </c>
       <c r="E90" s="4">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F90" s="4">
-        <v>619</v>
+        <v>652</v>
       </c>
       <c r="G90" s="4">
         <v>775</v>
@@ -2004,22 +2004,22 @@
         <v>3</v>
       </c>
       <c r="B91" s="4">
-        <v>89</v>
+        <v>457</v>
       </c>
       <c r="C91" s="4">
-        <v>184</v>
+        <v>1582</v>
       </c>
       <c r="D91" s="4">
-        <v>2966</v>
+        <v>3326</v>
       </c>
       <c r="E91" s="4">
-        <v>1205</v>
+        <v>4686</v>
       </c>
       <c r="F91" s="4">
-        <v>5866</v>
+        <v>7373</v>
       </c>
       <c r="G91" s="4">
-        <v>11863</v>
+        <v>12518</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2058,22 +2058,22 @@
         <v>1</v>
       </c>
       <c r="B96" s="3">
-        <v>334000</v>
+        <v>405000</v>
       </c>
       <c r="C96" s="3">
-        <v>529000</v>
+        <v>560000</v>
       </c>
       <c r="D96" s="3">
-        <v>662000</v>
+        <v>672000</v>
       </c>
       <c r="E96" s="3">
-        <v>787000</v>
+        <v>790000</v>
       </c>
       <c r="F96" s="3">
-        <v>742000</v>
+        <v>803000</v>
       </c>
       <c r="G96" s="3">
-        <v>842000</v>
+        <v>830000</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2081,22 +2081,22 @@
         <v>2</v>
       </c>
       <c r="B97" s="3">
-        <v>45300</v>
+        <v>115000</v>
       </c>
       <c r="C97" s="3">
-        <v>203000</v>
+        <v>207000</v>
       </c>
       <c r="D97" s="3">
-        <v>275000</v>
+        <v>284000</v>
       </c>
       <c r="E97" s="3">
-        <v>374000</v>
+        <v>394000</v>
       </c>
       <c r="F97" s="3">
-        <v>425000</v>
+        <v>406000</v>
       </c>
       <c r="G97" s="3">
-        <v>521000</v>
+        <v>475000</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2104,22 +2104,22 @@
         <v>3</v>
       </c>
       <c r="B98" s="3">
-        <v>116000</v>
+        <v>110000</v>
       </c>
       <c r="C98" s="3">
-        <v>143000</v>
+        <v>140000</v>
       </c>
       <c r="D98" s="3">
-        <v>183000</v>
+        <v>185000</v>
       </c>
       <c r="E98" s="3">
-        <v>227000</v>
+        <v>223000</v>
       </c>
       <c r="F98" s="3">
-        <v>174000</v>
+        <v>193000</v>
       </c>
       <c r="G98" s="3">
-        <v>156000</v>
+        <v>152000</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2158,22 +2158,22 @@
         <v>1</v>
       </c>
       <c r="B102" s="4">
-        <v>1369.440256</v>
+        <v>1656.75008</v>
       </c>
       <c r="C102" s="4">
-        <v>2165.30944</v>
+        <v>2294.284288</v>
       </c>
       <c r="D102" s="4">
-        <v>2711.617536</v>
+        <v>2753.560576</v>
       </c>
       <c r="E102" s="4">
-        <v>3224.3712</v>
+        <v>3233.808384</v>
       </c>
       <c r="F102" s="4">
-        <v>3037.724672</v>
+        <v>3288.334336</v>
       </c>
       <c r="G102" s="4">
-        <v>3449.81504</v>
+        <v>3400.531968</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2181,22 +2181,22 @@
         <v>2</v>
       </c>
       <c r="B103" s="4">
-        <v>185.597952</v>
+        <v>472.907776</v>
       </c>
       <c r="C103" s="4">
-        <v>831.520768</v>
+        <v>847.249408</v>
       </c>
       <c r="D103" s="4">
-        <v>1125.122048</v>
+        <v>1161.822208</v>
       </c>
       <c r="E103" s="4">
-        <v>1531.969536</v>
+        <v>1614.80704</v>
       </c>
       <c r="F103" s="4">
-        <v>1738.539008</v>
+        <v>1661.99296</v>
       </c>
       <c r="G103" s="4">
-        <v>2134.900736</v>
+        <v>1945.10848</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2204,22 +2204,22 @@
         <v>3</v>
       </c>
       <c r="B104" s="4">
-        <v>476.053504</v>
+        <v>451.936256</v>
       </c>
       <c r="C104" s="4">
-        <v>585.105408</v>
+        <v>572.522496</v>
       </c>
       <c r="D104" s="4">
-        <v>747.634688</v>
+        <v>757.071872</v>
       </c>
       <c r="E104" s="4">
-        <v>931.135488</v>
+        <v>912.26112</v>
       </c>
       <c r="F104" s="4">
-        <v>711.983104</v>
+        <v>789.577728</v>
       </c>
       <c r="G104" s="4">
-        <v>637.534208</v>
+        <v>623.90272</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2258,41 +2258,39 @@
         <v>1</v>
       </c>
       <c r="B108" s="4">
-        <v>1.45387</v>
+        <v>1.02821</v>
       </c>
       <c r="C108" s="4">
-        <v>1.20593</v>
+        <v>1.14414</v>
       </c>
       <c r="D108" s="4">
-        <v>1.31233</v>
+        <v>1.26034</v>
       </c>
       <c r="E108" s="4">
-        <v>1.70807</v>
+        <v>1.63246</v>
       </c>
       <c r="F108" s="4">
-        <v>2.71507</v>
+        <v>2.70891</v>
       </c>
       <c r="G108" s="4">
-        <v>4.70041</v>
+        <v>4.78694</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="4">
-        <v>20.3</v>
-      </c>
+      <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4">
-        <v>12.36</v>
+        <v>11.52</v>
       </c>
       <c r="F109" s="4">
-        <v>19.73</v>
+        <v>21.91</v>
       </c>
       <c r="G109" s="4">
-        <v>27.25</v>
+        <v>28.82</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2301,19 +2299,19 @@
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="4">
-        <v>11.73</v>
+        <v>11.47</v>
       </c>
       <c r="D110" s="4">
-        <v>17.63</v>
+        <v>16.9</v>
       </c>
       <c r="E110" s="4">
-        <v>27.32</v>
+        <v>28.69</v>
       </c>
       <c r="F110" s="4">
-        <v>74.11</v>
+        <v>71.14</v>
       </c>
       <c r="G110" s="4">
-        <v>174.53</v>
+        <v>181.69</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2352,22 +2350,22 @@
         <v>1</v>
       </c>
       <c r="B114" s="4">
-        <v>5.664</v>
+        <v>1.688</v>
       </c>
       <c r="C114" s="4">
-        <v>1.912</v>
+        <v>1.944</v>
       </c>
       <c r="D114" s="4">
-        <v>2.024</v>
+        <v>1.992</v>
       </c>
       <c r="E114" s="4">
         <v>2.8</v>
       </c>
       <c r="F114" s="4">
-        <v>4.64</v>
+        <v>4.576000000000001</v>
       </c>
       <c r="G114" s="4">
-        <v>6.624000000000001</v>
+        <v>6.112</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -2375,22 +2373,22 @@
         <v>2</v>
       </c>
       <c r="B115" s="4">
-        <v>41</v>
+        <v>9.407999999999999</v>
       </c>
       <c r="C115" s="4">
-        <v>9.536</v>
+        <v>9.664</v>
       </c>
       <c r="D115" s="4">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E115" s="4">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F115" s="4">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G115" s="4">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -2398,22 +2396,22 @@
         <v>3</v>
       </c>
       <c r="B116" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C116" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D116" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E116" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F116" s="4">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G116" s="4">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -2452,22 +2450,22 @@
         <v>1</v>
       </c>
       <c r="B120" s="4">
-        <v>6.88</v>
+        <v>2.04</v>
       </c>
       <c r="C120" s="4">
-        <v>6.688</v>
+        <v>2.416</v>
       </c>
       <c r="D120" s="4">
+        <v>6.496</v>
+      </c>
+      <c r="E120" s="4">
         <v>6.56</v>
       </c>
-      <c r="E120" s="4">
-        <v>6.88</v>
-      </c>
       <c r="F120" s="4">
-        <v>9.536</v>
+        <v>6.368</v>
       </c>
       <c r="G120" s="4">
-        <v>11.072</v>
+        <v>9.279999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -2475,22 +2473,22 @@
         <v>2</v>
       </c>
       <c r="B121" s="4">
-        <v>77</v>
+        <v>10.688</v>
       </c>
       <c r="C121" s="4">
-        <v>10.816</v>
+        <v>10.688</v>
       </c>
       <c r="D121" s="4">
         <v>44</v>
       </c>
       <c r="E121" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F121" s="4">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="G121" s="4">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -2501,19 +2499,19 @@
         <v>14</v>
       </c>
       <c r="C122" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D122" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E122" s="4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F122" s="4">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G122" s="4">
-        <v>627</v>
+        <v>693</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -2552,22 +2550,22 @@
         <v>1</v>
       </c>
       <c r="B127" s="3">
-        <v>16500</v>
+        <v>16800</v>
       </c>
       <c r="C127" s="3">
-        <v>34100</v>
+        <v>30100</v>
       </c>
       <c r="D127" s="3">
-        <v>42700</v>
+        <v>43100</v>
       </c>
       <c r="E127" s="3">
-        <v>42900</v>
+        <v>43100</v>
       </c>
       <c r="F127" s="3">
-        <v>41200</v>
+        <v>41300</v>
       </c>
       <c r="G127" s="3">
-        <v>41700</v>
+        <v>41800</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -2575,22 +2573,22 @@
         <v>2</v>
       </c>
       <c r="B128" s="3">
-        <v>9570</v>
+        <v>11900</v>
       </c>
       <c r="C128" s="3">
-        <v>16700</v>
+        <v>19500</v>
       </c>
       <c r="D128" s="3">
-        <v>39400</v>
+        <v>32300</v>
       </c>
       <c r="E128" s="3">
-        <v>27300</v>
+        <v>37800</v>
       </c>
       <c r="F128" s="3">
+        <v>29800</v>
+      </c>
+      <c r="G128" s="3">
         <v>29200</v>
-      </c>
-      <c r="G128" s="3">
-        <v>27900</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -2598,22 +2596,22 @@
         <v>3</v>
       </c>
       <c r="B129" s="3">
-        <v>5818</v>
+        <v>6606</v>
       </c>
       <c r="C129" s="3">
         <v>11300</v>
       </c>
       <c r="D129" s="3">
-        <v>23000</v>
+        <v>24400</v>
       </c>
       <c r="E129" s="3">
-        <v>32800</v>
+        <v>30100</v>
       </c>
       <c r="F129" s="3">
-        <v>38200</v>
+        <v>35800</v>
       </c>
       <c r="G129" s="3">
-        <v>39000</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -2652,22 +2650,22 @@
         <v>1</v>
       </c>
       <c r="B133" s="4">
-        <v>2165.30944</v>
+        <v>2199.912448</v>
       </c>
       <c r="C133" s="4">
-        <v>4474.273792</v>
+        <v>3947.88864</v>
       </c>
       <c r="D133" s="4">
-        <v>5592.055808</v>
+        <v>5650.776064</v>
       </c>
       <c r="E133" s="4">
-        <v>5621.415936</v>
+        <v>5650.776064</v>
       </c>
       <c r="F133" s="4">
-        <v>5395.972096</v>
+        <v>5409.603584</v>
       </c>
       <c r="G133" s="4">
-        <v>5464.129536</v>
+        <v>5477.761024</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -2675,22 +2673,22 @@
         <v>2</v>
       </c>
       <c r="B134" s="4">
-        <v>1254.096896</v>
+        <v>1560.281088</v>
       </c>
       <c r="C134" s="4">
-        <v>2182.086656</v>
+        <v>2556.428288</v>
       </c>
       <c r="D134" s="4">
-        <v>5162.139648</v>
+        <v>4226.809856</v>
       </c>
       <c r="E134" s="4">
-        <v>3578.789888</v>
+        <v>4948.230144</v>
       </c>
       <c r="F134" s="4">
+        <v>3911.18848</v>
+      </c>
+      <c r="G134" s="4">
         <v>3828.350976</v>
-      </c>
-      <c r="G134" s="4">
-        <v>3661.627392</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -2698,22 +2696,22 @@
         <v>3</v>
       </c>
       <c r="B135" s="4">
-        <v>762.314752</v>
+        <v>866.123776</v>
       </c>
       <c r="C135" s="4">
         <v>1482.686464</v>
       </c>
       <c r="D135" s="4">
-        <v>3139.436544</v>
+        <v>3196.059648</v>
       </c>
       <c r="E135" s="4">
-        <v>4294.967296</v>
+        <v>3947.88864</v>
       </c>
       <c r="F135" s="4">
-        <v>5005.901824</v>
+        <v>4689.231872</v>
       </c>
       <c r="G135" s="4">
-        <v>5112.856576</v>
+        <v>4976.541696</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -2752,22 +2750,22 @@
         <v>1</v>
       </c>
       <c r="B139" s="4">
-        <v>59.78</v>
+        <v>58.94</v>
       </c>
       <c r="C139" s="4">
-        <v>57.68</v>
+        <v>64.8</v>
       </c>
       <c r="D139" s="4">
-        <v>92.47</v>
+        <v>91.79000000000001</v>
       </c>
       <c r="E139" s="4">
-        <v>184.05</v>
+        <v>184.51</v>
       </c>
       <c r="F139" s="4">
-        <v>384.16</v>
+        <v>384.97</v>
       </c>
       <c r="G139" s="4">
-        <v>761.34</v>
+        <v>763.27</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -2775,22 +2773,22 @@
         <v>2</v>
       </c>
       <c r="B140" s="4">
-        <v>102.87</v>
+        <v>83.08</v>
       </c>
       <c r="C140" s="4">
-        <v>107.62</v>
+        <v>95.27</v>
       </c>
       <c r="D140" s="4">
-        <v>97.18000000000001</v>
+        <v>119.51</v>
       </c>
       <c r="E140" s="4">
-        <v>287.17</v>
+        <v>205.08</v>
       </c>
       <c r="F140" s="4">
-        <v>530.01</v>
+        <v>486.75</v>
       </c>
       <c r="G140" s="4">
-        <v>1107.29</v>
+        <v>1000.64</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -2798,22 +2796,22 @@
         <v>3</v>
       </c>
       <c r="B141" s="4">
-        <v>164.83</v>
+        <v>144.45</v>
       </c>
       <c r="C141" s="4">
-        <v>172.15</v>
+        <v>164.72</v>
       </c>
       <c r="D141" s="4">
-        <v>153.46</v>
+        <v>150.91</v>
       </c>
       <c r="E141" s="4">
-        <v>213.35</v>
+        <v>240.48</v>
       </c>
       <c r="F141" s="4">
-        <v>389.62</v>
+        <v>410.07</v>
       </c>
       <c r="G141" s="4">
-        <v>782.04</v>
+        <v>793.33</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -2852,22 +2850,22 @@
         <v>1</v>
       </c>
       <c r="B145" s="4">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C145" s="4">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="D145" s="4">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="E145" s="4">
-        <v>437</v>
+        <v>619</v>
       </c>
       <c r="F145" s="4">
-        <v>1287</v>
+        <v>1237</v>
       </c>
       <c r="G145" s="4">
-        <v>2671</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -2875,22 +2873,22 @@
         <v>2</v>
       </c>
       <c r="B146" s="4">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="C146" s="4">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="D146" s="4">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="E146" s="4">
-        <v>889</v>
+        <v>603</v>
       </c>
       <c r="F146" s="4">
-        <v>1287</v>
+        <v>1450</v>
       </c>
       <c r="G146" s="4">
-        <v>3130</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -2898,22 +2896,22 @@
         <v>3</v>
       </c>
       <c r="B147" s="4">
-        <v>693</v>
+        <v>400</v>
       </c>
       <c r="C147" s="4">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="D147" s="4">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="E147" s="4">
-        <v>586</v>
+        <v>734</v>
       </c>
       <c r="F147" s="4">
         <v>1434</v>
       </c>
       <c r="G147" s="4">
-        <v>3294</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -2952,22 +2950,22 @@
         <v>1</v>
       </c>
       <c r="B151" s="4">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C151" s="4">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="D151" s="4">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="E151" s="4">
-        <v>562</v>
+        <v>668</v>
       </c>
       <c r="F151" s="4">
-        <v>1369</v>
+        <v>1303</v>
       </c>
       <c r="G151" s="4">
-        <v>2835</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -2975,22 +2973,22 @@
         <v>2</v>
       </c>
       <c r="B152" s="4">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C152" s="4">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="D152" s="4">
-        <v>359</v>
+        <v>469</v>
       </c>
       <c r="E152" s="4">
-        <v>1057</v>
+        <v>938</v>
       </c>
       <c r="F152" s="4">
-        <v>1418</v>
+        <v>1549</v>
       </c>
       <c r="G152" s="4">
-        <v>4047</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -2998,22 +2996,22 @@
         <v>3</v>
       </c>
       <c r="B153" s="4">
-        <v>775</v>
+        <v>537</v>
       </c>
       <c r="C153" s="4">
-        <v>725</v>
+        <v>881</v>
       </c>
       <c r="D153" s="4">
-        <v>865</v>
+        <v>1057</v>
       </c>
       <c r="E153" s="4">
-        <v>1844</v>
+        <v>2147</v>
       </c>
       <c r="F153" s="4">
-        <v>1827</v>
+        <v>3490</v>
       </c>
       <c r="G153" s="4">
-        <v>5800</v>
+        <v>6259</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3055,19 +3053,19 @@
         <v>504000</v>
       </c>
       <c r="C158" s="3">
-        <v>898000</v>
+        <v>819000</v>
       </c>
       <c r="D158" s="3">
         <v>1016000</v>
       </c>
       <c r="E158" s="3">
-        <v>1181000</v>
+        <v>1192000</v>
       </c>
       <c r="F158" s="3">
-        <v>1202000</v>
+        <v>1194000</v>
       </c>
       <c r="G158" s="3">
-        <v>1212000</v>
+        <v>1209000</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -3075,22 +3073,22 @@
         <v>2</v>
       </c>
       <c r="B159" s="3">
-        <v>405000</v>
+        <v>455000</v>
       </c>
       <c r="C159" s="3">
-        <v>669000</v>
+        <v>596000</v>
       </c>
       <c r="D159" s="3">
-        <v>1049000</v>
+        <v>1016000</v>
       </c>
       <c r="E159" s="3">
-        <v>857000</v>
+        <v>946000</v>
       </c>
       <c r="F159" s="3">
-        <v>802000</v>
+        <v>835000</v>
       </c>
       <c r="G159" s="3">
-        <v>791000</v>
+        <v>809000</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -3098,22 +3096,22 @@
         <v>3</v>
       </c>
       <c r="B160" s="3">
-        <v>239000</v>
+        <v>252000</v>
       </c>
       <c r="C160" s="3">
-        <v>395000</v>
+        <v>407000</v>
       </c>
       <c r="D160" s="3">
-        <v>732000</v>
+        <v>712000</v>
       </c>
       <c r="E160" s="3">
-        <v>907000</v>
+        <v>859000</v>
       </c>
       <c r="F160" s="3">
-        <v>1051000</v>
+        <v>1036000</v>
       </c>
       <c r="G160" s="3">
-        <v>1089000</v>
+        <v>1087000</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -3155,19 +3153,19 @@
         <v>2064.646144</v>
       </c>
       <c r="C164" s="4">
-        <v>3677.356032</v>
+        <v>3355.4432</v>
       </c>
       <c r="D164" s="4">
         <v>4161.798144</v>
       </c>
       <c r="E164" s="4">
-        <v>4837.081088</v>
+        <v>4881.12128</v>
       </c>
       <c r="F164" s="4">
-        <v>4925.161472</v>
+        <v>4891.60704</v>
       </c>
       <c r="G164" s="4">
-        <v>4965.00736</v>
+        <v>4953.473024</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -3175,22 +3173,22 @@
         <v>2</v>
       </c>
       <c r="B165" s="4">
-        <v>1656.75008</v>
+        <v>1864.368128</v>
       </c>
       <c r="C165" s="4">
-        <v>2738.880512</v>
+        <v>2440.036352</v>
       </c>
       <c r="D165" s="4">
-        <v>4294.967296</v>
+        <v>4161.798144</v>
       </c>
       <c r="E165" s="4">
-        <v>3508.535296</v>
+        <v>3876.585472</v>
       </c>
       <c r="F165" s="4">
-        <v>3283.091456</v>
+        <v>3419.406336</v>
       </c>
       <c r="G165" s="4">
-        <v>3241.148416</v>
+        <v>3313.50016</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -3198,22 +3196,22 @@
         <v>3</v>
       </c>
       <c r="B166" s="4">
-        <v>979.369984</v>
+        <v>1032.84736</v>
       </c>
       <c r="C166" s="4">
-        <v>1616.904192</v>
+        <v>1667.23584</v>
       </c>
       <c r="D166" s="4">
-        <v>2998.92736</v>
+        <v>2918.187008</v>
       </c>
       <c r="E166" s="4">
-        <v>3715.104768</v>
+        <v>3520.069632</v>
       </c>
       <c r="F166" s="4">
-        <v>4303.355904</v>
+        <v>4243.587072</v>
       </c>
       <c r="G166" s="4">
-        <v>4459.593728</v>
+        <v>4451.20512</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -3252,22 +3250,22 @@
         <v>1</v>
       </c>
       <c r="B170" s="4">
-        <v>1.80629</v>
+        <v>1.79213</v>
       </c>
       <c r="C170" s="4">
-        <v>2.10489</v>
+        <v>2.21069</v>
       </c>
       <c r="D170" s="4">
-        <v>3.67534</v>
+        <v>3.71624</v>
       </c>
       <c r="E170" s="4">
-        <v>6.42747</v>
+        <v>6.49196</v>
       </c>
       <c r="F170" s="4">
-        <v>12.98542</v>
+        <v>13.15099</v>
       </c>
       <c r="G170" s="4">
-        <v>25.88689</v>
+        <v>26.24566</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -3275,22 +3273,22 @@
         <v>2</v>
       </c>
       <c r="B171" s="4">
-        <v>2.25164</v>
+        <v>2.0142</v>
       </c>
       <c r="C171" s="4">
-        <v>2.76331</v>
+        <v>2.81532</v>
       </c>
       <c r="D171" s="4">
-        <v>3.56805</v>
+        <v>3.72493</v>
       </c>
       <c r="E171" s="4">
-        <v>8.666729999999999</v>
+        <v>8.085430000000001</v>
       </c>
       <c r="F171" s="4">
-        <v>18.93058</v>
+        <v>18.98028</v>
       </c>
       <c r="G171" s="4">
-        <v>39.18757</v>
+        <v>38.58406</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -3298,22 +3296,22 @@
         <v>3</v>
       </c>
       <c r="B172" s="4">
-        <v>3.70613</v>
+        <v>3.49284</v>
       </c>
       <c r="C172" s="4">
-        <v>4.60566</v>
+        <v>4.26071</v>
       </c>
       <c r="D172" s="4">
-        <v>4.69608</v>
+        <v>4.90011</v>
       </c>
       <c r="E172" s="4">
-        <v>7.872560000000001</v>
+        <v>8.265270000000001</v>
       </c>
       <c r="F172" s="4">
-        <v>13.9851</v>
+        <v>14.0396</v>
       </c>
       <c r="G172" s="4">
-        <v>27.82546</v>
+        <v>27.76948</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -3355,19 +3353,19 @@
         <v>1.64</v>
       </c>
       <c r="C176" s="4">
-        <v>0.724</v>
+        <v>1.672</v>
       </c>
       <c r="D176" s="4">
-        <v>1.672</v>
+        <v>1.656</v>
       </c>
       <c r="E176" s="4">
-        <v>1.704</v>
+        <v>0.972</v>
       </c>
       <c r="F176" s="4">
-        <v>1.512</v>
+        <v>1.656</v>
       </c>
       <c r="G176" s="4">
-        <v>1.912</v>
+        <v>1.096</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -3375,22 +3373,22 @@
         <v>2</v>
       </c>
       <c r="B177" s="4">
+        <v>1.864</v>
+      </c>
+      <c r="C177" s="4">
         <v>1.944</v>
       </c>
-      <c r="C177" s="4">
-        <v>1.992</v>
-      </c>
       <c r="D177" s="4">
-        <v>0.716</v>
+        <v>0.524</v>
       </c>
       <c r="E177" s="4">
-        <v>2.992</v>
+        <v>0.548</v>
       </c>
       <c r="F177" s="4">
-        <v>3.088</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="G177" s="4">
-        <v>2.832</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -3398,22 +3396,22 @@
         <v>3</v>
       </c>
       <c r="B178" s="4">
-        <v>1.896</v>
+        <v>2.024</v>
       </c>
       <c r="C178" s="4">
-        <v>1.944</v>
+        <v>1.96</v>
       </c>
       <c r="D178" s="4">
-        <v>1.976</v>
+        <v>2.192</v>
       </c>
       <c r="E178" s="4">
-        <v>2.448</v>
+        <v>2.64</v>
       </c>
       <c r="F178" s="4">
-        <v>2.896</v>
+        <v>2.64</v>
       </c>
       <c r="G178" s="4">
-        <v>2.544</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -3452,22 +3450,22 @@
         <v>1</v>
       </c>
       <c r="B182" s="4">
-        <v>36.608</v>
+        <v>31.36</v>
       </c>
       <c r="C182" s="4">
-        <v>89.60000000000001</v>
+        <v>46.848</v>
       </c>
       <c r="D182" s="4">
-        <v>134.144</v>
+        <v>154.624</v>
       </c>
       <c r="E182" s="4">
-        <v>284.672</v>
+        <v>325.632</v>
       </c>
       <c r="F182" s="4">
-        <v>651.264</v>
+        <v>552.96</v>
       </c>
       <c r="G182" s="4">
-        <v>741.376</v>
+        <v>528.384</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -3475,22 +3473,22 @@
         <v>2</v>
       </c>
       <c r="B183" s="4">
-        <v>63.232</v>
+        <v>62.72</v>
       </c>
       <c r="C183" s="4">
-        <v>87.55200000000001</v>
+        <v>76.288</v>
       </c>
       <c r="D183" s="4">
-        <v>152.576</v>
+        <v>160.768</v>
       </c>
       <c r="E183" s="4">
-        <v>329.728</v>
+        <v>415.744</v>
       </c>
       <c r="F183" s="4">
-        <v>1089.536</v>
+        <v>1253.376</v>
       </c>
       <c r="G183" s="4">
-        <v>2408.448</v>
+        <v>2375.68</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -3498,22 +3496,22 @@
         <v>3</v>
       </c>
       <c r="B184" s="4">
-        <v>77.312</v>
+        <v>73.21600000000001</v>
       </c>
       <c r="C184" s="4">
-        <v>97.792</v>
+        <v>107.008</v>
       </c>
       <c r="D184" s="4">
         <v>142.336</v>
       </c>
       <c r="E184" s="4">
-        <v>246.784</v>
+        <v>189.44</v>
       </c>
       <c r="F184" s="4">
-        <v>481.28</v>
+        <v>268.288</v>
       </c>
       <c r="G184" s="4">
-        <v>238.592</v>
+        <v>264.192</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -3552,22 +3550,22 @@
         <v>1</v>
       </c>
       <c r="B189" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="C189" s="3">
         <v>14200</v>
       </c>
       <c r="D189" s="3">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="E189" s="3">
-        <v>17900</v>
+        <v>17400</v>
       </c>
       <c r="F189" s="3">
-        <v>16000</v>
+        <v>16700</v>
       </c>
       <c r="G189" s="3">
-        <v>17400</v>
+        <v>17300</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -3575,22 +3573,22 @@
         <v>2</v>
       </c>
       <c r="B190" s="3">
-        <v>2301</v>
+        <v>8000</v>
       </c>
       <c r="C190" s="3">
-        <v>4697</v>
+        <v>11100</v>
       </c>
       <c r="D190" s="3">
-        <v>10000</v>
+        <v>14200</v>
       </c>
       <c r="E190" s="3">
-        <v>14400</v>
+        <v>15700</v>
       </c>
       <c r="F190" s="3">
-        <v>15000</v>
+        <v>15200</v>
       </c>
       <c r="G190" s="3">
-        <v>16400</v>
+        <v>16800</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -3598,22 +3596,22 @@
         <v>3</v>
       </c>
       <c r="B191" s="3">
-        <v>6440</v>
+        <v>5851</v>
       </c>
       <c r="C191" s="3">
-        <v>8641</v>
+        <v>9752</v>
       </c>
       <c r="D191" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E191" s="3">
         <v>11300</v>
       </c>
-      <c r="E191" s="3">
-        <v>11600</v>
-      </c>
       <c r="F191" s="3">
+        <v>10500</v>
+      </c>
+      <c r="G191" s="3">
         <v>10800</v>
-      </c>
-      <c r="G191" s="3">
-        <v>10700</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -3652,22 +3650,22 @@
         <v>1</v>
       </c>
       <c r="B195" s="4">
-        <v>1428.160512</v>
+        <v>1384.12032</v>
       </c>
       <c r="C195" s="4">
         <v>1864.368128</v>
       </c>
       <c r="D195" s="4">
-        <v>2155.872256</v>
+        <v>2139.09504</v>
       </c>
       <c r="E195" s="4">
-        <v>2344.615936</v>
+        <v>2284.847104</v>
       </c>
       <c r="F195" s="4">
-        <v>2225.078272</v>
+        <v>2182.086656</v>
       </c>
       <c r="G195" s="4">
-        <v>2279.604224</v>
+        <v>2264.92416</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -3675,22 +3673,22 @@
         <v>2</v>
       </c>
       <c r="B196" s="4">
-        <v>301.989888</v>
+        <v>1048.576</v>
       </c>
       <c r="C196" s="4">
-        <v>615.514112</v>
+        <v>1451.229184</v>
       </c>
       <c r="D196" s="4">
-        <v>1315.96288</v>
+        <v>1864.368128</v>
       </c>
       <c r="E196" s="4">
-        <v>1887.4368</v>
+        <v>2053.111808</v>
       </c>
       <c r="F196" s="4">
-        <v>2092.957696</v>
+        <v>1988.100096</v>
       </c>
       <c r="G196" s="4">
-        <v>2154.82368</v>
+        <v>2207.25248</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -3698,22 +3696,22 @@
         <v>3</v>
       </c>
       <c r="B197" s="4">
-        <v>844.1036800000001</v>
+        <v>766.509056</v>
       </c>
       <c r="C197" s="4">
-        <v>1132.46208</v>
+        <v>1278.214144</v>
       </c>
       <c r="D197" s="4">
-        <v>1486.880768</v>
+        <v>1331.69152</v>
       </c>
       <c r="E197" s="4">
-        <v>1522.532352</v>
+        <v>1478.49216</v>
       </c>
       <c r="F197" s="4">
-        <v>1419.771904</v>
+        <v>1378.87744</v>
       </c>
       <c r="G197" s="4">
-        <v>1399.84896</v>
+        <v>1413.480448</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -3752,22 +3750,22 @@
         <v>1</v>
       </c>
       <c r="B201" s="4">
-        <v>26.55886</v>
+        <v>26.19</v>
       </c>
       <c r="C201" s="4">
-        <v>28.17</v>
+        <v>27.64</v>
       </c>
       <c r="D201" s="4">
-        <v>30.47381</v>
+        <v>31.97</v>
       </c>
       <c r="E201" s="4">
-        <v>42.51</v>
+        <v>41.68</v>
       </c>
       <c r="F201" s="4">
-        <v>81.69</v>
+        <v>80.75</v>
       </c>
       <c r="G201" s="4">
-        <v>138.32</v>
+        <v>144.36</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -3775,22 +3773,22 @@
         <v>2</v>
       </c>
       <c r="B202" s="4">
-        <v>369.24</v>
+        <v>70.47</v>
       </c>
       <c r="C202" s="4">
-        <v>307.6</v>
+        <v>69.47</v>
       </c>
       <c r="D202" s="4">
-        <v>184.79</v>
+        <v>76.05</v>
       </c>
       <c r="E202" s="4">
-        <v>154.42</v>
+        <v>107.52</v>
       </c>
       <c r="F202" s="4">
-        <v>184.24</v>
+        <v>202.68</v>
       </c>
       <c r="G202" s="4">
-        <v>359.47</v>
+        <v>380.83</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -3798,22 +3796,22 @@
         <v>3</v>
       </c>
       <c r="B203" s="4">
-        <v>80.87</v>
+        <v>95.79000000000001</v>
       </c>
       <c r="C203" s="4">
-        <v>112.29</v>
+        <v>115.31</v>
       </c>
       <c r="D203" s="4">
-        <v>152.83</v>
+        <v>207.69</v>
       </c>
       <c r="E203" s="4">
-        <v>360.49</v>
+        <v>354.47</v>
       </c>
       <c r="F203" s="4">
-        <v>837.09</v>
+        <v>766.38</v>
       </c>
       <c r="G203" s="4">
-        <v>1905.59</v>
+        <v>1870.84</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -3852,22 +3850,22 @@
         <v>1</v>
       </c>
       <c r="B207" s="4">
-        <v>55.04</v>
+        <v>101</v>
       </c>
       <c r="C207" s="4">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D207" s="4">
-        <v>38.144</v>
+        <v>44</v>
       </c>
       <c r="E207" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F207" s="4">
         <v>123</v>
       </c>
       <c r="G207" s="4">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -3875,22 +3873,22 @@
         <v>2</v>
       </c>
       <c r="B208" s="4">
-        <v>433</v>
+        <v>108</v>
       </c>
       <c r="C208" s="4">
-        <v>412</v>
+        <v>86</v>
       </c>
       <c r="D208" s="4">
-        <v>347</v>
+        <v>96</v>
       </c>
       <c r="E208" s="4">
-        <v>371</v>
+        <v>135</v>
       </c>
       <c r="F208" s="4">
-        <v>265</v>
+        <v>392</v>
       </c>
       <c r="G208" s="4">
-        <v>486</v>
+        <v>523</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -3898,22 +3896,22 @@
         <v>3</v>
       </c>
       <c r="B209" s="4">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="C209" s="4">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D209" s="4">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="E209" s="4">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="F209" s="4">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="G209" s="4">
-        <v>5735</v>
+        <v>6063</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -3952,22 +3950,22 @@
         <v>1</v>
       </c>
       <c r="B213" s="4">
-        <v>63.232</v>
+        <v>108</v>
       </c>
       <c r="C213" s="4">
+        <v>114</v>
+      </c>
+      <c r="D213" s="4">
         <v>116</v>
       </c>
-      <c r="D213" s="4">
-        <v>45.312</v>
-      </c>
       <c r="E213" s="4">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F213" s="4">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G213" s="4">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -3975,22 +3973,22 @@
         <v>2</v>
       </c>
       <c r="B214" s="4">
-        <v>461</v>
+        <v>126</v>
       </c>
       <c r="C214" s="4">
-        <v>441</v>
+        <v>99</v>
       </c>
       <c r="D214" s="4">
-        <v>445</v>
+        <v>108</v>
       </c>
       <c r="E214" s="4">
-        <v>424</v>
+        <v>151</v>
       </c>
       <c r="F214" s="4">
-        <v>461</v>
+        <v>506</v>
       </c>
       <c r="G214" s="4">
-        <v>701</v>
+        <v>889</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -3998,22 +3996,22 @@
         <v>3</v>
       </c>
       <c r="B215" s="4">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C215" s="4">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D215" s="4">
-        <v>231</v>
+        <v>416</v>
       </c>
       <c r="E215" s="4">
-        <v>742</v>
+        <v>676</v>
       </c>
       <c r="F215" s="4">
-        <v>6783</v>
+        <v>7439</v>
       </c>
       <c r="G215" s="4">
-        <v>11207</v>
+        <v>12387</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -4052,22 +4050,22 @@
         <v>1</v>
       </c>
       <c r="B220" s="3">
-        <v>334000</v>
+        <v>306000</v>
       </c>
       <c r="C220" s="3">
-        <v>417000</v>
+        <v>415000</v>
       </c>
       <c r="D220" s="3">
-        <v>500000</v>
+        <v>504000</v>
       </c>
       <c r="E220" s="3">
-        <v>557000</v>
+        <v>545000</v>
       </c>
       <c r="F220" s="3">
-        <v>583000</v>
+        <v>480000</v>
       </c>
       <c r="G220" s="3">
-        <v>558000</v>
+        <v>576000</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -4075,22 +4073,22 @@
         <v>2</v>
       </c>
       <c r="B221" s="3">
-        <v>67000</v>
+        <v>80300</v>
       </c>
       <c r="C221" s="3">
-        <v>169000</v>
+        <v>154000</v>
       </c>
       <c r="D221" s="3">
-        <v>248000</v>
+        <v>250000</v>
       </c>
       <c r="E221" s="3">
-        <v>310000</v>
+        <v>331000</v>
       </c>
       <c r="F221" s="3">
-        <v>388000</v>
+        <v>347000</v>
       </c>
       <c r="G221" s="3">
-        <v>449000</v>
+        <v>442000</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -4098,22 +4096,22 @@
         <v>3</v>
       </c>
       <c r="B222" s="3">
-        <v>126000</v>
+        <v>113000</v>
       </c>
       <c r="C222" s="3">
-        <v>169000</v>
+        <v>175000</v>
       </c>
       <c r="D222" s="3">
-        <v>188000</v>
+        <v>182000</v>
       </c>
       <c r="E222" s="3">
-        <v>222000</v>
+        <v>206000</v>
       </c>
       <c r="F222" s="3">
-        <v>201000</v>
+        <v>195000</v>
       </c>
       <c r="G222" s="3">
-        <v>179000</v>
+        <v>173000</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -4152,22 +4150,22 @@
         <v>1</v>
       </c>
       <c r="B226" s="4">
-        <v>1369.440256</v>
+        <v>1254.096896</v>
       </c>
       <c r="C226" s="4">
-        <v>1710.227456</v>
+        <v>1698.69312</v>
       </c>
       <c r="D226" s="4">
-        <v>2048.917504</v>
+        <v>2064.646144</v>
       </c>
       <c r="E226" s="4">
-        <v>2279.604224</v>
+        <v>2232.418304</v>
       </c>
       <c r="F226" s="4">
-        <v>2386.558976</v>
+        <v>1965.031424</v>
       </c>
       <c r="G226" s="4">
-        <v>2285.89568</v>
+        <v>2360.344576</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -4175,22 +4173,22 @@
         <v>2</v>
       </c>
       <c r="B227" s="4">
-        <v>278.921216</v>
+        <v>329.252864</v>
       </c>
       <c r="C227" s="4">
-        <v>693.108736</v>
+        <v>630.194176</v>
       </c>
       <c r="D227" s="4">
-        <v>1017.11872</v>
+        <v>1022.3616</v>
       </c>
       <c r="E227" s="4">
-        <v>1270.874112</v>
+        <v>1357.90592</v>
       </c>
       <c r="F227" s="4">
-        <v>1589.641216</v>
+        <v>1420.82048</v>
       </c>
       <c r="G227" s="4">
-        <v>1840.25088</v>
+        <v>1808.7936</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -4198,22 +4196,22 @@
         <v>3</v>
       </c>
       <c r="B228" s="4">
-        <v>513.80224</v>
+        <v>462.422016</v>
       </c>
       <c r="C228" s="4">
-        <v>693.108736</v>
+        <v>716.177408</v>
       </c>
       <c r="D228" s="4">
-        <v>770.70336</v>
+        <v>743.440384</v>
       </c>
       <c r="E228" s="4">
-        <v>910.163968</v>
+        <v>842.006528</v>
       </c>
       <c r="F228" s="4">
-        <v>822.083584</v>
+        <v>796.91776</v>
       </c>
       <c r="G228" s="4">
-        <v>732.954624</v>
+        <v>709.885952</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -4252,22 +4250,22 @@
         <v>1</v>
       </c>
       <c r="B232" s="4">
-        <v>0.90073</v>
+        <v>0.99087</v>
       </c>
       <c r="C232" s="4">
-        <v>1.03875</v>
+        <v>1.06328</v>
       </c>
       <c r="D232" s="4">
-        <v>1.11355</v>
+        <v>1.08183</v>
       </c>
       <c r="E232" s="4">
-        <v>1.39333</v>
+        <v>1.35185</v>
       </c>
       <c r="F232" s="4">
-        <v>2.50539</v>
+        <v>2.47791</v>
       </c>
       <c r="G232" s="4">
-        <v>4.08878</v>
+        <v>4.2743</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -4275,18 +4273,18 @@
         <v>2</v>
       </c>
       <c r="B233" s="4">
-        <v>12.32</v>
+        <v>10.19</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4">
-        <v>13.09</v>
+        <v>11.47</v>
       </c>
       <c r="F233" s="4">
-        <v>15.39</v>
+        <v>20.03</v>
       </c>
       <c r="G233" s="4">
-        <v>28.45</v>
+        <v>29.13</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -4296,16 +4294,16 @@
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4">
-        <v>15.26</v>
+        <v>16.07</v>
       </c>
       <c r="E234" s="4">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="F234" s="4">
-        <v>64.09</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="G234" s="4">
-        <v>154.75</v>
+        <v>155.5</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -4344,22 +4342,22 @@
         <v>1</v>
       </c>
       <c r="B238" s="4">
-        <v>1.304</v>
+        <v>1.496</v>
       </c>
       <c r="C238" s="4">
-        <v>1.96</v>
+        <v>1.688</v>
       </c>
       <c r="D238" s="4">
-        <v>2.064</v>
+        <v>1.736</v>
       </c>
       <c r="E238" s="4">
-        <v>2.8</v>
+        <v>2.448</v>
       </c>
       <c r="F238" s="4">
-        <v>4.64</v>
+        <v>4.512</v>
       </c>
       <c r="G238" s="4">
-        <v>5.792</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -4367,22 +4365,22 @@
         <v>2</v>
       </c>
       <c r="B239" s="4">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C239" s="4">
         <v>21</v>
       </c>
       <c r="D239" s="4">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E239" s="4">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F239" s="4">
-        <v>28.544</v>
+        <v>55</v>
       </c>
       <c r="G239" s="4">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -4393,16 +4391,16 @@
         <v>7</v>
       </c>
       <c r="C240" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D240" s="4">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E240" s="4">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F240" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G240" s="4">
         <v>338</v>
@@ -4444,22 +4442,22 @@
         <v>1</v>
       </c>
       <c r="B244" s="4">
-        <v>2.416</v>
+        <v>4.192</v>
       </c>
       <c r="C244" s="4">
-        <v>2.928</v>
+        <v>4.384</v>
       </c>
       <c r="D244" s="4">
-        <v>3.184</v>
+        <v>4.256</v>
       </c>
       <c r="E244" s="4">
-        <v>5.024</v>
+        <v>4.448</v>
       </c>
       <c r="F244" s="4">
-        <v>8.768000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="G244" s="4">
-        <v>12.864</v>
+        <v>10.304</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -4467,22 +4465,22 @@
         <v>2</v>
       </c>
       <c r="B245" s="4">
+        <v>41</v>
+      </c>
+      <c r="C245" s="4">
+        <v>32</v>
+      </c>
+      <c r="D245" s="4">
+        <v>41</v>
+      </c>
+      <c r="E245" s="4">
         <v>43</v>
       </c>
-      <c r="C245" s="4">
-        <v>36</v>
-      </c>
-      <c r="D245" s="4">
-        <v>40</v>
-      </c>
-      <c r="E245" s="4">
-        <v>58</v>
-      </c>
       <c r="F245" s="4">
-        <v>43.776</v>
+        <v>89</v>
       </c>
       <c r="G245" s="4">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -4490,22 +4488,22 @@
         <v>3</v>
       </c>
       <c r="B246" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C246" s="4">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D246" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E246" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F246" s="4">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G246" s="4">
-        <v>498</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/summary.xlsx
+++ b/rfuse/summary.xlsx
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>11100</v>
+        <v>10900</v>
       </c>
       <c r="C3" s="3">
-        <v>21800</v>
+        <v>20500</v>
       </c>
       <c r="D3" s="3">
-        <v>35600</v>
+        <v>34400</v>
       </c>
       <c r="E3" s="3">
-        <v>47400</v>
+        <v>47100</v>
       </c>
       <c r="F3" s="3">
-        <v>53500</v>
+        <v>53900</v>
       </c>
       <c r="G3" s="3">
-        <v>54300</v>
+        <v>54500</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -581,22 +581,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>8393</v>
+        <v>8258</v>
       </c>
       <c r="C4" s="3">
-        <v>16400</v>
+        <v>15900</v>
       </c>
       <c r="D4" s="3">
-        <v>29700</v>
+        <v>29500</v>
       </c>
       <c r="E4" s="3">
-        <v>43800</v>
+        <v>44000</v>
       </c>
       <c r="F4" s="3">
-        <v>51700</v>
+        <v>51500</v>
       </c>
       <c r="G4" s="3">
-        <v>52100</v>
+        <v>51800</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -604,22 +604,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>6692</v>
+        <v>6243</v>
       </c>
       <c r="C5" s="3">
-        <v>8224</v>
+        <v>13400</v>
       </c>
       <c r="D5" s="3">
-        <v>19200</v>
+        <v>21000</v>
       </c>
       <c r="E5" s="3">
-        <v>28600</v>
+        <v>29700</v>
       </c>
       <c r="F5" s="3">
-        <v>33900</v>
+        <v>42000</v>
       </c>
       <c r="G5" s="3">
-        <v>50500</v>
+        <v>47800</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -658,22 +658,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="4">
-        <v>1458.569216</v>
+        <v>1428.160512</v>
       </c>
       <c r="C9" s="4">
-        <v>2855.272448</v>
+        <v>2684.35456</v>
       </c>
       <c r="D9" s="4">
-        <v>4668.260352</v>
+        <v>4512.022528</v>
       </c>
       <c r="E9" s="4">
-        <v>6206.521344</v>
+        <v>6170.86976</v>
       </c>
       <c r="F9" s="4">
-        <v>7018.119168</v>
+        <v>7064.256512</v>
       </c>
       <c r="G9" s="4">
-        <v>7110.393856</v>
+        <v>7146.04544</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -681,22 +681,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>1099.956224</v>
+        <v>1082.130432</v>
       </c>
       <c r="C10" s="4">
-        <v>2147.483648</v>
+        <v>2080.374784</v>
       </c>
       <c r="D10" s="4">
-        <v>3890.21696</v>
+        <v>3861.905408</v>
       </c>
       <c r="E10" s="4">
-        <v>5742.002176</v>
+        <v>5772.41088</v>
       </c>
       <c r="F10" s="4">
-        <v>6774.849536</v>
+        <v>6752.82944</v>
       </c>
       <c r="G10" s="4">
-        <v>6828.326912</v>
+        <v>6785.335296</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -704,22 +704,22 @@
         <v>3</v>
       </c>
       <c r="B11" s="4">
-        <v>877.658112</v>
+        <v>817.88928</v>
       </c>
       <c r="C11" s="4">
-        <v>1077.936128</v>
+        <v>1754.267648</v>
       </c>
       <c r="D11" s="4">
-        <v>2520.776704</v>
+        <v>2753.560576</v>
       </c>
       <c r="E11" s="4">
-        <v>3753.90208</v>
+        <v>3890.21696</v>
       </c>
       <c r="F11" s="4">
-        <v>4436.525056</v>
+        <v>5506.072576</v>
       </c>
       <c r="G11" s="4">
-        <v>6617.563136</v>
+        <v>6270.48448</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -758,22 +758,22 @@
         <v>1</v>
       </c>
       <c r="B15" s="4">
-        <v>88.73</v>
+        <v>91.19</v>
       </c>
       <c r="C15" s="4">
-        <v>90.03</v>
+        <v>95.62</v>
       </c>
       <c r="D15" s="4">
-        <v>110.37</v>
+        <v>112.85</v>
       </c>
       <c r="E15" s="4">
-        <v>165.62</v>
+        <v>165.56</v>
       </c>
       <c r="F15" s="4">
-        <v>293.46</v>
+        <v>291.39</v>
       </c>
       <c r="G15" s="4">
-        <v>579.85</v>
+        <v>578.98</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -781,22 +781,22 @@
         <v>2</v>
       </c>
       <c r="B16" s="4">
-        <v>118.36</v>
+        <v>120.39</v>
       </c>
       <c r="C16" s="4">
-        <v>118.87</v>
+        <v>123.06</v>
       </c>
       <c r="D16" s="4">
-        <v>131.46</v>
+        <v>133.53</v>
       </c>
       <c r="E16" s="4">
-        <v>178.7</v>
+        <v>178.68</v>
       </c>
       <c r="F16" s="4">
-        <v>304.78</v>
+        <v>305.81</v>
       </c>
       <c r="G16" s="4">
-        <v>604.4</v>
+        <v>609.11</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -804,22 +804,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="4">
-        <v>143.06</v>
+        <v>156.42</v>
       </c>
       <c r="C17" s="4">
-        <v>226.6</v>
+        <v>137.04</v>
       </c>
       <c r="D17" s="4">
-        <v>192.78</v>
+        <v>184.12</v>
       </c>
       <c r="E17" s="4">
-        <v>252.55</v>
+        <v>247.81</v>
       </c>
       <c r="F17" s="4">
-        <v>418.55</v>
+        <v>347.29</v>
       </c>
       <c r="G17" s="4">
-        <v>594.86</v>
+        <v>619.64</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -858,10 +858,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="4">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C21" s="4">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D21" s="4">
         <v>198</v>
@@ -881,13 +881,13 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="C22" s="4">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D22" s="4">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E22" s="4">
         <v>343</v>
@@ -904,22 +904,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C23" s="4">
-        <v>553</v>
+        <v>233</v>
       </c>
       <c r="D23" s="4">
-        <v>408</v>
+        <v>494</v>
       </c>
       <c r="E23" s="4">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="F23" s="4">
-        <v>1045</v>
+        <v>701</v>
       </c>
       <c r="G23" s="4">
-        <v>1500</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -958,16 +958,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="4">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C27" s="4">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="D27" s="4">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E27" s="4">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F27" s="4">
         <v>840</v>
@@ -981,22 +981,22 @@
         <v>2</v>
       </c>
       <c r="B28" s="4">
+        <v>255</v>
+      </c>
+      <c r="C28" s="4">
+        <v>241</v>
+      </c>
+      <c r="D28" s="4">
         <v>265</v>
       </c>
-      <c r="C28" s="4">
-        <v>239</v>
-      </c>
-      <c r="D28" s="4">
-        <v>253</v>
-      </c>
       <c r="E28" s="4">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F28" s="4">
         <v>791</v>
       </c>
       <c r="G28" s="4">
-        <v>1631</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1004,22 +1004,22 @@
         <v>3</v>
       </c>
       <c r="B29" s="4">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="C29" s="4">
-        <v>660</v>
+        <v>281</v>
       </c>
       <c r="D29" s="4">
-        <v>799</v>
+        <v>758</v>
       </c>
       <c r="E29" s="4">
-        <v>1795</v>
+        <v>1336</v>
       </c>
       <c r="F29" s="4">
-        <v>5538</v>
+        <v>2278</v>
       </c>
       <c r="G29" s="4">
-        <v>4490</v>
+        <v>7111</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1058,22 +1058,22 @@
         <v>1</v>
       </c>
       <c r="B34" s="3">
-        <v>29900</v>
+        <v>33300</v>
       </c>
       <c r="C34" s="3">
-        <v>64900</v>
+        <v>65000</v>
       </c>
       <c r="D34" s="3">
-        <v>136000</v>
+        <v>134000</v>
       </c>
       <c r="E34" s="3">
-        <v>257000</v>
+        <v>255000</v>
       </c>
       <c r="F34" s="3">
-        <v>450000</v>
+        <v>445000</v>
       </c>
       <c r="G34" s="3">
-        <v>642000</v>
+        <v>643000</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1081,22 +1081,22 @@
         <v>2</v>
       </c>
       <c r="B35" s="3">
-        <v>23100</v>
+        <v>23000</v>
       </c>
       <c r="C35" s="3">
-        <v>55200</v>
+        <v>57000</v>
       </c>
       <c r="D35" s="3">
         <v>118000</v>
       </c>
       <c r="E35" s="3">
-        <v>221000</v>
+        <v>216000</v>
       </c>
       <c r="F35" s="3">
         <v>317000</v>
       </c>
       <c r="G35" s="3">
-        <v>319000</v>
+        <v>317000</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1104,22 +1104,22 @@
         <v>3</v>
       </c>
       <c r="B36" s="3">
-        <v>16900</v>
+        <v>19600</v>
       </c>
       <c r="C36" s="3">
-        <v>48200</v>
+        <v>51000</v>
       </c>
       <c r="D36" s="3">
-        <v>94400</v>
+        <v>103000</v>
       </c>
       <c r="E36" s="3">
-        <v>99800</v>
+        <v>109000</v>
       </c>
       <c r="F36" s="3">
-        <v>121000</v>
+        <v>131000</v>
       </c>
       <c r="G36" s="3">
-        <v>152000</v>
+        <v>161000</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1158,22 +1158,22 @@
         <v>1</v>
       </c>
       <c r="B40" s="4">
-        <v>122.683392</v>
+        <v>136.31488</v>
       </c>
       <c r="C40" s="4">
-        <v>265.289728</v>
+        <v>266.338304</v>
       </c>
       <c r="D40" s="4">
-        <v>558.8910080000001</v>
+        <v>550.5024</v>
       </c>
       <c r="E40" s="4">
-        <v>1053.81888</v>
+        <v>1042.284544</v>
       </c>
       <c r="F40" s="4">
-        <v>1841.299456</v>
+        <v>1821.376512</v>
       </c>
       <c r="G40" s="4">
-        <v>2629.828608</v>
+        <v>2635.071488</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1181,22 +1181,22 @@
         <v>2</v>
       </c>
       <c r="B41" s="4">
-        <v>94.6864128</v>
+        <v>98.1467136</v>
       </c>
       <c r="C41" s="4">
-        <v>226.492416</v>
+        <v>233.832448</v>
       </c>
       <c r="D41" s="4">
-        <v>481.296384</v>
+        <v>482.34496</v>
       </c>
       <c r="E41" s="4">
-        <v>903.872512</v>
+        <v>884.998144</v>
       </c>
       <c r="F41" s="4">
-        <v>1299.185664</v>
+        <v>1297.088512</v>
       </c>
       <c r="G41" s="4">
-        <v>1304.428544</v>
+        <v>1297.088512</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1204,22 +1204,22 @@
         <v>3</v>
       </c>
       <c r="B42" s="4">
-        <v>68.9963008</v>
+        <v>80.32092159999999</v>
       </c>
       <c r="C42" s="4">
-        <v>197.132288</v>
+        <v>208.666624</v>
       </c>
       <c r="D42" s="4">
-        <v>386.924544</v>
+        <v>420.478976</v>
       </c>
       <c r="E42" s="4">
-        <v>408.94464</v>
+        <v>444.596224</v>
       </c>
       <c r="F42" s="4">
-        <v>495.976448</v>
+        <v>537.919488</v>
       </c>
       <c r="G42" s="4">
-        <v>621.805568</v>
+        <v>659.554304</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1258,22 +1258,22 @@
         <v>1</v>
       </c>
       <c r="B46" s="4">
-        <v>33.02207</v>
+        <v>29.79557</v>
       </c>
       <c r="C46" s="4">
-        <v>30.53375</v>
+        <v>30.24711</v>
       </c>
       <c r="D46" s="4">
-        <v>28.91772</v>
+        <v>29.11171</v>
       </c>
       <c r="E46" s="4">
-        <v>29.96353</v>
+        <v>30.40941</v>
       </c>
       <c r="F46" s="4">
-        <v>34.77941000000001</v>
+        <v>35.04880000000001</v>
       </c>
       <c r="G46" s="4">
-        <v>49.09805</v>
+        <v>49.06533</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1281,22 +1281,22 @@
         <v>2</v>
       </c>
       <c r="B47" s="4">
-        <v>42.96025</v>
+        <v>41.42894</v>
       </c>
       <c r="C47" s="4">
-        <v>35.69687</v>
+        <v>34.72314</v>
       </c>
       <c r="D47" s="4">
-        <v>33.51166000000001</v>
+        <v>33.58811</v>
       </c>
       <c r="E47" s="4">
-        <v>35.71396</v>
+        <v>36.22685</v>
       </c>
       <c r="F47" s="4">
-        <v>49.86084</v>
+        <v>49.94616000000001</v>
       </c>
       <c r="G47" s="4">
-        <v>99.79921</v>
+        <v>100.31289</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1304,22 +1304,22 @@
         <v>3</v>
       </c>
       <c r="B48" s="4">
-        <v>58.48469</v>
+        <v>50.42021</v>
       </c>
       <c r="C48" s="4">
-        <v>40.74677</v>
+        <v>38.52246</v>
       </c>
       <c r="D48" s="4">
-        <v>41.66247</v>
+        <v>37.74185</v>
       </c>
       <c r="E48" s="4">
-        <v>78.70552000000001</v>
+        <v>72.25436999999999</v>
       </c>
       <c r="F48" s="4">
-        <v>128.29305</v>
+        <v>118.10623</v>
       </c>
       <c r="G48" s="4">
-        <v>203.49275</v>
+        <v>193.82631</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1358,16 +1358,16 @@
         <v>1</v>
       </c>
       <c r="B52" s="4">
-        <v>67.072</v>
+        <v>58.112</v>
       </c>
       <c r="C52" s="4">
-        <v>62.208</v>
+        <v>61.184</v>
       </c>
       <c r="D52" s="4">
-        <v>58.112</v>
+        <v>57.6</v>
       </c>
       <c r="E52" s="4">
-        <v>62.72</v>
+        <v>63.232</v>
       </c>
       <c r="F52" s="4">
         <v>81.408</v>
@@ -1381,16 +1381,16 @@
         <v>2</v>
       </c>
       <c r="B53" s="4">
-        <v>98.816</v>
+        <v>91.648</v>
       </c>
       <c r="C53" s="4">
-        <v>72.19200000000001</v>
+        <v>73.21600000000001</v>
       </c>
       <c r="D53" s="4">
-        <v>76.288</v>
+        <v>79.36</v>
       </c>
       <c r="E53" s="4">
-        <v>90.624</v>
+        <v>95.744</v>
       </c>
       <c r="F53" s="4">
         <v>125.44</v>
@@ -1404,22 +1404,22 @@
         <v>3</v>
       </c>
       <c r="B54" s="4">
-        <v>123.392</v>
+        <v>109.056</v>
       </c>
       <c r="C54" s="4">
-        <v>86.52800000000001</v>
+        <v>83.456</v>
       </c>
       <c r="D54" s="4">
-        <v>82.432</v>
+        <v>81.408</v>
       </c>
       <c r="E54" s="4">
-        <v>119.296</v>
+        <v>99.84</v>
       </c>
       <c r="F54" s="4">
-        <v>140.288</v>
+        <v>136.192</v>
       </c>
       <c r="G54" s="4">
-        <v>238.592</v>
+        <v>232.448</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1458,19 +1458,19 @@
         <v>1</v>
       </c>
       <c r="B58" s="4">
-        <v>71.16800000000001</v>
+        <v>69.12</v>
       </c>
       <c r="C58" s="4">
         <v>71.16800000000001</v>
       </c>
       <c r="D58" s="4">
-        <v>73.21600000000001</v>
+        <v>72.19200000000001</v>
       </c>
       <c r="E58" s="4">
         <v>78.336</v>
       </c>
       <c r="F58" s="4">
-        <v>109.056</v>
+        <v>108.032</v>
       </c>
       <c r="G58" s="4">
         <v>189.44</v>
@@ -1481,13 +1481,13 @@
         <v>2</v>
       </c>
       <c r="B59" s="4">
-        <v>118.272</v>
+        <v>108.032</v>
       </c>
       <c r="C59" s="4">
         <v>94.72</v>
       </c>
       <c r="D59" s="4">
-        <v>100.864</v>
+        <v>102.912</v>
       </c>
       <c r="E59" s="4">
         <v>129.536</v>
@@ -1496,7 +1496,7 @@
         <v>185.344</v>
       </c>
       <c r="G59" s="4">
-        <v>415.744</v>
+        <v>419.84</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1504,22 +1504,22 @@
         <v>3</v>
       </c>
       <c r="B60" s="4">
-        <v>214.016</v>
+        <v>209.92</v>
       </c>
       <c r="C60" s="4">
-        <v>114.176</v>
+        <v>109.056</v>
       </c>
       <c r="D60" s="4">
-        <v>127.488</v>
+        <v>117.248</v>
       </c>
       <c r="E60" s="4">
-        <v>724.992</v>
+        <v>370.688</v>
       </c>
       <c r="F60" s="4">
-        <v>1384.448</v>
+        <v>815.104</v>
       </c>
       <c r="G60" s="4">
-        <v>5406.72</v>
+        <v>5079.04</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1558,22 +1558,22 @@
         <v>1</v>
       </c>
       <c r="B65" s="3">
-        <v>15300</v>
+        <v>16800</v>
       </c>
       <c r="C65" s="3">
-        <v>20700</v>
+        <v>20500</v>
       </c>
       <c r="D65" s="3">
-        <v>23300</v>
+        <v>22800</v>
       </c>
       <c r="E65" s="3">
-        <v>26600</v>
+        <v>25900</v>
       </c>
       <c r="F65" s="3">
-        <v>26500</v>
+        <v>27300</v>
       </c>
       <c r="G65" s="3">
-        <v>27500</v>
+        <v>26700</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1581,22 +1581,22 @@
         <v>2</v>
       </c>
       <c r="B66" s="3">
-        <v>10600</v>
+        <v>9481</v>
       </c>
       <c r="C66" s="3">
-        <v>14100</v>
+        <v>14300</v>
       </c>
       <c r="D66" s="3">
-        <v>13200</v>
+        <v>18000</v>
       </c>
       <c r="E66" s="3">
-        <v>16100</v>
+        <v>20600</v>
       </c>
       <c r="F66" s="3">
-        <v>21100</v>
+        <v>21300</v>
       </c>
       <c r="G66" s="3">
-        <v>22800</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1604,22 +1604,22 @@
         <v>3</v>
       </c>
       <c r="B67" s="3">
-        <v>6826</v>
+        <v>6781</v>
       </c>
       <c r="C67" s="3">
-        <v>9061</v>
+        <v>9941</v>
       </c>
       <c r="D67" s="3">
-        <v>10000</v>
+        <v>12800</v>
       </c>
       <c r="E67" s="3">
-        <v>13300</v>
+        <v>14900</v>
       </c>
       <c r="F67" s="3">
         <v>13700</v>
       </c>
       <c r="G67" s="3">
-        <v>13500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1658,22 +1658,22 @@
         <v>1</v>
       </c>
       <c r="B71" s="4">
-        <v>2002.78016</v>
+        <v>2199.912448</v>
       </c>
       <c r="C71" s="4">
-        <v>2711.617536</v>
+        <v>2684.35456</v>
       </c>
       <c r="D71" s="4">
-        <v>3050.307584</v>
+        <v>2982.150144</v>
       </c>
       <c r="E71" s="4">
-        <v>3486.5152</v>
+        <v>3398.434816</v>
       </c>
       <c r="F71" s="4">
-        <v>3469.737984</v>
+        <v>3578.789888</v>
       </c>
       <c r="G71" s="4">
-        <v>3602.907136</v>
+        <v>3503.292416</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -1681,22 +1681,22 @@
         <v>2</v>
       </c>
       <c r="B72" s="4">
-        <v>1384.12032</v>
+        <v>1242.56256</v>
       </c>
       <c r="C72" s="4">
-        <v>1851.785216</v>
+        <v>1876.95104</v>
       </c>
       <c r="D72" s="4">
-        <v>1725.956096</v>
+        <v>2485.12512</v>
       </c>
       <c r="E72" s="4">
-        <v>2109.734912</v>
+        <v>2697.986048</v>
       </c>
       <c r="F72" s="4">
-        <v>2759.852032</v>
+        <v>2796.552192</v>
       </c>
       <c r="G72" s="4">
-        <v>2984.247296</v>
+        <v>3017.801728</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -1704,22 +1704,22 @@
         <v>3</v>
       </c>
       <c r="B73" s="4">
-        <v>894.435328</v>
+        <v>889.192448</v>
       </c>
       <c r="C73" s="4">
-        <v>1188.036608</v>
+        <v>1303.379968</v>
       </c>
       <c r="D73" s="4">
-        <v>1435.500544</v>
+        <v>1677.7216</v>
       </c>
       <c r="E73" s="4">
-        <v>1749.024768</v>
+        <v>1952.448512</v>
       </c>
       <c r="F73" s="4">
-        <v>1793.06496</v>
+        <v>1790.967808</v>
       </c>
       <c r="G73" s="4">
-        <v>1763.704832</v>
+        <v>1634.729984</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -1758,22 +1758,22 @@
         <v>1</v>
       </c>
       <c r="B77" s="4">
-        <v>24.72</v>
+        <v>24.71</v>
       </c>
       <c r="C77" s="4">
-        <v>26.99</v>
+        <v>25.29</v>
       </c>
       <c r="D77" s="4">
-        <v>32.27</v>
+        <v>32.4</v>
       </c>
       <c r="E77" s="4">
-        <v>40.63</v>
+        <v>42.97</v>
       </c>
       <c r="F77" s="4">
-        <v>82.63</v>
+        <v>82.7</v>
       </c>
       <c r="G77" s="4">
-        <v>182.2</v>
+        <v>148.14</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -1781,22 +1781,22 @@
         <v>2</v>
       </c>
       <c r="B78" s="4">
-        <v>58.78</v>
+        <v>67.04000000000001</v>
       </c>
       <c r="C78" s="4">
-        <v>64.19</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="D78" s="4">
-        <v>166.81</v>
+        <v>77.11</v>
       </c>
       <c r="E78" s="4">
-        <v>229.85</v>
+        <v>128.51</v>
       </c>
       <c r="F78" s="4">
-        <v>229.91</v>
+        <v>212.18</v>
       </c>
       <c r="G78" s="4">
-        <v>357.08</v>
+        <v>365.92</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -1804,22 +1804,22 @@
         <v>3</v>
       </c>
       <c r="B79" s="4">
-        <v>94.77</v>
+        <v>95.88</v>
       </c>
       <c r="C79" s="4">
-        <v>157.92</v>
+        <v>115.02</v>
       </c>
       <c r="D79" s="4">
-        <v>230.86</v>
+        <v>164.49</v>
       </c>
       <c r="E79" s="4">
-        <v>344.14</v>
+        <v>301.91</v>
       </c>
       <c r="F79" s="4">
-        <v>724.0599999999999</v>
+        <v>739.8099999999999</v>
       </c>
       <c r="G79" s="4">
-        <v>1715.54</v>
+        <v>1709.33</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -1861,19 +1861,19 @@
         <v>28</v>
       </c>
       <c r="C83" s="4">
+        <v>34</v>
+      </c>
+      <c r="D83" s="4">
         <v>39</v>
       </c>
-      <c r="D83" s="4">
-        <v>44</v>
-      </c>
       <c r="E83" s="4">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F83" s="4">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="G83" s="4">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -1881,22 +1881,22 @@
         <v>2</v>
       </c>
       <c r="B84" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C84" s="4">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D84" s="4">
-        <v>363</v>
+        <v>102</v>
       </c>
       <c r="E84" s="4">
-        <v>412</v>
+        <v>225</v>
       </c>
       <c r="F84" s="4">
-        <v>478</v>
+        <v>404</v>
       </c>
       <c r="G84" s="4">
-        <v>506</v>
+        <v>523</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -1904,22 +1904,22 @@
         <v>3</v>
       </c>
       <c r="B85" s="4">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C85" s="4">
         <v>147</v>
       </c>
       <c r="D85" s="4">
-        <v>281</v>
+        <v>190</v>
       </c>
       <c r="E85" s="4">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="F85" s="4">
-        <v>1106</v>
+        <v>1090</v>
       </c>
       <c r="G85" s="4">
-        <v>6128</v>
+        <v>6063</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -1961,19 +1961,19 @@
         <v>106</v>
       </c>
       <c r="C89" s="4">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D89" s="4">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E89" s="4">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="F89" s="4">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="G89" s="4">
-        <v>816</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -1981,22 +1981,22 @@
         <v>2</v>
       </c>
       <c r="B90" s="4">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="C90" s="4">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D90" s="4">
-        <v>486</v>
+        <v>147</v>
       </c>
       <c r="E90" s="4">
-        <v>506</v>
+        <v>318</v>
       </c>
       <c r="F90" s="4">
-        <v>652</v>
+        <v>553</v>
       </c>
       <c r="G90" s="4">
-        <v>775</v>
+        <v>824</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2004,22 +2004,22 @@
         <v>3</v>
       </c>
       <c r="B91" s="4">
-        <v>457</v>
+        <v>167</v>
       </c>
       <c r="C91" s="4">
-        <v>1582</v>
+        <v>182</v>
       </c>
       <c r="D91" s="4">
-        <v>3326</v>
+        <v>281</v>
       </c>
       <c r="E91" s="4">
-        <v>4686</v>
+        <v>2040</v>
       </c>
       <c r="F91" s="4">
-        <v>7373</v>
+        <v>6980</v>
       </c>
       <c r="G91" s="4">
-        <v>12518</v>
+        <v>11863</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2058,22 +2058,22 @@
         <v>1</v>
       </c>
       <c r="B96" s="3">
-        <v>405000</v>
+        <v>410000</v>
       </c>
       <c r="C96" s="3">
-        <v>560000</v>
+        <v>520000</v>
       </c>
       <c r="D96" s="3">
-        <v>672000</v>
+        <v>701000</v>
       </c>
       <c r="E96" s="3">
-        <v>790000</v>
+        <v>780000</v>
       </c>
       <c r="F96" s="3">
-        <v>803000</v>
+        <v>814000</v>
       </c>
       <c r="G96" s="3">
-        <v>830000</v>
+        <v>836000</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2081,22 +2081,22 @@
         <v>2</v>
       </c>
       <c r="B97" s="3">
-        <v>115000</v>
+        <v>60900</v>
       </c>
       <c r="C97" s="3">
-        <v>207000</v>
+        <v>163000</v>
       </c>
       <c r="D97" s="3">
-        <v>284000</v>
+        <v>281000</v>
       </c>
       <c r="E97" s="3">
-        <v>394000</v>
+        <v>378000</v>
       </c>
       <c r="F97" s="3">
-        <v>406000</v>
+        <v>430000</v>
       </c>
       <c r="G97" s="3">
-        <v>475000</v>
+        <v>461000</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2104,22 +2104,22 @@
         <v>3</v>
       </c>
       <c r="B98" s="3">
-        <v>110000</v>
+        <v>119000</v>
       </c>
       <c r="C98" s="3">
-        <v>140000</v>
+        <v>143000</v>
       </c>
       <c r="D98" s="3">
-        <v>185000</v>
+        <v>172000</v>
       </c>
       <c r="E98" s="3">
-        <v>223000</v>
+        <v>226000</v>
       </c>
       <c r="F98" s="3">
-        <v>193000</v>
+        <v>190000</v>
       </c>
       <c r="G98" s="3">
-        <v>152000</v>
+        <v>146000</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2158,22 +2158,22 @@
         <v>1</v>
       </c>
       <c r="B102" s="4">
-        <v>1656.75008</v>
+        <v>1677.7216</v>
       </c>
       <c r="C102" s="4">
-        <v>2294.284288</v>
+        <v>2130.706432</v>
       </c>
       <c r="D102" s="4">
-        <v>2753.560576</v>
+        <v>2871.001088</v>
       </c>
       <c r="E102" s="4">
-        <v>3233.808384</v>
+        <v>3196.059648</v>
       </c>
       <c r="F102" s="4">
-        <v>3288.334336</v>
+        <v>3334.47168</v>
       </c>
       <c r="G102" s="4">
-        <v>3400.531968</v>
+        <v>3424.649216</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2181,22 +2181,22 @@
         <v>2</v>
       </c>
       <c r="B103" s="4">
-        <v>472.907776</v>
+        <v>249.561088</v>
       </c>
       <c r="C103" s="4">
-        <v>847.249408</v>
+        <v>667.942912</v>
       </c>
       <c r="D103" s="4">
-        <v>1161.822208</v>
+        <v>1152.385024</v>
       </c>
       <c r="E103" s="4">
-        <v>1614.80704</v>
+        <v>1547.698176</v>
       </c>
       <c r="F103" s="4">
-        <v>1661.99296</v>
+        <v>1762.656256</v>
       </c>
       <c r="G103" s="4">
-        <v>1945.10848</v>
+        <v>1888.485376</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2204,22 +2204,22 @@
         <v>3</v>
       </c>
       <c r="B104" s="4">
-        <v>451.936256</v>
+        <v>487.58784</v>
       </c>
       <c r="C104" s="4">
-        <v>572.522496</v>
+        <v>586.153984</v>
       </c>
       <c r="D104" s="4">
-        <v>757.071872</v>
+        <v>704.643072</v>
       </c>
       <c r="E104" s="4">
-        <v>912.26112</v>
+        <v>926.941184</v>
       </c>
       <c r="F104" s="4">
-        <v>789.577728</v>
+        <v>776.994816</v>
       </c>
       <c r="G104" s="4">
-        <v>623.90272</v>
+        <v>596.639744</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2258,39 +2258,43 @@
         <v>1</v>
       </c>
       <c r="B108" s="4">
-        <v>1.02821</v>
+        <v>1.05286</v>
       </c>
       <c r="C108" s="4">
-        <v>1.14414</v>
+        <v>1.21847</v>
       </c>
       <c r="D108" s="4">
-        <v>1.26034</v>
+        <v>1.3082</v>
       </c>
       <c r="E108" s="4">
-        <v>1.63246</v>
+        <v>1.67226</v>
       </c>
       <c r="F108" s="4">
-        <v>2.70891</v>
+        <v>2.68326</v>
       </c>
       <c r="G108" s="4">
-        <v>4.78694</v>
+        <v>4.7076</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
+      <c r="B109" s="4">
+        <v>14.76</v>
+      </c>
+      <c r="C109" s="4">
+        <v>10.03</v>
+      </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4">
-        <v>11.52</v>
+        <v>12.27</v>
       </c>
       <c r="F109" s="4">
-        <v>21.91</v>
+        <v>19.4</v>
       </c>
       <c r="G109" s="4">
-        <v>28.82</v>
+        <v>29.37</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2299,19 +2303,19 @@
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="4">
-        <v>11.47</v>
+        <v>11.12</v>
       </c>
       <c r="D110" s="4">
-        <v>16.9</v>
+        <v>19.06</v>
       </c>
       <c r="E110" s="4">
-        <v>28.69</v>
+        <v>28.96</v>
       </c>
       <c r="F110" s="4">
-        <v>71.14</v>
+        <v>71.55</v>
       </c>
       <c r="G110" s="4">
-        <v>181.69</v>
+        <v>177.81</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2353,19 +2357,19 @@
         <v>1.688</v>
       </c>
       <c r="C114" s="4">
-        <v>1.944</v>
+        <v>2.448</v>
       </c>
       <c r="D114" s="4">
-        <v>1.992</v>
+        <v>2.064</v>
       </c>
       <c r="E114" s="4">
         <v>2.8</v>
       </c>
       <c r="F114" s="4">
-        <v>4.576000000000001</v>
+        <v>4.64</v>
       </c>
       <c r="G114" s="4">
-        <v>6.112</v>
+        <v>6.304</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -2373,22 +2377,22 @@
         <v>2</v>
       </c>
       <c r="B115" s="4">
-        <v>9.407999999999999</v>
+        <v>42</v>
       </c>
       <c r="C115" s="4">
-        <v>9.664</v>
+        <v>26</v>
       </c>
       <c r="D115" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E115" s="4">
-        <v>16</v>
+        <v>22.4</v>
       </c>
       <c r="F115" s="4">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G115" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -2396,22 +2400,22 @@
         <v>3</v>
       </c>
       <c r="B116" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C116" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D116" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E116" s="4">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F116" s="4">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G116" s="4">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -2450,22 +2454,22 @@
         <v>1</v>
       </c>
       <c r="B120" s="4">
-        <v>2.04</v>
+        <v>3.184</v>
       </c>
       <c r="C120" s="4">
-        <v>2.416</v>
+        <v>4.08</v>
       </c>
       <c r="D120" s="4">
+        <v>6.752</v>
+      </c>
+      <c r="E120" s="4">
         <v>6.496</v>
       </c>
-      <c r="E120" s="4">
-        <v>6.56</v>
-      </c>
       <c r="F120" s="4">
-        <v>6.368</v>
+        <v>9.792</v>
       </c>
       <c r="G120" s="4">
-        <v>9.279999999999999</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -2473,22 +2477,22 @@
         <v>2</v>
       </c>
       <c r="B121" s="4">
-        <v>10.688</v>
+        <v>49</v>
       </c>
       <c r="C121" s="4">
-        <v>10.688</v>
+        <v>44</v>
       </c>
       <c r="D121" s="4">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E121" s="4">
-        <v>30</v>
+        <v>33.024</v>
       </c>
       <c r="F121" s="4">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="G121" s="4">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -2496,22 +2500,22 @@
         <v>3</v>
       </c>
       <c r="B122" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C122" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D122" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E122" s="4">
         <v>56</v>
       </c>
       <c r="F122" s="4">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G122" s="4">
-        <v>693</v>
+        <v>586</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -2550,13 +2554,13 @@
         <v>1</v>
       </c>
       <c r="B127" s="3">
-        <v>16800</v>
+        <v>16500</v>
       </c>
       <c r="C127" s="3">
-        <v>30100</v>
+        <v>29700</v>
       </c>
       <c r="D127" s="3">
-        <v>43100</v>
+        <v>42200</v>
       </c>
       <c r="E127" s="3">
         <v>43100</v>
@@ -2565,7 +2569,7 @@
         <v>41300</v>
       </c>
       <c r="G127" s="3">
-        <v>41800</v>
+        <v>41700</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -2573,22 +2577,22 @@
         <v>2</v>
       </c>
       <c r="B128" s="3">
-        <v>11900</v>
+        <v>10400</v>
       </c>
       <c r="C128" s="3">
-        <v>19500</v>
+        <v>16800</v>
       </c>
       <c r="D128" s="3">
-        <v>32300</v>
+        <v>27700</v>
       </c>
       <c r="E128" s="3">
-        <v>37800</v>
+        <v>29500</v>
       </c>
       <c r="F128" s="3">
-        <v>29800</v>
+        <v>28500</v>
       </c>
       <c r="G128" s="3">
-        <v>29200</v>
+        <v>30100</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -2596,22 +2600,22 @@
         <v>3</v>
       </c>
       <c r="B129" s="3">
-        <v>6606</v>
+        <v>7062</v>
       </c>
       <c r="C129" s="3">
         <v>11300</v>
       </c>
       <c r="D129" s="3">
-        <v>24400</v>
+        <v>23800</v>
       </c>
       <c r="E129" s="3">
-        <v>30100</v>
+        <v>29000</v>
       </c>
       <c r="F129" s="3">
-        <v>35800</v>
+        <v>37800</v>
       </c>
       <c r="G129" s="3">
-        <v>37000</v>
+        <v>37800</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -2650,13 +2654,13 @@
         <v>1</v>
       </c>
       <c r="B133" s="4">
-        <v>2199.912448</v>
+        <v>2165.30944</v>
       </c>
       <c r="C133" s="4">
-        <v>3947.88864</v>
+        <v>3890.21696</v>
       </c>
       <c r="D133" s="4">
-        <v>5650.776064</v>
+        <v>5534.384128</v>
       </c>
       <c r="E133" s="4">
         <v>5650.776064</v>
@@ -2665,7 +2669,7 @@
         <v>5409.603584</v>
       </c>
       <c r="G133" s="4">
-        <v>5477.761024</v>
+        <v>5464.129536</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -2673,22 +2677,22 @@
         <v>2</v>
       </c>
       <c r="B134" s="4">
-        <v>1560.281088</v>
+        <v>1369.440256</v>
       </c>
       <c r="C134" s="4">
-        <v>2556.428288</v>
+        <v>2199.912448</v>
       </c>
       <c r="D134" s="4">
-        <v>4226.809856</v>
+        <v>3627.024384</v>
       </c>
       <c r="E134" s="4">
-        <v>4948.230144</v>
+        <v>3861.905408</v>
       </c>
       <c r="F134" s="4">
-        <v>3911.18848</v>
+        <v>3741.319168</v>
       </c>
       <c r="G134" s="4">
-        <v>3828.350976</v>
+        <v>3940.548608</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -2696,22 +2700,22 @@
         <v>3</v>
       </c>
       <c r="B135" s="4">
-        <v>866.123776</v>
+        <v>925.892608</v>
       </c>
       <c r="C135" s="4">
         <v>1482.686464</v>
       </c>
       <c r="D135" s="4">
-        <v>3196.059648</v>
+        <v>3121.610752</v>
       </c>
       <c r="E135" s="4">
-        <v>3947.88864</v>
+        <v>3807.379456</v>
       </c>
       <c r="F135" s="4">
-        <v>4689.231872</v>
+        <v>4959.76448</v>
       </c>
       <c r="G135" s="4">
-        <v>4976.541696</v>
+        <v>4953.473024</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -2750,22 +2754,22 @@
         <v>1</v>
       </c>
       <c r="B139" s="4">
-        <v>58.94</v>
+        <v>59.66</v>
       </c>
       <c r="C139" s="4">
-        <v>64.8</v>
+        <v>66.39</v>
       </c>
       <c r="D139" s="4">
-        <v>91.79000000000001</v>
+        <v>92.76000000000001</v>
       </c>
       <c r="E139" s="4">
-        <v>184.51</v>
+        <v>183.52</v>
       </c>
       <c r="F139" s="4">
-        <v>384.97</v>
+        <v>384.57</v>
       </c>
       <c r="G139" s="4">
-        <v>763.27</v>
+        <v>763.64</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -2773,22 +2777,22 @@
         <v>2</v>
       </c>
       <c r="B140" s="4">
-        <v>83.08</v>
+        <v>94.79000000000001</v>
       </c>
       <c r="C140" s="4">
-        <v>95.27</v>
+        <v>109.12</v>
       </c>
       <c r="D140" s="4">
-        <v>119.51</v>
+        <v>140.85</v>
       </c>
       <c r="E140" s="4">
-        <v>205.08</v>
+        <v>266.5</v>
       </c>
       <c r="F140" s="4">
-        <v>486.75</v>
+        <v>554.91</v>
       </c>
       <c r="G140" s="4">
-        <v>1000.64</v>
+        <v>981.22</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -2796,22 +2800,22 @@
         <v>3</v>
       </c>
       <c r="B141" s="4">
-        <v>144.45</v>
+        <v>133.32</v>
       </c>
       <c r="C141" s="4">
-        <v>164.72</v>
+        <v>167.12</v>
       </c>
       <c r="D141" s="4">
-        <v>150.91</v>
+        <v>152.35</v>
       </c>
       <c r="E141" s="4">
-        <v>240.48</v>
+        <v>252.34</v>
       </c>
       <c r="F141" s="4">
-        <v>410.07</v>
+        <v>393.72</v>
       </c>
       <c r="G141" s="4">
-        <v>793.33</v>
+        <v>805.9</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -2850,22 +2854,22 @@
         <v>1</v>
       </c>
       <c r="B145" s="4">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C145" s="4">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D145" s="4">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="E145" s="4">
-        <v>619</v>
+        <v>486</v>
       </c>
       <c r="F145" s="4">
-        <v>1237</v>
+        <v>1156</v>
       </c>
       <c r="G145" s="4">
-        <v>2868</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -2873,22 +2877,22 @@
         <v>2</v>
       </c>
       <c r="B146" s="4">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="C146" s="4">
-        <v>281</v>
+        <v>359</v>
       </c>
       <c r="D146" s="4">
-        <v>330</v>
+        <v>412</v>
       </c>
       <c r="E146" s="4">
-        <v>603</v>
+        <v>766</v>
       </c>
       <c r="F146" s="4">
-        <v>1450</v>
+        <v>1237</v>
       </c>
       <c r="G146" s="4">
-        <v>2606</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -2896,22 +2900,22 @@
         <v>3</v>
       </c>
       <c r="B147" s="4">
-        <v>400</v>
+        <v>594</v>
       </c>
       <c r="C147" s="4">
-        <v>553</v>
+        <v>510</v>
       </c>
       <c r="D147" s="4">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="E147" s="4">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="F147" s="4">
-        <v>1434</v>
+        <v>1336</v>
       </c>
       <c r="G147" s="4">
-        <v>3392</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -2950,22 +2954,22 @@
         <v>1</v>
       </c>
       <c r="B151" s="4">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C151" s="4">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="D151" s="4">
         <v>239</v>
       </c>
       <c r="E151" s="4">
-        <v>668</v>
+        <v>537</v>
       </c>
       <c r="F151" s="4">
-        <v>1303</v>
+        <v>1319</v>
       </c>
       <c r="G151" s="4">
-        <v>2933</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -2973,22 +2977,22 @@
         <v>2</v>
       </c>
       <c r="B152" s="4">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="C152" s="4">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="D152" s="4">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="E152" s="4">
-        <v>938</v>
+        <v>996</v>
       </c>
       <c r="F152" s="4">
-        <v>1549</v>
+        <v>1352</v>
       </c>
       <c r="G152" s="4">
-        <v>3458</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -2996,22 +3000,22 @@
         <v>3</v>
       </c>
       <c r="B153" s="4">
-        <v>537</v>
+        <v>750</v>
       </c>
       <c r="C153" s="4">
-        <v>881</v>
+        <v>758</v>
       </c>
       <c r="D153" s="4">
-        <v>1057</v>
+        <v>996</v>
       </c>
       <c r="E153" s="4">
-        <v>2147</v>
+        <v>2769</v>
       </c>
       <c r="F153" s="4">
-        <v>3490</v>
+        <v>3556</v>
       </c>
       <c r="G153" s="4">
-        <v>6259</v>
+        <v>6194</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3053,19 +3057,19 @@
         <v>504000</v>
       </c>
       <c r="C158" s="3">
-        <v>819000</v>
+        <v>809000</v>
       </c>
       <c r="D158" s="3">
-        <v>1016000</v>
+        <v>1024000</v>
       </c>
       <c r="E158" s="3">
-        <v>1192000</v>
+        <v>1181000</v>
       </c>
       <c r="F158" s="3">
         <v>1194000</v>
       </c>
       <c r="G158" s="3">
-        <v>1209000</v>
+        <v>1194000</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -3073,22 +3077,22 @@
         <v>2</v>
       </c>
       <c r="B159" s="3">
-        <v>455000</v>
+        <v>381000</v>
       </c>
       <c r="C159" s="3">
-        <v>596000</v>
+        <v>643000</v>
       </c>
       <c r="D159" s="3">
-        <v>1016000</v>
+        <v>986000</v>
       </c>
       <c r="E159" s="3">
-        <v>946000</v>
+        <v>840000</v>
       </c>
       <c r="F159" s="3">
-        <v>835000</v>
+        <v>706000</v>
       </c>
       <c r="G159" s="3">
-        <v>809000</v>
+        <v>834000</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -3096,22 +3100,22 @@
         <v>3</v>
       </c>
       <c r="B160" s="3">
-        <v>252000</v>
+        <v>410000</v>
       </c>
       <c r="C160" s="3">
-        <v>407000</v>
+        <v>458000</v>
       </c>
       <c r="D160" s="3">
-        <v>712000</v>
+        <v>892000</v>
       </c>
       <c r="E160" s="3">
-        <v>859000</v>
+        <v>960000</v>
       </c>
       <c r="F160" s="3">
-        <v>1036000</v>
+        <v>1044000</v>
       </c>
       <c r="G160" s="3">
-        <v>1087000</v>
+        <v>1142000</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -3153,19 +3157,19 @@
         <v>2064.646144</v>
       </c>
       <c r="C164" s="4">
-        <v>3355.4432</v>
+        <v>3313.50016</v>
       </c>
       <c r="D164" s="4">
-        <v>4161.798144</v>
+        <v>4194.304</v>
       </c>
       <c r="E164" s="4">
-        <v>4881.12128</v>
+        <v>4837.081088</v>
       </c>
       <c r="F164" s="4">
         <v>4891.60704</v>
       </c>
       <c r="G164" s="4">
-        <v>4953.473024</v>
+        <v>4891.60704</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -3173,22 +3177,22 @@
         <v>2</v>
       </c>
       <c r="B165" s="4">
-        <v>1864.368128</v>
+        <v>1560.281088</v>
       </c>
       <c r="C165" s="4">
-        <v>2440.036352</v>
+        <v>2631.92576</v>
       </c>
       <c r="D165" s="4">
-        <v>4161.798144</v>
+        <v>4037.0176</v>
       </c>
       <c r="E165" s="4">
-        <v>3876.585472</v>
+        <v>3441.426432</v>
       </c>
       <c r="F165" s="4">
-        <v>3419.406336</v>
+        <v>2889.875456</v>
       </c>
       <c r="G165" s="4">
-        <v>3313.50016</v>
+        <v>3414.163456</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -3196,22 +3200,22 @@
         <v>3</v>
       </c>
       <c r="B166" s="4">
-        <v>1032.84736</v>
+        <v>1677.7216</v>
       </c>
       <c r="C166" s="4">
-        <v>1667.23584</v>
+        <v>1876.95104</v>
       </c>
       <c r="D166" s="4">
-        <v>2918.187008</v>
+        <v>3652.190208</v>
       </c>
       <c r="E166" s="4">
-        <v>3520.069632</v>
+        <v>3933.208576</v>
       </c>
       <c r="F166" s="4">
-        <v>4243.587072</v>
+        <v>4278.19008</v>
       </c>
       <c r="G166" s="4">
-        <v>4451.20512</v>
+        <v>4678.746112</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -3250,22 +3254,22 @@
         <v>1</v>
       </c>
       <c r="B170" s="4">
-        <v>1.79213</v>
+        <v>1.79519</v>
       </c>
       <c r="C170" s="4">
-        <v>2.21069</v>
+        <v>2.28493</v>
       </c>
       <c r="D170" s="4">
-        <v>3.71624</v>
+        <v>3.67435</v>
       </c>
       <c r="E170" s="4">
-        <v>6.49196</v>
+        <v>6.52922</v>
       </c>
       <c r="F170" s="4">
-        <v>13.15099</v>
+        <v>13.08016</v>
       </c>
       <c r="G170" s="4">
-        <v>26.24566</v>
+        <v>26.52106</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -3273,22 +3277,22 @@
         <v>2</v>
       </c>
       <c r="B171" s="4">
-        <v>2.0142</v>
+        <v>2.40315</v>
       </c>
       <c r="C171" s="4">
-        <v>2.81532</v>
+        <v>2.6705</v>
       </c>
       <c r="D171" s="4">
-        <v>3.72493</v>
+        <v>3.74892</v>
       </c>
       <c r="E171" s="4">
-        <v>8.085430000000001</v>
+        <v>8.995850000000001</v>
       </c>
       <c r="F171" s="4">
-        <v>18.98028</v>
+        <v>22.08086</v>
       </c>
       <c r="G171" s="4">
-        <v>38.58406</v>
+        <v>36.64112</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -3296,22 +3300,22 @@
         <v>3</v>
       </c>
       <c r="B172" s="4">
-        <v>3.49284</v>
+        <v>2.08269</v>
       </c>
       <c r="C172" s="4">
-        <v>4.26071</v>
+        <v>3.8175</v>
       </c>
       <c r="D172" s="4">
-        <v>4.90011</v>
+        <v>3.94291</v>
       </c>
       <c r="E172" s="4">
-        <v>8.265270000000001</v>
+        <v>7.65331</v>
       </c>
       <c r="F172" s="4">
-        <v>14.0396</v>
+        <v>14.25875</v>
       </c>
       <c r="G172" s="4">
-        <v>27.76948</v>
+        <v>26.91056</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -3350,22 +3354,22 @@
         <v>1</v>
       </c>
       <c r="B176" s="4">
+        <v>1.624</v>
+      </c>
+      <c r="C176" s="4">
         <v>1.64</v>
       </c>
-      <c r="C176" s="4">
-        <v>1.672</v>
-      </c>
       <c r="D176" s="4">
-        <v>1.656</v>
+        <v>1.608</v>
       </c>
       <c r="E176" s="4">
-        <v>0.972</v>
+        <v>1.688</v>
       </c>
       <c r="F176" s="4">
-        <v>1.656</v>
+        <v>2.32</v>
       </c>
       <c r="G176" s="4">
-        <v>1.096</v>
+        <v>2.024</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -3373,22 +3377,22 @@
         <v>2</v>
       </c>
       <c r="B177" s="4">
-        <v>1.864</v>
+        <v>2.16</v>
       </c>
       <c r="C177" s="4">
-        <v>1.944</v>
+        <v>1.976</v>
       </c>
       <c r="D177" s="4">
-        <v>0.524</v>
+        <v>2.024</v>
       </c>
       <c r="E177" s="4">
-        <v>0.548</v>
+        <v>2.864</v>
       </c>
       <c r="F177" s="4">
-        <v>0.6840000000000001</v>
+        <v>2.672</v>
       </c>
       <c r="G177" s="4">
-        <v>0.66</v>
+        <v>2.544</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -3396,22 +3400,22 @@
         <v>3</v>
       </c>
       <c r="B178" s="4">
-        <v>2.024</v>
+        <v>0.47</v>
       </c>
       <c r="C178" s="4">
-        <v>1.96</v>
+        <v>1.752</v>
       </c>
       <c r="D178" s="4">
-        <v>2.192</v>
+        <v>0.604</v>
       </c>
       <c r="E178" s="4">
-        <v>2.64</v>
+        <v>1.496</v>
       </c>
       <c r="F178" s="4">
-        <v>2.64</v>
+        <v>2.736</v>
       </c>
       <c r="G178" s="4">
-        <v>2.8</v>
+        <v>2.768</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -3450,22 +3454,22 @@
         <v>1</v>
       </c>
       <c r="B182" s="4">
-        <v>31.36</v>
+        <v>41.728</v>
       </c>
       <c r="C182" s="4">
-        <v>46.848</v>
+        <v>91.648</v>
       </c>
       <c r="D182" s="4">
-        <v>154.624</v>
+        <v>175.104</v>
       </c>
       <c r="E182" s="4">
-        <v>325.632</v>
+        <v>329.728</v>
       </c>
       <c r="F182" s="4">
-        <v>552.96</v>
+        <v>602.112</v>
       </c>
       <c r="G182" s="4">
-        <v>528.384</v>
+        <v>1384.448</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -3473,22 +3477,22 @@
         <v>2</v>
       </c>
       <c r="B183" s="4">
-        <v>62.72</v>
+        <v>39.168</v>
       </c>
       <c r="C183" s="4">
-        <v>76.288</v>
+        <v>82.432</v>
       </c>
       <c r="D183" s="4">
-        <v>160.768</v>
+        <v>140.288</v>
       </c>
       <c r="E183" s="4">
-        <v>415.744</v>
+        <v>358.4</v>
       </c>
       <c r="F183" s="4">
-        <v>1253.376</v>
+        <v>1335.296</v>
       </c>
       <c r="G183" s="4">
-        <v>2375.68</v>
+        <v>2310.144</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -3496,22 +3500,22 @@
         <v>3</v>
       </c>
       <c r="B184" s="4">
-        <v>73.21600000000001</v>
+        <v>53.504</v>
       </c>
       <c r="C184" s="4">
-        <v>107.008</v>
+        <v>99.84</v>
       </c>
       <c r="D184" s="4">
-        <v>142.336</v>
+        <v>126.464</v>
       </c>
       <c r="E184" s="4">
-        <v>189.44</v>
+        <v>158.72</v>
       </c>
       <c r="F184" s="4">
-        <v>268.288</v>
+        <v>337.92</v>
       </c>
       <c r="G184" s="4">
-        <v>264.192</v>
+        <v>259.072</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -3550,22 +3554,22 @@
         <v>1</v>
       </c>
       <c r="B189" s="3">
-        <v>10600</v>
+        <v>11800</v>
       </c>
       <c r="C189" s="3">
         <v>14200</v>
       </c>
       <c r="D189" s="3">
-        <v>16300</v>
+        <v>16600</v>
       </c>
       <c r="E189" s="3">
-        <v>17400</v>
+        <v>17700</v>
       </c>
       <c r="F189" s="3">
-        <v>16700</v>
+        <v>17800</v>
       </c>
       <c r="G189" s="3">
-        <v>17300</v>
+        <v>18200</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -3573,22 +3577,22 @@
         <v>2</v>
       </c>
       <c r="B190" s="3">
-        <v>8000</v>
+        <v>2639</v>
       </c>
       <c r="C190" s="3">
-        <v>11100</v>
+        <v>6131</v>
       </c>
       <c r="D190" s="3">
-        <v>14200</v>
+        <v>10700</v>
       </c>
       <c r="E190" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F190" s="3">
         <v>15700</v>
       </c>
-      <c r="F190" s="3">
-        <v>15200</v>
-      </c>
       <c r="G190" s="3">
-        <v>16800</v>
+        <v>16700</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -3596,22 +3600,22 @@
         <v>3</v>
       </c>
       <c r="B191" s="3">
-        <v>5851</v>
+        <v>6320</v>
       </c>
       <c r="C191" s="3">
-        <v>9752</v>
+        <v>8224</v>
       </c>
       <c r="D191" s="3">
-        <v>10200</v>
+        <v>9061</v>
       </c>
       <c r="E191" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F191" s="3">
         <v>11300</v>
       </c>
-      <c r="F191" s="3">
-        <v>10500</v>
-      </c>
       <c r="G191" s="3">
-        <v>10800</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -3650,22 +3654,22 @@
         <v>1</v>
       </c>
       <c r="B195" s="4">
-        <v>1384.12032</v>
+        <v>1542.455296</v>
       </c>
       <c r="C195" s="4">
         <v>1864.368128</v>
       </c>
       <c r="D195" s="4">
-        <v>2139.09504</v>
+        <v>2173.698048</v>
       </c>
       <c r="E195" s="4">
-        <v>2284.847104</v>
+        <v>2319.450112</v>
       </c>
       <c r="F195" s="4">
-        <v>2182.086656</v>
+        <v>2332.033024</v>
       </c>
       <c r="G195" s="4">
-        <v>2264.92416</v>
+        <v>2388.656128</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -3673,22 +3677,22 @@
         <v>2</v>
       </c>
       <c r="B196" s="4">
-        <v>1048.576</v>
+        <v>346.03008</v>
       </c>
       <c r="C196" s="4">
-        <v>1451.229184</v>
+        <v>803.209216</v>
       </c>
       <c r="D196" s="4">
-        <v>1864.368128</v>
+        <v>1401.946112</v>
       </c>
       <c r="E196" s="4">
-        <v>2053.111808</v>
+        <v>1910.505472</v>
       </c>
       <c r="F196" s="4">
-        <v>1988.100096</v>
+        <v>2057.306112</v>
       </c>
       <c r="G196" s="4">
-        <v>2207.25248</v>
+        <v>2188.378112</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -3696,22 +3700,22 @@
         <v>3</v>
       </c>
       <c r="B197" s="4">
-        <v>766.509056</v>
+        <v>828.37504</v>
       </c>
       <c r="C197" s="4">
-        <v>1278.214144</v>
+        <v>1077.936128</v>
       </c>
       <c r="D197" s="4">
-        <v>1331.69152</v>
+        <v>1188.036608</v>
       </c>
       <c r="E197" s="4">
-        <v>1478.49216</v>
+        <v>1571.815424</v>
       </c>
       <c r="F197" s="4">
-        <v>1378.87744</v>
+        <v>1480.589312</v>
       </c>
       <c r="G197" s="4">
-        <v>1413.480448</v>
+        <v>1384.12032</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -3750,22 +3754,22 @@
         <v>1</v>
       </c>
       <c r="B201" s="4">
-        <v>26.19</v>
+        <v>24.18244</v>
       </c>
       <c r="C201" s="4">
-        <v>27.64</v>
+        <v>28.41</v>
       </c>
       <c r="D201" s="4">
-        <v>31.97</v>
+        <v>30.44625</v>
       </c>
       <c r="E201" s="4">
-        <v>41.68</v>
+        <v>42.99</v>
       </c>
       <c r="F201" s="4">
-        <v>80.75</v>
+        <v>79.41</v>
       </c>
       <c r="G201" s="4">
-        <v>144.36</v>
+        <v>137.56</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -3773,22 +3777,22 @@
         <v>2</v>
       </c>
       <c r="B202" s="4">
-        <v>70.47</v>
+        <v>316.07</v>
       </c>
       <c r="C202" s="4">
-        <v>69.47</v>
+        <v>213.92</v>
       </c>
       <c r="D202" s="4">
-        <v>76.05</v>
+        <v>163.48</v>
       </c>
       <c r="E202" s="4">
-        <v>107.52</v>
+        <v>140.98</v>
       </c>
       <c r="F202" s="4">
-        <v>202.68</v>
+        <v>180.44</v>
       </c>
       <c r="G202" s="4">
-        <v>380.83</v>
+        <v>358.04</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -3796,22 +3800,22 @@
         <v>3</v>
       </c>
       <c r="B203" s="4">
-        <v>95.79000000000001</v>
+        <v>86.7</v>
       </c>
       <c r="C203" s="4">
-        <v>115.31</v>
+        <v>126.65</v>
       </c>
       <c r="D203" s="4">
-        <v>207.69</v>
+        <v>216.17</v>
       </c>
       <c r="E203" s="4">
-        <v>354.47</v>
+        <v>348.34</v>
       </c>
       <c r="F203" s="4">
-        <v>766.38</v>
+        <v>763.8099999999999</v>
       </c>
       <c r="G203" s="4">
-        <v>1870.84</v>
+        <v>1861.2</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -3850,19 +3854,19 @@
         <v>1</v>
       </c>
       <c r="B207" s="4">
-        <v>101</v>
+        <v>26.496</v>
       </c>
       <c r="C207" s="4">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D207" s="4">
-        <v>44</v>
+        <v>35.072</v>
       </c>
       <c r="E207" s="4">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F207" s="4">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G207" s="4">
         <v>184</v>
@@ -3873,22 +3877,22 @@
         <v>2</v>
       </c>
       <c r="B208" s="4">
-        <v>108</v>
+        <v>465</v>
       </c>
       <c r="C208" s="4">
-        <v>86</v>
+        <v>416</v>
       </c>
       <c r="D208" s="4">
-        <v>96</v>
+        <v>334</v>
       </c>
       <c r="E208" s="4">
-        <v>135</v>
+        <v>355</v>
       </c>
       <c r="F208" s="4">
-        <v>392</v>
+        <v>253</v>
       </c>
       <c r="G208" s="4">
-        <v>523</v>
+        <v>474</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -3896,22 +3900,22 @@
         <v>3</v>
       </c>
       <c r="B209" s="4">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C209" s="4">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D209" s="4">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="E209" s="4">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="F209" s="4">
-        <v>1012</v>
+        <v>996</v>
       </c>
       <c r="G209" s="4">
-        <v>6063</v>
+        <v>5538</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -3950,22 +3954,22 @@
         <v>1</v>
       </c>
       <c r="B213" s="4">
-        <v>108</v>
+        <v>29.056</v>
       </c>
       <c r="C213" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D213" s="4">
-        <v>116</v>
+        <v>41.728</v>
       </c>
       <c r="E213" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F213" s="4">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="G213" s="4">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -3973,22 +3977,22 @@
         <v>2</v>
       </c>
       <c r="B214" s="4">
-        <v>126</v>
+        <v>537</v>
       </c>
       <c r="C214" s="4">
-        <v>99</v>
+        <v>465</v>
       </c>
       <c r="D214" s="4">
-        <v>108</v>
+        <v>429</v>
       </c>
       <c r="E214" s="4">
-        <v>151</v>
+        <v>420</v>
       </c>
       <c r="F214" s="4">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="G214" s="4">
-        <v>889</v>
+        <v>709</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -3996,22 +4000,22 @@
         <v>3</v>
       </c>
       <c r="B215" s="4">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C215" s="4">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="D215" s="4">
-        <v>416</v>
+        <v>2180</v>
       </c>
       <c r="E215" s="4">
-        <v>676</v>
+        <v>1287</v>
       </c>
       <c r="F215" s="4">
-        <v>7439</v>
+        <v>7898</v>
       </c>
       <c r="G215" s="4">
-        <v>12387</v>
+        <v>11731</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -4050,22 +4054,22 @@
         <v>1</v>
       </c>
       <c r="B220" s="3">
-        <v>306000</v>
+        <v>298000</v>
       </c>
       <c r="C220" s="3">
-        <v>415000</v>
+        <v>417000</v>
       </c>
       <c r="D220" s="3">
-        <v>504000</v>
+        <v>498000</v>
       </c>
       <c r="E220" s="3">
-        <v>545000</v>
+        <v>559000</v>
       </c>
       <c r="F220" s="3">
-        <v>480000</v>
+        <v>539000</v>
       </c>
       <c r="G220" s="3">
-        <v>576000</v>
+        <v>571000</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -4073,22 +4077,22 @@
         <v>2</v>
       </c>
       <c r="B221" s="3">
-        <v>80300</v>
+        <v>40800</v>
       </c>
       <c r="C221" s="3">
-        <v>154000</v>
+        <v>163000</v>
       </c>
       <c r="D221" s="3">
         <v>250000</v>
       </c>
       <c r="E221" s="3">
-        <v>331000</v>
+        <v>311000</v>
       </c>
       <c r="F221" s="3">
-        <v>347000</v>
+        <v>343000</v>
       </c>
       <c r="G221" s="3">
-        <v>442000</v>
+        <v>453000</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -4096,22 +4100,22 @@
         <v>3</v>
       </c>
       <c r="B222" s="3">
-        <v>113000</v>
+        <v>108000</v>
       </c>
       <c r="C222" s="3">
-        <v>175000</v>
+        <v>149000</v>
       </c>
       <c r="D222" s="3">
-        <v>182000</v>
+        <v>204000</v>
       </c>
       <c r="E222" s="3">
-        <v>206000</v>
+        <v>213000</v>
       </c>
       <c r="F222" s="3">
-        <v>195000</v>
+        <v>193000</v>
       </c>
       <c r="G222" s="3">
-        <v>173000</v>
+        <v>171000</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -4150,22 +4154,22 @@
         <v>1</v>
       </c>
       <c r="B226" s="4">
-        <v>1254.096896</v>
+        <v>1220.542464</v>
       </c>
       <c r="C226" s="4">
-        <v>1698.69312</v>
+        <v>1710.227456</v>
       </c>
       <c r="D226" s="4">
-        <v>2064.646144</v>
+        <v>2041.577472</v>
       </c>
       <c r="E226" s="4">
-        <v>2232.418304</v>
+        <v>2289.041408</v>
       </c>
       <c r="F226" s="4">
-        <v>1965.031424</v>
+        <v>2209.349632</v>
       </c>
       <c r="G226" s="4">
-        <v>2360.344576</v>
+        <v>2340.421632</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -4173,22 +4177,22 @@
         <v>2</v>
       </c>
       <c r="B227" s="4">
-        <v>329.252864</v>
+        <v>166.723584</v>
       </c>
       <c r="C227" s="4">
-        <v>630.194176</v>
+        <v>667.942912</v>
       </c>
       <c r="D227" s="4">
-        <v>1022.3616</v>
+        <v>1024.458752</v>
       </c>
       <c r="E227" s="4">
-        <v>1357.90592</v>
+        <v>1271.922688</v>
       </c>
       <c r="F227" s="4">
-        <v>1420.82048</v>
+        <v>1404.043264</v>
       </c>
       <c r="G227" s="4">
-        <v>1808.7936</v>
+        <v>1854.930944</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -4196,22 +4200,22 @@
         <v>3</v>
       </c>
       <c r="B228" s="4">
-        <v>462.422016</v>
+        <v>442.499072</v>
       </c>
       <c r="C228" s="4">
-        <v>716.177408</v>
+        <v>611.319808</v>
       </c>
       <c r="D228" s="4">
-        <v>743.440384</v>
+        <v>837.812224</v>
       </c>
       <c r="E228" s="4">
-        <v>842.006528</v>
+        <v>873.463808</v>
       </c>
       <c r="F228" s="4">
-        <v>796.91776</v>
+        <v>792.7234560000001</v>
       </c>
       <c r="G228" s="4">
-        <v>709.885952</v>
+        <v>699.4001919999999</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -4250,22 +4254,22 @@
         <v>1</v>
       </c>
       <c r="B232" s="4">
-        <v>0.99087</v>
+        <v>1.02981</v>
       </c>
       <c r="C232" s="4">
-        <v>1.06328</v>
+        <v>1.05879</v>
       </c>
       <c r="D232" s="4">
-        <v>1.08183</v>
+        <v>1.17374</v>
       </c>
       <c r="E232" s="4">
-        <v>1.35185</v>
+        <v>1.39464</v>
       </c>
       <c r="F232" s="4">
-        <v>2.47791</v>
+        <v>2.54739</v>
       </c>
       <c r="G232" s="4">
-        <v>4.2743</v>
+        <v>4.17204</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -4273,18 +4277,18 @@
         <v>2</v>
       </c>
       <c r="B233" s="4">
-        <v>10.19</v>
+        <v>22.13</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4">
-        <v>11.47</v>
+        <v>13.1</v>
       </c>
       <c r="F233" s="4">
-        <v>20.03</v>
+        <v>20.41</v>
       </c>
       <c r="G233" s="4">
-        <v>29.13</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -4294,16 +4298,16 @@
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4">
-        <v>16.07</v>
+        <v>14.72</v>
       </c>
       <c r="E234" s="4">
-        <v>27.4</v>
+        <v>27.97</v>
       </c>
       <c r="F234" s="4">
-        <v>66.51000000000001</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="G234" s="4">
-        <v>155.5</v>
+        <v>152.27</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -4342,22 +4346,22 @@
         <v>1</v>
       </c>
       <c r="B238" s="4">
-        <v>1.496</v>
+        <v>1.752</v>
       </c>
       <c r="C238" s="4">
-        <v>1.688</v>
+        <v>1.848</v>
       </c>
       <c r="D238" s="4">
-        <v>1.736</v>
+        <v>2.672</v>
       </c>
       <c r="E238" s="4">
-        <v>2.448</v>
+        <v>2.32</v>
       </c>
       <c r="F238" s="4">
         <v>4.512</v>
       </c>
       <c r="G238" s="4">
-        <v>5.92</v>
+        <v>5.600000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -4365,22 +4369,22 @@
         <v>2</v>
       </c>
       <c r="B239" s="4">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C239" s="4">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D239" s="4">
-        <v>15</v>
+        <v>14.912</v>
       </c>
       <c r="E239" s="4">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F239" s="4">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G239" s="4">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -4388,22 +4392,22 @@
         <v>3</v>
       </c>
       <c r="B240" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D240" s="4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E240" s="4">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F240" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G240" s="4">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -4445,19 +4449,19 @@
         <v>4.192</v>
       </c>
       <c r="C244" s="4">
-        <v>4.384</v>
+        <v>4.32</v>
       </c>
       <c r="D244" s="4">
-        <v>4.256</v>
+        <v>4.512</v>
       </c>
       <c r="E244" s="4">
-        <v>4.448</v>
+        <v>4.576000000000001</v>
       </c>
       <c r="F244" s="4">
-        <v>7.2</v>
+        <v>9.407999999999999</v>
       </c>
       <c r="G244" s="4">
-        <v>10.304</v>
+        <v>13.632</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -4465,22 +4469,22 @@
         <v>2</v>
       </c>
       <c r="B245" s="4">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C245" s="4">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D245" s="4">
-        <v>41</v>
+        <v>40.704</v>
       </c>
       <c r="E245" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F245" s="4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G245" s="4">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -4488,22 +4492,22 @@
         <v>3</v>
       </c>
       <c r="B246" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C246" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D246" s="4">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E246" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F246" s="4">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G246" s="4">
-        <v>553</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/summary.xlsx
+++ b/rfuse/summary.xlsx
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>6522</v>
+        <v>7937</v>
       </c>
       <c r="C3" s="3">
-        <v>1943</v>
+        <v>13600</v>
       </c>
       <c r="D3" s="3">
-        <v>3750</v>
+        <v>4035</v>
       </c>
       <c r="E3" s="3">
-        <v>8233</v>
+        <v>8249</v>
       </c>
       <c r="F3" s="3">
-        <v>12800</v>
+        <v>12500</v>
       </c>
       <c r="G3" s="3">
-        <v>13800</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -581,22 +581,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2925</v>
+        <v>2652</v>
       </c>
       <c r="C4" s="3">
-        <v>1901</v>
+        <v>1850</v>
       </c>
       <c r="D4" s="3">
-        <v>3703</v>
+        <v>3615</v>
       </c>
       <c r="E4" s="3">
-        <v>6889</v>
+        <v>6330</v>
       </c>
       <c r="F4" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="G4" s="3">
-        <v>13300</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -604,22 +604,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>983</v>
+        <v>4899</v>
       </c>
       <c r="C5" s="3">
-        <v>1894</v>
+        <v>8031</v>
       </c>
       <c r="D5" s="3">
-        <v>3580</v>
+        <v>3657</v>
       </c>
       <c r="E5" s="3">
-        <v>7173</v>
+        <v>6553</v>
       </c>
       <c r="F5" s="3">
         <v>11500</v>
       </c>
       <c r="G5" s="3">
-        <v>42800</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -658,22 +658,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="4">
-        <v>854.58944</v>
+        <v>1040.187392</v>
       </c>
       <c r="C9" s="4">
-        <v>254.803968</v>
+        <v>1777.33632</v>
       </c>
       <c r="D9" s="4">
-        <v>491.782144</v>
+        <v>528.482304</v>
       </c>
       <c r="E9" s="4">
-        <v>1078.984704</v>
+        <v>1081.081856</v>
       </c>
       <c r="F9" s="4">
-        <v>1678.770176</v>
+        <v>1636.827136</v>
       </c>
       <c r="G9" s="4">
-        <v>1805.647872</v>
+        <v>1690.304512</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -681,22 +681,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>383.778816</v>
+        <v>348.127232</v>
       </c>
       <c r="C10" s="4">
-        <v>249.561088</v>
+        <v>242.221056</v>
       </c>
       <c r="D10" s="4">
-        <v>485.490688</v>
+        <v>473.956352</v>
       </c>
       <c r="E10" s="4">
-        <v>902.823936</v>
+        <v>829.423616</v>
       </c>
       <c r="F10" s="4">
-        <v>1484.783616</v>
+        <v>1473.24928</v>
       </c>
       <c r="G10" s="4">
-        <v>1749.024768</v>
+        <v>1718.616064</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -704,22 +704,22 @@
         <v>3</v>
       </c>
       <c r="B11" s="4">
-        <v>128.974848</v>
+        <v>641.728512</v>
       </c>
       <c r="C11" s="4">
-        <v>248.512512</v>
+        <v>1052.770304</v>
       </c>
       <c r="D11" s="4">
-        <v>469.762048</v>
+        <v>479.199232</v>
       </c>
       <c r="E11" s="4">
-        <v>940.572672</v>
+        <v>858.783744</v>
       </c>
       <c r="F11" s="4">
-        <v>1512.046592</v>
+        <v>1501.560832</v>
       </c>
       <c r="G11" s="4">
-        <v>5614.075904</v>
+        <v>1676.673024</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -758,22 +758,22 @@
         <v>1</v>
       </c>
       <c r="B15" s="4">
-        <v>152.17</v>
+        <v>125.24</v>
       </c>
       <c r="C15" s="4">
-        <v>1024.93</v>
+        <v>144.85</v>
       </c>
       <c r="D15" s="4">
-        <v>991.99</v>
+        <v>911.16</v>
       </c>
       <c r="E15" s="4">
-        <v>903.72</v>
+        <v>805.22</v>
       </c>
       <c r="F15" s="4">
-        <v>1143.46</v>
+        <v>1191.82</v>
       </c>
       <c r="G15" s="4">
-        <v>2258.46</v>
+        <v>2373.09</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -781,22 +781,22 @@
         <v>2</v>
       </c>
       <c r="B16" s="4">
-        <v>340.26</v>
+        <v>375.67</v>
       </c>
       <c r="C16" s="4">
-        <v>1014.41</v>
+        <v>1065.63</v>
       </c>
       <c r="D16" s="4">
-        <v>1069.09</v>
+        <v>1087.76</v>
       </c>
       <c r="E16" s="4">
-        <v>1122.64</v>
+        <v>1161.6</v>
       </c>
       <c r="F16" s="4">
-        <v>1346.92</v>
+        <v>1357.14</v>
       </c>
       <c r="G16" s="4">
-        <v>2382.42</v>
+        <v>2423.09</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -804,22 +804,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="4">
-        <v>1005.02</v>
+        <v>203.04</v>
       </c>
       <c r="C17" s="4">
-        <v>1035.09</v>
+        <v>241.44</v>
       </c>
       <c r="D17" s="4">
-        <v>1099.55</v>
+        <v>1068.68</v>
       </c>
       <c r="E17" s="4">
-        <v>1078.97</v>
+        <v>1154.35</v>
       </c>
       <c r="F17" s="4">
-        <v>1285.44</v>
+        <v>1264.3</v>
       </c>
       <c r="G17" s="4">
-        <v>594.75</v>
+        <v>2046.16</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -858,22 +858,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="4">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="C21" s="4">
-        <v>1795</v>
+        <v>233</v>
       </c>
       <c r="D21" s="4">
+        <v>1827</v>
+      </c>
+      <c r="E21" s="4">
         <v>1893</v>
       </c>
-      <c r="E21" s="4">
-        <v>1958</v>
-      </c>
       <c r="F21" s="4">
-        <v>2540</v>
+        <v>2704</v>
       </c>
       <c r="G21" s="4">
-        <v>5342</v>
+        <v>5735</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -881,22 +881,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>635</v>
+        <v>668</v>
       </c>
       <c r="C22" s="4">
-        <v>1811</v>
+        <v>1893</v>
       </c>
       <c r="D22" s="4">
-        <v>1926</v>
+        <v>1958</v>
       </c>
       <c r="E22" s="4">
-        <v>2008</v>
+        <v>2114</v>
       </c>
       <c r="F22" s="4">
         <v>3261</v>
       </c>
       <c r="G22" s="4">
-        <v>6194</v>
+        <v>6128</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -904,22 +904,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>1745</v>
+        <v>383</v>
       </c>
       <c r="C23" s="4">
-        <v>1778</v>
+        <v>404</v>
       </c>
       <c r="D23" s="4">
-        <v>1926</v>
+        <v>1876</v>
       </c>
       <c r="E23" s="4">
-        <v>1975</v>
+        <v>2057</v>
       </c>
       <c r="F23" s="4">
-        <v>3195</v>
+        <v>2638</v>
       </c>
       <c r="G23" s="4">
-        <v>2442</v>
+        <v>7701</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -958,22 +958,22 @@
         <v>1</v>
       </c>
       <c r="B27" s="4">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="C27" s="4">
-        <v>2835</v>
+        <v>338</v>
       </c>
       <c r="D27" s="4">
+        <v>2057</v>
+      </c>
+      <c r="E27" s="4">
         <v>2114</v>
       </c>
-      <c r="E27" s="4">
-        <v>2180</v>
-      </c>
       <c r="F27" s="4">
-        <v>3654</v>
+        <v>3752</v>
       </c>
       <c r="G27" s="4">
-        <v>6849</v>
+        <v>7308</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -981,19 +981,19 @@
         <v>2</v>
       </c>
       <c r="B28" s="4">
-        <v>652</v>
+        <v>734</v>
       </c>
       <c r="C28" s="4">
-        <v>1991</v>
+        <v>3130</v>
       </c>
       <c r="D28" s="4">
-        <v>2114</v>
+        <v>2507</v>
       </c>
       <c r="E28" s="4">
-        <v>2737</v>
+        <v>3392</v>
       </c>
       <c r="F28" s="4">
-        <v>3752</v>
+        <v>3818</v>
       </c>
       <c r="G28" s="4">
         <v>8094</v>
@@ -1004,22 +1004,22 @@
         <v>3</v>
       </c>
       <c r="B29" s="4">
-        <v>1958</v>
+        <v>396</v>
       </c>
       <c r="C29" s="4">
-        <v>1975</v>
+        <v>433</v>
       </c>
       <c r="D29" s="4">
-        <v>2147</v>
+        <v>2040</v>
       </c>
       <c r="E29" s="4">
-        <v>2245</v>
+        <v>3163</v>
       </c>
       <c r="F29" s="4">
-        <v>4015</v>
+        <v>3851</v>
       </c>
       <c r="G29" s="4">
-        <v>3425</v>
+        <v>11076</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1058,22 +1058,22 @@
         <v>1</v>
       </c>
       <c r="B34" s="3">
-        <v>5577</v>
+        <v>5879</v>
       </c>
       <c r="C34" s="3">
-        <v>42300</v>
+        <v>46100</v>
       </c>
       <c r="D34" s="3">
-        <v>89200</v>
+        <v>99100</v>
       </c>
       <c r="E34" s="3">
-        <v>152000</v>
+        <v>143000</v>
       </c>
       <c r="F34" s="3">
-        <v>58400</v>
+        <v>63300</v>
       </c>
       <c r="G34" s="3">
-        <v>443000</v>
+        <v>436000</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1081,22 +1081,22 @@
         <v>2</v>
       </c>
       <c r="B35" s="3">
-        <v>3712</v>
+        <v>3698</v>
       </c>
       <c r="C35" s="3">
-        <v>32500</v>
+        <v>24600</v>
       </c>
       <c r="D35" s="3">
-        <v>15600</v>
+        <v>51800</v>
       </c>
       <c r="E35" s="3">
-        <v>169000</v>
+        <v>115000</v>
       </c>
       <c r="F35" s="3">
-        <v>229000</v>
+        <v>58200</v>
       </c>
       <c r="G35" s="3">
-        <v>96000</v>
+        <v>269000</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1104,22 +1104,22 @@
         <v>3</v>
       </c>
       <c r="B36" s="3">
-        <v>4206</v>
+        <v>4782</v>
       </c>
       <c r="C36" s="3">
-        <v>41800</v>
+        <v>35500</v>
       </c>
       <c r="D36" s="3">
-        <v>16700</v>
+        <v>98600</v>
       </c>
       <c r="E36" s="3">
-        <v>213000</v>
+        <v>157000</v>
       </c>
       <c r="F36" s="3">
-        <v>251000</v>
+        <v>60300</v>
       </c>
       <c r="G36" s="3">
-        <v>242000</v>
+        <v>278000</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1158,22 +1158,22 @@
         <v>1</v>
       </c>
       <c r="B40" s="4">
-        <v>22.8589568</v>
+        <v>23.068672</v>
       </c>
       <c r="C40" s="4">
-        <v>173.01504</v>
+        <v>188.74368</v>
       </c>
       <c r="D40" s="4">
-        <v>364.904448</v>
+        <v>405.798912</v>
       </c>
       <c r="E40" s="4">
-        <v>621.805568</v>
+        <v>587.2025599999999</v>
       </c>
       <c r="F40" s="4">
-        <v>239.075328</v>
+        <v>258.998272</v>
       </c>
       <c r="G40" s="4">
-        <v>1814.03648</v>
+        <v>1784.676352</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1181,22 +1181,22 @@
         <v>2</v>
       </c>
       <c r="B41" s="4">
-        <v>15.204352</v>
+        <v>15.0994944</v>
       </c>
       <c r="C41" s="4">
-        <v>133.169152</v>
+        <v>100.663296</v>
       </c>
       <c r="D41" s="4">
-        <v>63.75342079999999</v>
+        <v>211.812352</v>
       </c>
       <c r="E41" s="4">
-        <v>691.011584</v>
+        <v>472.907776</v>
       </c>
       <c r="F41" s="4">
-        <v>938.47552</v>
+        <v>238.026752</v>
       </c>
       <c r="G41" s="4">
-        <v>397.410304</v>
+        <v>1103.101952</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1204,22 +1204,22 @@
         <v>3</v>
       </c>
       <c r="B42" s="4">
-        <v>17.1966464</v>
+        <v>19.6083712</v>
       </c>
       <c r="C42" s="4">
-        <v>170.917888</v>
+        <v>145.752064</v>
       </c>
       <c r="D42" s="4">
-        <v>68.4720128</v>
+        <v>403.70176</v>
       </c>
       <c r="E42" s="4">
-        <v>873.463808</v>
+        <v>641.728512</v>
       </c>
       <c r="F42" s="4">
-        <v>1028.653056</v>
+        <v>246.41536</v>
       </c>
       <c r="G42" s="4">
-        <v>990.90432</v>
+        <v>1139.802112</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1258,22 +1258,22 @@
         <v>1</v>
       </c>
       <c r="B46" s="4">
-        <v>178.46883</v>
+        <v>168.87664</v>
       </c>
       <c r="C46" s="4">
-        <v>43.39908</v>
+        <v>42.28108</v>
       </c>
       <c r="D46" s="4">
-        <v>39.54074</v>
+        <v>38.28733</v>
       </c>
       <c r="E46" s="4">
-        <v>40.06665</v>
+        <v>41.92276</v>
       </c>
       <c r="F46" s="4">
-        <v>264.22366</v>
+        <v>243.65374</v>
       </c>
       <c r="G46" s="4">
-        <v>60.344</v>
+        <v>64.05472</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1281,22 +1281,22 @@
         <v>2</v>
       </c>
       <c r="B47" s="4">
-        <v>268.3537</v>
+        <v>269.13898</v>
       </c>
       <c r="C47" s="4">
-        <v>60.66617</v>
+        <v>72.25129</v>
       </c>
       <c r="D47" s="4">
-        <v>255.57467</v>
+        <v>65.063</v>
       </c>
       <c r="E47" s="4">
-        <v>46.59956</v>
+        <v>53.11331</v>
       </c>
       <c r="F47" s="4">
-        <v>56.31281</v>
+        <v>265.2566</v>
       </c>
       <c r="G47" s="4">
-        <v>324.36518</v>
+        <v>111.89795</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1304,22 +1304,22 @@
         <v>3</v>
       </c>
       <c r="B48" s="4">
-        <v>236.7403</v>
+        <v>207.89832</v>
       </c>
       <c r="C48" s="4">
-        <v>47.07708</v>
+        <v>55.03463</v>
       </c>
       <c r="D48" s="4">
-        <v>238.33798</v>
+        <v>39.57362000000001</v>
       </c>
       <c r="E48" s="4">
-        <v>35.49738</v>
+        <v>39.81417</v>
       </c>
       <c r="F48" s="4">
-        <v>49.52993</v>
+        <v>255.95412</v>
       </c>
       <c r="G48" s="4">
-        <v>87.97478</v>
+        <v>84.10915</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1361,19 +1361,19 @@
         <v>1400.832</v>
       </c>
       <c r="C52" s="4">
-        <v>88.57600000000001</v>
+        <v>71.16800000000001</v>
       </c>
       <c r="D52" s="4">
-        <v>79.36</v>
+        <v>71.16800000000001</v>
       </c>
       <c r="E52" s="4">
-        <v>87.55200000000001</v>
+        <v>90.624</v>
       </c>
       <c r="F52" s="4">
         <v>1499.136</v>
       </c>
       <c r="G52" s="4">
-        <v>154.624</v>
+        <v>179.2</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1381,22 +1381,22 @@
         <v>2</v>
       </c>
       <c r="B53" s="4">
-        <v>1614</v>
+        <v>1613.824</v>
       </c>
       <c r="C53" s="4">
-        <v>117.248</v>
+        <v>146.432</v>
       </c>
       <c r="D53" s="4">
-        <v>1482.752</v>
+        <v>138.24</v>
       </c>
       <c r="E53" s="4">
-        <v>102.912</v>
+        <v>122.368</v>
       </c>
       <c r="F53" s="4">
-        <v>148.48</v>
+        <v>1564.672</v>
       </c>
       <c r="G53" s="4">
-        <v>1859.584</v>
+        <v>325.632</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1407,19 +1407,19 @@
         <v>1449.984</v>
       </c>
       <c r="C54" s="4">
-        <v>95.744</v>
+        <v>102.912</v>
       </c>
       <c r="D54" s="4">
-        <v>1466.368</v>
+        <v>91.648</v>
       </c>
       <c r="E54" s="4">
-        <v>93.696</v>
+        <v>100.864</v>
       </c>
       <c r="F54" s="4">
-        <v>175.104</v>
+        <v>1548.288</v>
       </c>
       <c r="G54" s="4">
-        <v>489.472</v>
+        <v>432.128</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1458,22 +1458,22 @@
         <v>1</v>
       </c>
       <c r="B58" s="4">
-        <v>1515.52</v>
+        <v>1548.288</v>
       </c>
       <c r="C58" s="4">
-        <v>100.864</v>
+        <v>77.312</v>
       </c>
       <c r="D58" s="4">
-        <v>96.768</v>
+        <v>82.432</v>
       </c>
       <c r="E58" s="4">
-        <v>108.032</v>
+        <v>110.08</v>
       </c>
       <c r="F58" s="4">
-        <v>1761.28</v>
+        <v>1744.896</v>
       </c>
       <c r="G58" s="4">
-        <v>216.064</v>
+        <v>259.072</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1481,22 +1481,22 @@
         <v>2</v>
       </c>
       <c r="B59" s="4">
-        <v>1745</v>
+        <v>1777.664</v>
       </c>
       <c r="C59" s="4">
-        <v>144.384</v>
+        <v>197.632</v>
       </c>
       <c r="D59" s="4">
-        <v>1613.824</v>
+        <v>175.104</v>
       </c>
       <c r="E59" s="4">
-        <v>134.144</v>
+        <v>166.912</v>
       </c>
       <c r="F59" s="4">
-        <v>209.92</v>
+        <v>1761.28</v>
       </c>
       <c r="G59" s="4">
-        <v>3555.328</v>
+        <v>481.28</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1504,22 +1504,22 @@
         <v>3</v>
       </c>
       <c r="B60" s="4">
-        <v>1581.056</v>
+        <v>1564.672</v>
       </c>
       <c r="C60" s="4">
-        <v>122.368</v>
+        <v>130.56</v>
       </c>
       <c r="D60" s="4">
-        <v>1613.824</v>
+        <v>113.152</v>
       </c>
       <c r="E60" s="4">
-        <v>125.44</v>
+        <v>148.48</v>
       </c>
       <c r="F60" s="4">
-        <v>234.496</v>
+        <v>1859.584</v>
       </c>
       <c r="G60" s="4">
-        <v>700.4160000000001</v>
+        <v>626.688</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1558,22 +1558,22 @@
         <v>1</v>
       </c>
       <c r="B65" s="3">
-        <v>8000</v>
+        <v>9225</v>
       </c>
       <c r="C65" s="3">
-        <v>14800</v>
+        <v>16000</v>
       </c>
       <c r="D65" s="3">
-        <v>16300</v>
+        <v>16800</v>
       </c>
       <c r="E65" s="3">
-        <v>19600</v>
+        <v>19100</v>
       </c>
       <c r="F65" s="3">
-        <v>21900</v>
+        <v>20700</v>
       </c>
       <c r="G65" s="3">
-        <v>21300</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1581,22 +1581,22 @@
         <v>2</v>
       </c>
       <c r="B66" s="3">
-        <v>2370</v>
+        <v>2290</v>
       </c>
       <c r="C66" s="3">
-        <v>4432</v>
+        <v>4511</v>
       </c>
       <c r="D66" s="3">
-        <v>10100</v>
+        <v>9660</v>
       </c>
       <c r="E66" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F66" s="3">
         <v>16400</v>
       </c>
-      <c r="F66" s="3">
-        <v>16100</v>
-      </c>
       <c r="G66" s="3">
-        <v>17500</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1604,22 +1604,22 @@
         <v>3</v>
       </c>
       <c r="B67" s="3">
-        <v>6564</v>
+        <v>6360</v>
       </c>
       <c r="C67" s="3">
-        <v>10800</v>
+        <v>9846</v>
       </c>
       <c r="D67" s="3">
-        <v>14300</v>
+        <v>14600</v>
       </c>
       <c r="E67" s="3">
-        <v>18200</v>
+        <v>19500</v>
       </c>
       <c r="F67" s="3">
-        <v>19300</v>
+        <v>17200</v>
       </c>
       <c r="G67" s="3">
-        <v>13400</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1658,22 +1658,22 @@
         <v>1</v>
       </c>
       <c r="B71" s="4">
-        <v>1048.576</v>
+        <v>1209.008128</v>
       </c>
       <c r="C71" s="4">
-        <v>1945.10848</v>
+        <v>2097.152</v>
       </c>
       <c r="D71" s="4">
-        <v>2139.09504</v>
+        <v>2199.912448</v>
       </c>
       <c r="E71" s="4">
-        <v>2575.302656</v>
+        <v>2502.950912</v>
       </c>
       <c r="F71" s="4">
-        <v>2875.195392</v>
+        <v>2708.471808</v>
       </c>
       <c r="G71" s="4">
-        <v>2797.600768</v>
+        <v>2681.208832</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -1681,22 +1681,22 @@
         <v>2</v>
       </c>
       <c r="B72" s="4">
-        <v>310.378496</v>
+        <v>299.892736</v>
       </c>
       <c r="C72" s="4">
-        <v>580.911104</v>
+        <v>591.3968640000001</v>
       </c>
       <c r="D72" s="4">
-        <v>1319.108608</v>
+        <v>1266.679808</v>
       </c>
       <c r="E72" s="4">
-        <v>2155.872256</v>
+        <v>1854.930944</v>
       </c>
       <c r="F72" s="4">
-        <v>2111.832064</v>
+        <v>2151.677952</v>
       </c>
       <c r="G72" s="4">
-        <v>2287.992832</v>
+        <v>2421.161984</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -1704,22 +1704,22 @@
         <v>3</v>
       </c>
       <c r="B73" s="4">
-        <v>860.880896</v>
+        <v>833.61792</v>
       </c>
       <c r="C73" s="4">
-        <v>1412.431872</v>
+        <v>1290.797056</v>
       </c>
       <c r="D73" s="4">
-        <v>1876.95104</v>
+        <v>1917.845504</v>
       </c>
       <c r="E73" s="4">
-        <v>2386.558976</v>
+        <v>2550.136832</v>
       </c>
       <c r="F73" s="4">
-        <v>2532.31104</v>
+        <v>2251.292672</v>
       </c>
       <c r="G73" s="4">
-        <v>1750.073344</v>
+        <v>1835.008</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -1758,22 +1758,22 @@
         <v>1</v>
       </c>
       <c r="B77" s="4">
-        <v>57.41</v>
+        <v>52.88</v>
       </c>
       <c r="C77" s="4">
-        <v>41.96</v>
+        <v>33.66</v>
       </c>
       <c r="D77" s="4">
-        <v>50.82</v>
+        <v>38.03</v>
       </c>
       <c r="E77" s="4">
-        <v>56.99</v>
+        <v>64</v>
       </c>
       <c r="F77" s="4">
-        <v>82.56999999999999</v>
+        <v>89.31</v>
       </c>
       <c r="G77" s="4">
-        <v>144.45</v>
+        <v>144.88</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -1781,22 +1781,22 @@
         <v>2</v>
       </c>
       <c r="B78" s="4">
-        <v>355.09</v>
+        <v>370.62</v>
       </c>
       <c r="C78" s="4">
-        <v>333.14</v>
+        <v>329.29</v>
       </c>
       <c r="D78" s="4">
-        <v>200.14</v>
+        <v>229.63</v>
       </c>
       <c r="E78" s="4">
-        <v>148.03</v>
+        <v>147.46</v>
       </c>
       <c r="F78" s="4">
-        <v>221.63</v>
+        <v>232.4</v>
       </c>
       <c r="G78" s="4">
-        <v>386.55</v>
+        <v>353.7</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -1804,22 +1804,22 @@
         <v>3</v>
       </c>
       <c r="B79" s="4">
-        <v>71.53</v>
+        <v>77.03</v>
       </c>
       <c r="C79" s="4">
-        <v>77.06999999999999</v>
+        <v>85.53</v>
       </c>
       <c r="D79" s="4">
-        <v>84.09</v>
+        <v>102.28</v>
       </c>
       <c r="E79" s="4">
-        <v>125.88</v>
+        <v>128.51</v>
       </c>
       <c r="F79" s="4">
-        <v>204.09</v>
+        <v>180.28</v>
       </c>
       <c r="G79" s="4">
-        <v>1283.98</v>
+        <v>1152.47</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -1858,22 +1858,22 @@
         <v>1</v>
       </c>
       <c r="B83" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C83" s="4">
+        <v>33</v>
+      </c>
+      <c r="D83" s="4">
+        <v>70</v>
+      </c>
+      <c r="E83" s="4">
+        <v>149</v>
+      </c>
+      <c r="F83" s="4">
         <v>133</v>
       </c>
-      <c r="D83" s="4">
-        <v>137</v>
-      </c>
-      <c r="E83" s="4">
-        <v>133</v>
-      </c>
-      <c r="F83" s="4">
-        <v>137</v>
-      </c>
       <c r="G83" s="4">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -1884,19 +1884,19 @@
         <v>461</v>
       </c>
       <c r="C84" s="4">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D84" s="4">
         <v>379</v>
       </c>
       <c r="E84" s="4">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="F84" s="4">
         <v>465</v>
       </c>
       <c r="G84" s="4">
-        <v>635</v>
+        <v>486</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -1904,22 +1904,22 @@
         <v>3</v>
       </c>
       <c r="B85" s="4">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C85" s="4">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D85" s="4">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="E85" s="4">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="F85" s="4">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G85" s="4">
-        <v>4752</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -1958,22 +1958,22 @@
         <v>1</v>
       </c>
       <c r="B89" s="4">
-        <v>1303</v>
+        <v>922</v>
       </c>
       <c r="C89" s="4">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D89" s="4">
-        <v>963</v>
+        <v>196</v>
       </c>
       <c r="E89" s="4">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="F89" s="4">
-        <v>306</v>
+        <v>388</v>
       </c>
       <c r="G89" s="4">
-        <v>1004</v>
+        <v>971</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -1981,22 +1981,22 @@
         <v>2</v>
       </c>
       <c r="B90" s="4">
-        <v>644</v>
+        <v>553</v>
       </c>
       <c r="C90" s="4">
-        <v>1020</v>
+        <v>996</v>
       </c>
       <c r="D90" s="4">
-        <v>1205</v>
+        <v>619</v>
       </c>
       <c r="E90" s="4">
-        <v>742</v>
+        <v>824</v>
       </c>
       <c r="F90" s="4">
-        <v>996</v>
+        <v>1037</v>
       </c>
       <c r="G90" s="4">
-        <v>1287</v>
+        <v>963</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2004,22 +2004,22 @@
         <v>3</v>
       </c>
       <c r="B91" s="4">
-        <v>379</v>
+        <v>217</v>
       </c>
       <c r="C91" s="4">
-        <v>253</v>
+        <v>1303</v>
       </c>
       <c r="D91" s="4">
-        <v>523</v>
+        <v>1029</v>
       </c>
       <c r="E91" s="4">
-        <v>1418</v>
+        <v>1336</v>
       </c>
       <c r="F91" s="4">
-        <v>2212</v>
+        <v>2147</v>
       </c>
       <c r="G91" s="4">
-        <v>12649</v>
+        <v>11207</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2058,22 +2058,22 @@
         <v>1</v>
       </c>
       <c r="B96" s="3">
-        <v>301000</v>
+        <v>328000</v>
       </c>
       <c r="C96" s="3">
-        <v>452000</v>
+        <v>415000</v>
       </c>
       <c r="D96" s="3">
-        <v>514000</v>
+        <v>537000</v>
       </c>
       <c r="E96" s="3">
-        <v>557000</v>
+        <v>586000</v>
       </c>
       <c r="F96" s="3">
-        <v>593000</v>
+        <v>558000</v>
       </c>
       <c r="G96" s="3">
-        <v>654000</v>
+        <v>675000</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2081,22 +2081,22 @@
         <v>2</v>
       </c>
       <c r="B97" s="3">
-        <v>53000</v>
+        <v>42300</v>
       </c>
       <c r="C97" s="3">
-        <v>153000</v>
+        <v>131000</v>
       </c>
       <c r="D97" s="3">
-        <v>260000</v>
+        <v>210000</v>
       </c>
       <c r="E97" s="3">
-        <v>326000</v>
+        <v>303000</v>
       </c>
       <c r="F97" s="3">
-        <v>360000</v>
+        <v>363000</v>
       </c>
       <c r="G97" s="3">
-        <v>416000</v>
+        <v>421000</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2104,22 +2104,22 @@
         <v>3</v>
       </c>
       <c r="B98" s="3">
-        <v>113000</v>
+        <v>122000</v>
       </c>
       <c r="C98" s="3">
-        <v>177000</v>
+        <v>165000</v>
       </c>
       <c r="D98" s="3">
-        <v>311000</v>
+        <v>260000</v>
       </c>
       <c r="E98" s="3">
-        <v>427000</v>
+        <v>392000</v>
       </c>
       <c r="F98" s="3">
-        <v>398000</v>
+        <v>373000</v>
       </c>
       <c r="G98" s="3">
-        <v>204000</v>
+        <v>251000</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2158,22 +2158,22 @@
         <v>1</v>
       </c>
       <c r="B102" s="4">
-        <v>1231.028224</v>
+        <v>1342.17728</v>
       </c>
       <c r="C102" s="4">
-        <v>1851.785216</v>
+        <v>1698.69312</v>
       </c>
       <c r="D102" s="4">
-        <v>2105.540608</v>
+        <v>2199.912448</v>
       </c>
       <c r="E102" s="4">
-        <v>2279.604224</v>
+        <v>2402.287616</v>
       </c>
       <c r="F102" s="4">
-        <v>2429.550592</v>
+        <v>2284.847104</v>
       </c>
       <c r="G102" s="4">
-        <v>2678.063104</v>
+        <v>2765.094912</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2181,22 +2181,22 @@
         <v>2</v>
       </c>
       <c r="B103" s="4">
-        <v>217.055232</v>
+        <v>173.01504</v>
       </c>
       <c r="C103" s="4">
-        <v>625.999872</v>
+        <v>534.77376</v>
       </c>
       <c r="D103" s="4">
-        <v>1065.353216</v>
+        <v>861.929472</v>
       </c>
       <c r="E103" s="4">
-        <v>1335.885824</v>
+        <v>1241.513984</v>
       </c>
       <c r="F103" s="4">
-        <v>1475.346432</v>
+        <v>1487.929344</v>
       </c>
       <c r="G103" s="4">
-        <v>1703.936</v>
+        <v>1723.858944</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2204,22 +2204,22 @@
         <v>3</v>
       </c>
       <c r="B104" s="4">
-        <v>462.422016</v>
+        <v>499.122176</v>
       </c>
       <c r="C104" s="4">
-        <v>725.614592</v>
+        <v>677.380096</v>
       </c>
       <c r="D104" s="4">
-        <v>1275.068416</v>
+        <v>1063.256064</v>
       </c>
       <c r="E104" s="4">
-        <v>1749.024768</v>
+        <v>1607.467008</v>
       </c>
       <c r="F104" s="4">
-        <v>1631.584256</v>
+        <v>1527.775232</v>
       </c>
       <c r="G104" s="4">
-        <v>836.763648</v>
+        <v>1028.653056</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2258,22 +2258,22 @@
         <v>1</v>
       </c>
       <c r="B108" s="4">
-        <v>1.11595</v>
+        <v>1.10329</v>
       </c>
       <c r="C108" s="4">
-        <v>1.18328</v>
+        <v>1.19733</v>
       </c>
       <c r="D108" s="4">
-        <v>1.28574</v>
+        <v>1.3056</v>
       </c>
       <c r="E108" s="4">
-        <v>1.65655</v>
+        <v>1.68041</v>
       </c>
       <c r="F108" s="4">
-        <v>2.63908</v>
+        <v>2.76503</v>
       </c>
       <c r="G108" s="4">
-        <v>4.28205</v>
+        <v>4.58971</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2281,33 +2281,39 @@
         <v>2</v>
       </c>
       <c r="B109" s="4">
-        <v>16.75</v>
-      </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
+        <v>21.2</v>
+      </c>
+      <c r="C109" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="D109" s="4">
+        <v>12.12</v>
+      </c>
       <c r="E109" s="4">
-        <v>12.56</v>
+        <v>12.8</v>
       </c>
       <c r="F109" s="4">
-        <v>19.43</v>
+        <v>19.77</v>
       </c>
       <c r="G109" s="4">
-        <v>28.82</v>
+        <v>28.64</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B110" s="4"/>
+      <c r="B110" s="4">
+        <v>5.457020000000001</v>
+      </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4">
-        <v>14.84</v>
+        <v>15.41</v>
       </c>
       <c r="G110" s="4">
-        <v>101.44</v>
+        <v>83.54000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2346,22 +2352,22 @@
         <v>1</v>
       </c>
       <c r="B114" s="4">
-        <v>1.704</v>
+        <v>1.688</v>
       </c>
       <c r="C114" s="4">
-        <v>1.864</v>
+        <v>1.88</v>
       </c>
       <c r="D114" s="4">
-        <v>2.024</v>
+        <v>1.976</v>
       </c>
       <c r="E114" s="4">
-        <v>2.736</v>
+        <v>2.928</v>
       </c>
       <c r="F114" s="4">
-        <v>4.576000000000001</v>
+        <v>4.832</v>
       </c>
       <c r="G114" s="4">
-        <v>6.432</v>
+        <v>6.496</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -2369,22 +2375,22 @@
         <v>2</v>
       </c>
       <c r="B115" s="4">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C115" s="4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D115" s="4">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E115" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F115" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G115" s="4">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -2392,22 +2398,22 @@
         <v>3</v>
       </c>
       <c r="B116" s="4">
-        <v>8</v>
+        <v>6.496</v>
       </c>
       <c r="C116" s="4">
         <v>10</v>
       </c>
       <c r="D116" s="4">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E116" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" s="4">
         <v>18</v>
       </c>
       <c r="G116" s="4">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -2449,16 +2455,16 @@
         <v>6.368</v>
       </c>
       <c r="C120" s="4">
-        <v>6.56</v>
+        <v>6.688</v>
       </c>
       <c r="D120" s="4">
-        <v>6.624000000000001</v>
+        <v>6.432</v>
       </c>
       <c r="E120" s="4">
-        <v>6.944</v>
+        <v>7.072</v>
       </c>
       <c r="F120" s="4">
-        <v>9.407999999999999</v>
+        <v>9.92</v>
       </c>
       <c r="G120" s="4">
         <v>10.944</v>
@@ -2469,22 +2475,22 @@
         <v>2</v>
       </c>
       <c r="B121" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C121" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D121" s="4">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E121" s="4">
         <v>58</v>
       </c>
       <c r="F121" s="4">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G121" s="4">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -2492,22 +2498,22 @@
         <v>3</v>
       </c>
       <c r="B122" s="4">
-        <v>18</v>
+        <v>14.4</v>
       </c>
       <c r="C122" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D122" s="4">
         <v>21</v>
       </c>
       <c r="E122" s="4">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F122" s="4">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G122" s="4">
-        <v>865</v>
+        <v>742</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -2546,22 +2552,22 @@
         <v>1</v>
       </c>
       <c r="B127" s="3">
-        <v>14800</v>
+        <v>17700</v>
       </c>
       <c r="C127" s="3">
-        <v>21100</v>
+        <v>32000</v>
       </c>
       <c r="D127" s="3">
-        <v>8551</v>
+        <v>25900</v>
       </c>
       <c r="E127" s="3">
-        <v>10300</v>
+        <v>8677</v>
       </c>
       <c r="F127" s="3">
-        <v>8641</v>
+        <v>8155</v>
       </c>
       <c r="G127" s="3">
-        <v>8661</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -2569,22 +2575,22 @@
         <v>2</v>
       </c>
       <c r="B128" s="3">
-        <v>8982</v>
+        <v>10700</v>
       </c>
       <c r="C128" s="3">
-        <v>17400</v>
+        <v>4394</v>
       </c>
       <c r="D128" s="3">
-        <v>26400</v>
+        <v>7098</v>
       </c>
       <c r="E128" s="3">
-        <v>8062</v>
+        <v>7160</v>
       </c>
       <c r="F128" s="3">
-        <v>8520</v>
+        <v>7560</v>
       </c>
       <c r="G128" s="3">
-        <v>8489</v>
+        <v>8114</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -2592,22 +2598,22 @@
         <v>3</v>
       </c>
       <c r="B129" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="C129" s="3">
-        <v>4129</v>
+        <v>21100</v>
       </c>
       <c r="D129" s="3">
-        <v>5688</v>
+        <v>6390</v>
       </c>
       <c r="E129" s="3">
-        <v>7460</v>
+        <v>7620</v>
       </c>
       <c r="F129" s="3">
-        <v>7968</v>
+        <v>7772</v>
       </c>
       <c r="G129" s="3">
-        <v>8289</v>
+        <v>8255</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -2646,22 +2652,22 @@
         <v>1</v>
       </c>
       <c r="B133" s="4">
-        <v>1945.10848</v>
+        <v>2314.207232</v>
       </c>
       <c r="C133" s="4">
-        <v>2767.192064</v>
+        <v>4194.304</v>
       </c>
       <c r="D133" s="4">
-        <v>1120.927744</v>
+        <v>3398.434816</v>
       </c>
       <c r="E133" s="4">
-        <v>1352.66304</v>
+        <v>1137.70496</v>
       </c>
       <c r="F133" s="4">
-        <v>1132.46208</v>
+        <v>1068.498944</v>
       </c>
       <c r="G133" s="4">
-        <v>1135.607808</v>
+        <v>1364.197376</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -2669,22 +2675,22 @@
         <v>2</v>
       </c>
       <c r="B134" s="4">
-        <v>1177.550848</v>
+        <v>1397.751808</v>
       </c>
       <c r="C134" s="4">
-        <v>2274.361344</v>
+        <v>575.668224</v>
       </c>
       <c r="D134" s="4">
-        <v>3463.446528</v>
+        <v>930.086912</v>
       </c>
       <c r="E134" s="4">
-        <v>1056.964608</v>
+        <v>938.47552</v>
       </c>
       <c r="F134" s="4">
-        <v>1116.73344</v>
+        <v>990.90432</v>
       </c>
       <c r="G134" s="4">
-        <v>1112.539136</v>
+        <v>1063.256064</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -2692,22 +2698,22 @@
         <v>3</v>
       </c>
       <c r="B135" s="4">
-        <v>1475.346432</v>
+        <v>1542.455296</v>
       </c>
       <c r="C135" s="4">
-        <v>541.065216</v>
+        <v>2767.192064</v>
       </c>
       <c r="D135" s="4">
-        <v>745.537536</v>
+        <v>837.812224</v>
       </c>
       <c r="E135" s="4">
-        <v>978.321408</v>
+        <v>999.292928</v>
       </c>
       <c r="F135" s="4">
-        <v>1044.381696</v>
+        <v>1019.215872</v>
       </c>
       <c r="G135" s="4">
-        <v>1086.324736</v>
+        <v>1082.130432</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -2746,22 +2752,22 @@
         <v>1</v>
       </c>
       <c r="B139" s="4">
-        <v>66.34</v>
+        <v>55.6</v>
       </c>
       <c r="C139" s="4">
-        <v>93.73999999999999</v>
+        <v>60.78</v>
       </c>
       <c r="D139" s="4">
-        <v>462.41</v>
+        <v>153.15</v>
       </c>
       <c r="E139" s="4">
-        <v>754.8200000000001</v>
+        <v>902.46</v>
       </c>
       <c r="F139" s="4">
-        <v>1841.76</v>
+        <v>1950.27</v>
       </c>
       <c r="G139" s="4">
-        <v>3679.16</v>
+        <v>3063.62</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -2769,22 +2775,22 @@
         <v>2</v>
       </c>
       <c r="B140" s="4">
-        <v>109.9</v>
+        <v>92.47</v>
       </c>
       <c r="C140" s="4">
-        <v>113.1</v>
+        <v>412.15</v>
       </c>
       <c r="D140" s="4">
-        <v>142.22</v>
+        <v>548.05</v>
       </c>
       <c r="E140" s="4">
-        <v>904.84</v>
+        <v>1018.02</v>
       </c>
       <c r="F140" s="4">
-        <v>1807.13</v>
+        <v>1984.3</v>
       </c>
       <c r="G140" s="4">
-        <v>3652.12</v>
+        <v>3733.28</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -2792,22 +2798,22 @@
         <v>3</v>
       </c>
       <c r="B141" s="4">
-        <v>80.86</v>
+        <v>77.27</v>
       </c>
       <c r="C141" s="4">
-        <v>409.01</v>
+        <v>81.69</v>
       </c>
       <c r="D141" s="4">
-        <v>625.5599999999999</v>
+        <v>595.9299999999999</v>
       </c>
       <c r="E141" s="4">
-        <v>891.9</v>
+        <v>868.2</v>
       </c>
       <c r="F141" s="4">
-        <v>1563.77</v>
+        <v>1647.09</v>
       </c>
       <c r="G141" s="4">
-        <v>2983.25</v>
+        <v>3033.47</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -2846,22 +2852,22 @@
         <v>1</v>
       </c>
       <c r="B145" s="4">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="C145" s="4">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D145" s="4">
-        <v>1713</v>
+        <v>383</v>
       </c>
       <c r="E145" s="4">
-        <v>2573</v>
+        <v>3261</v>
       </c>
       <c r="F145" s="4">
-        <v>7308</v>
+        <v>7701</v>
       </c>
       <c r="G145" s="4">
-        <v>14484</v>
+        <v>13829</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -2869,22 +2875,22 @@
         <v>2</v>
       </c>
       <c r="B146" s="4">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="C146" s="4">
-        <v>379</v>
+        <v>1827</v>
       </c>
       <c r="D146" s="4">
-        <v>424</v>
+        <v>1762</v>
       </c>
       <c r="E146" s="4">
-        <v>2606</v>
+        <v>2999</v>
       </c>
       <c r="F146" s="4">
-        <v>4883</v>
+        <v>5407</v>
       </c>
       <c r="G146" s="4">
-        <v>9634</v>
+        <v>10159</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -2892,22 +2898,22 @@
         <v>3</v>
       </c>
       <c r="B147" s="4">
+        <v>251</v>
+      </c>
+      <c r="C147" s="4">
         <v>273</v>
       </c>
-      <c r="C147" s="4">
-        <v>1811</v>
-      </c>
       <c r="D147" s="4">
-        <v>1909</v>
+        <v>1926</v>
       </c>
       <c r="E147" s="4">
         <v>3195</v>
       </c>
       <c r="F147" s="4">
-        <v>5735</v>
+        <v>5669</v>
       </c>
       <c r="G147" s="4">
-        <v>13435</v>
+        <v>15664</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -2946,22 +2952,22 @@
         <v>1</v>
       </c>
       <c r="B151" s="4">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c r="C151" s="4">
-        <v>302</v>
+        <v>206</v>
       </c>
       <c r="D151" s="4">
-        <v>1975</v>
+        <v>469</v>
       </c>
       <c r="E151" s="4">
-        <v>3785</v>
+        <v>4555</v>
       </c>
       <c r="F151" s="4">
-        <v>8848</v>
+        <v>9634</v>
       </c>
       <c r="G151" s="4">
-        <v>16712</v>
+        <v>16188</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -2969,22 +2975,22 @@
         <v>2</v>
       </c>
       <c r="B152" s="4">
-        <v>424</v>
+        <v>379</v>
       </c>
       <c r="C152" s="4">
-        <v>510</v>
+        <v>2999</v>
       </c>
       <c r="D152" s="4">
-        <v>523</v>
+        <v>2024</v>
       </c>
       <c r="E152" s="4">
-        <v>3752</v>
+        <v>4146</v>
       </c>
       <c r="F152" s="4">
-        <v>5735</v>
+        <v>6849</v>
       </c>
       <c r="G152" s="4">
-        <v>12780</v>
+        <v>13173</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -2992,22 +2998,22 @@
         <v>3</v>
       </c>
       <c r="B153" s="4">
-        <v>424</v>
+        <v>562</v>
       </c>
       <c r="C153" s="4">
-        <v>3064</v>
+        <v>453</v>
       </c>
       <c r="D153" s="4">
-        <v>2278</v>
+        <v>2343</v>
       </c>
       <c r="E153" s="4">
-        <v>7439</v>
+        <v>4948</v>
       </c>
       <c r="F153" s="4">
-        <v>11863</v>
+        <v>15533</v>
       </c>
       <c r="G153" s="4">
-        <v>35914</v>
+        <v>28443</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3046,22 +3052,22 @@
         <v>1</v>
       </c>
       <c r="B158" s="3">
-        <v>119000</v>
+        <v>155000</v>
       </c>
       <c r="C158" s="3">
-        <v>171000</v>
+        <v>169000</v>
       </c>
       <c r="D158" s="3">
-        <v>261000</v>
+        <v>263000</v>
       </c>
       <c r="E158" s="3">
-        <v>319000</v>
+        <v>277000</v>
       </c>
       <c r="F158" s="3">
-        <v>336000</v>
+        <v>249000</v>
       </c>
       <c r="G158" s="3">
-        <v>1015000</v>
+        <v>562000</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -3069,22 +3075,22 @@
         <v>2</v>
       </c>
       <c r="B159" s="3">
-        <v>118000</v>
+        <v>131000</v>
       </c>
       <c r="C159" s="3">
-        <v>154000</v>
+        <v>158000</v>
       </c>
       <c r="D159" s="3">
-        <v>216000</v>
+        <v>207000</v>
       </c>
       <c r="E159" s="3">
-        <v>276000</v>
+        <v>246000</v>
       </c>
       <c r="F159" s="3">
-        <v>267000</v>
+        <v>246000</v>
       </c>
       <c r="G159" s="3">
-        <v>283000</v>
+        <v>246000</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -3092,22 +3098,22 @@
         <v>3</v>
       </c>
       <c r="B160" s="3">
-        <v>104000</v>
+        <v>144000</v>
       </c>
       <c r="C160" s="3">
-        <v>133000</v>
+        <v>155000</v>
       </c>
       <c r="D160" s="3">
-        <v>199000</v>
+        <v>215000</v>
       </c>
       <c r="E160" s="3">
-        <v>209000</v>
+        <v>301000</v>
       </c>
       <c r="F160" s="3">
-        <v>268000</v>
+        <v>267000</v>
       </c>
       <c r="G160" s="3">
-        <v>358000</v>
+        <v>332000</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -3146,22 +3152,22 @@
         <v>1</v>
       </c>
       <c r="B164" s="4">
-        <v>486.539264</v>
+        <v>636.485632</v>
       </c>
       <c r="C164" s="4">
-        <v>699.4001919999999</v>
+        <v>692.06016</v>
       </c>
       <c r="D164" s="4">
-        <v>1069.54752</v>
+        <v>1077.936128</v>
       </c>
       <c r="E164" s="4">
-        <v>1306.525696</v>
+        <v>1133.510656</v>
       </c>
       <c r="F164" s="4">
-        <v>1377.828864</v>
+        <v>1019.215872</v>
       </c>
       <c r="G164" s="4">
-        <v>4157.60384</v>
+        <v>2301.62432</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -3169,22 +3175,22 @@
         <v>2</v>
       </c>
       <c r="B165" s="4">
-        <v>484.442112</v>
+        <v>534.77376</v>
       </c>
       <c r="C165" s="4">
-        <v>630.194176</v>
+        <v>644.87424</v>
       </c>
       <c r="D165" s="4">
-        <v>883.949568</v>
+        <v>848.297984</v>
       </c>
       <c r="E165" s="4">
-        <v>1129.316352</v>
+        <v>1006.63296</v>
       </c>
       <c r="F165" s="4">
-        <v>1092.616192</v>
+        <v>1009.778688</v>
       </c>
       <c r="G165" s="4">
-        <v>1157.627904</v>
+        <v>1005.584384</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -3192,22 +3198,22 @@
         <v>3</v>
       </c>
       <c r="B166" s="4">
-        <v>427.819008</v>
+        <v>588.251136</v>
       </c>
       <c r="C166" s="4">
-        <v>545.25952</v>
+        <v>636.485632</v>
       </c>
       <c r="D166" s="4">
-        <v>813.694976</v>
+        <v>879.755264</v>
       </c>
       <c r="E166" s="4">
-        <v>854.58944</v>
+        <v>1231.028224</v>
       </c>
       <c r="F166" s="4">
-        <v>1098.907648</v>
+        <v>1092.616192</v>
       </c>
       <c r="G166" s="4">
-        <v>1466.957824</v>
+        <v>1360.003072</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -3246,22 +3252,22 @@
         <v>1</v>
       </c>
       <c r="B170" s="4">
-        <v>7.912560000000001</v>
+        <v>6.02574</v>
       </c>
       <c r="C170" s="4">
-        <v>9.878620000000002</v>
+        <v>9.709899999999999</v>
       </c>
       <c r="D170" s="4">
-        <v>14.48083</v>
+        <v>14.51409</v>
       </c>
       <c r="E170" s="4">
-        <v>23.96495</v>
+        <v>27.85442</v>
       </c>
       <c r="F170" s="4">
-        <v>46.78743</v>
+        <v>63.31621</v>
       </c>
       <c r="G170" s="4">
-        <v>30.96286</v>
+        <v>56.08361</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -3269,22 +3275,22 @@
         <v>2</v>
       </c>
       <c r="B171" s="4">
-        <v>7.88936</v>
+        <v>7.14975</v>
       </c>
       <c r="C171" s="4">
-        <v>10.4049</v>
+        <v>10.04875</v>
       </c>
       <c r="D171" s="4">
-        <v>17.19253</v>
+        <v>17.99282</v>
       </c>
       <c r="E171" s="4">
-        <v>26.61091</v>
+        <v>29.62835</v>
       </c>
       <c r="F171" s="4">
-        <v>56.72495</v>
+        <v>60.65716</v>
       </c>
       <c r="G171" s="4">
-        <v>110.80025</v>
+        <v>124.11287</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -3292,22 +3298,22 @@
         <v>3</v>
       </c>
       <c r="B172" s="4">
-        <v>8.87734</v>
+        <v>6.44061</v>
       </c>
       <c r="C172" s="4">
-        <v>11.49356</v>
+        <v>10.20723</v>
       </c>
       <c r="D172" s="4">
-        <v>18.71468</v>
+        <v>16.9717</v>
       </c>
       <c r="E172" s="4">
-        <v>28.85582</v>
+        <v>24.61053</v>
       </c>
       <c r="F172" s="4">
-        <v>50.52084</v>
+        <v>47.83172</v>
       </c>
       <c r="G172" s="4">
-        <v>81.0972</v>
+        <v>88.0149</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -3346,22 +3352,22 @@
         <v>1</v>
       </c>
       <c r="B176" s="4">
-        <v>1.784</v>
+        <v>1.688</v>
       </c>
       <c r="C176" s="4">
         <v>1.832</v>
       </c>
       <c r="D176" s="4">
-        <v>2.064</v>
+        <v>2.008</v>
       </c>
       <c r="E176" s="4">
-        <v>2.096</v>
+        <v>2.288</v>
       </c>
       <c r="F176" s="4">
         <v>2.8</v>
       </c>
       <c r="G176" s="4">
-        <v>2.352</v>
+        <v>2.768</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -3369,22 +3375,22 @@
         <v>2</v>
       </c>
       <c r="B177" s="4">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="C177" s="4">
-        <v>2.64</v>
+        <v>2.224</v>
       </c>
       <c r="D177" s="4">
-        <v>2.928</v>
+        <v>2.768</v>
       </c>
       <c r="E177" s="4">
-        <v>2.96</v>
+        <v>3.056</v>
       </c>
       <c r="F177" s="4">
-        <v>3.056</v>
+        <v>2.992</v>
       </c>
       <c r="G177" s="4">
-        <v>3.056</v>
+        <v>2.992</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -3392,19 +3398,19 @@
         <v>3</v>
       </c>
       <c r="B178" s="4">
-        <v>2.672</v>
+        <v>1.912</v>
       </c>
       <c r="C178" s="4">
-        <v>2.448</v>
+        <v>2.224</v>
       </c>
       <c r="D178" s="4">
-        <v>2.384</v>
+        <v>2.8</v>
       </c>
       <c r="E178" s="4">
-        <v>2.928</v>
+        <v>2.8</v>
       </c>
       <c r="F178" s="4">
-        <v>2.704</v>
+        <v>2.576</v>
       </c>
       <c r="G178" s="4">
         <v>2.672</v>
@@ -3446,22 +3452,22 @@
         <v>1</v>
       </c>
       <c r="B182" s="4">
-        <v>109.056</v>
+        <v>84.48</v>
       </c>
       <c r="C182" s="4">
-        <v>120.32</v>
+        <v>113.152</v>
       </c>
       <c r="D182" s="4">
-        <v>370.688</v>
+        <v>444.416</v>
       </c>
       <c r="E182" s="4">
-        <v>831.4880000000001</v>
+        <v>1122.304</v>
       </c>
       <c r="F182" s="4">
-        <v>1515.52</v>
+        <v>2932.736</v>
       </c>
       <c r="G182" s="4">
-        <v>1417.216</v>
+        <v>1941.504</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -3469,22 +3475,22 @@
         <v>2</v>
       </c>
       <c r="B183" s="4">
-        <v>171.008</v>
+        <v>144.384</v>
       </c>
       <c r="C183" s="4">
-        <v>175.104</v>
+        <v>162.816</v>
       </c>
       <c r="D183" s="4">
-        <v>399.36</v>
+        <v>514.048</v>
       </c>
       <c r="E183" s="4">
-        <v>1482.752</v>
+        <v>1597.44</v>
       </c>
       <c r="F183" s="4">
-        <v>2899.968</v>
+        <v>3227.648</v>
       </c>
       <c r="G183" s="4">
-        <v>6651.904</v>
+        <v>7241.728</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -3492,22 +3498,22 @@
         <v>3</v>
       </c>
       <c r="B184" s="4">
-        <v>129.536</v>
+        <v>101.888</v>
       </c>
       <c r="C184" s="4">
-        <v>134.144</v>
+        <v>120.32</v>
       </c>
       <c r="D184" s="4">
-        <v>847.8720000000001</v>
+        <v>407.552</v>
       </c>
       <c r="E184" s="4">
-        <v>1089.536</v>
+        <v>1220.608</v>
       </c>
       <c r="F184" s="4">
-        <v>2023.424</v>
+        <v>1662.976</v>
       </c>
       <c r="G184" s="4">
-        <v>1613.824</v>
+        <v>2039.808</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -3546,22 +3552,22 @@
         <v>1</v>
       </c>
       <c r="B189" s="3">
-        <v>8752</v>
+        <v>8677</v>
       </c>
       <c r="C189" s="3">
-        <v>10200</v>
+        <v>11500</v>
       </c>
       <c r="D189" s="3">
-        <v>12800</v>
+        <v>12300</v>
       </c>
       <c r="E189" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F189" s="3">
         <v>13600</v>
       </c>
-      <c r="F189" s="3">
-        <v>13700</v>
-      </c>
       <c r="G189" s="3">
-        <v>12400</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -3569,22 +3575,22 @@
         <v>2</v>
       </c>
       <c r="B190" s="3">
-        <v>2056</v>
+        <v>2503</v>
       </c>
       <c r="C190" s="3">
-        <v>4357</v>
+        <v>4452</v>
       </c>
       <c r="D190" s="3">
-        <v>9372</v>
+        <v>8827</v>
       </c>
       <c r="E190" s="3">
-        <v>12100</v>
+        <v>11500</v>
       </c>
       <c r="F190" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="G190" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -3592,13 +3598,13 @@
         <v>3</v>
       </c>
       <c r="B191" s="3">
-        <v>5305</v>
+        <v>6564</v>
       </c>
       <c r="C191" s="3">
-        <v>8159</v>
+        <v>8427</v>
       </c>
       <c r="D191" s="3">
-        <v>10200</v>
+        <v>9266</v>
       </c>
       <c r="E191" s="3">
         <v>12500</v>
@@ -3607,7 +3613,7 @@
         <v>13200</v>
       </c>
       <c r="G191" s="3">
-        <v>11400</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -3646,22 +3652,22 @@
         <v>1</v>
       </c>
       <c r="B195" s="4">
-        <v>1147.142144</v>
+        <v>1137.70496</v>
       </c>
       <c r="C195" s="4">
-        <v>1335.885824</v>
+        <v>1507.852288</v>
       </c>
       <c r="D195" s="4">
-        <v>1677.7216</v>
+        <v>1612.709888</v>
       </c>
       <c r="E195" s="4">
-        <v>1783.627776</v>
+        <v>1795.162112</v>
       </c>
       <c r="F195" s="4">
-        <v>1795.162112</v>
+        <v>1784.676352</v>
       </c>
       <c r="G195" s="4">
-        <v>1628.438528</v>
+        <v>1654.652928</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -3669,22 +3675,22 @@
         <v>2</v>
       </c>
       <c r="B196" s="4">
-        <v>269.484032</v>
+        <v>328.204288</v>
       </c>
       <c r="C196" s="4">
-        <v>571.47392</v>
+        <v>584.056832</v>
       </c>
       <c r="D196" s="4">
-        <v>1228.931072</v>
+        <v>1156.579328</v>
       </c>
       <c r="E196" s="4">
-        <v>1583.34976</v>
+        <v>1509.94944</v>
       </c>
       <c r="F196" s="4">
-        <v>1592.786944</v>
+        <v>1609.56416</v>
       </c>
       <c r="G196" s="4">
-        <v>1637.875712</v>
+        <v>1625.2928</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -3692,22 +3698,22 @@
         <v>3</v>
       </c>
       <c r="B197" s="4">
-        <v>695.205888</v>
+        <v>860.880896</v>
       </c>
       <c r="C197" s="4">
-        <v>1069.54752</v>
+        <v>1104.150528</v>
       </c>
       <c r="D197" s="4">
-        <v>1342.17728</v>
+        <v>1214.251008</v>
       </c>
       <c r="E197" s="4">
-        <v>1638.924288</v>
+        <v>1642.070016</v>
       </c>
       <c r="F197" s="4">
-        <v>1733.296128</v>
+        <v>1732.247552</v>
       </c>
       <c r="G197" s="4">
-        <v>1488.97792</v>
+        <v>1686.110208</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -3746,22 +3752,22 @@
         <v>1</v>
       </c>
       <c r="B201" s="4">
-        <v>27.07</v>
+        <v>27.19</v>
       </c>
       <c r="C201" s="4">
-        <v>29.17</v>
+        <v>28.1</v>
       </c>
       <c r="D201" s="4">
-        <v>33.51</v>
+        <v>33.07</v>
       </c>
       <c r="E201" s="4">
-        <v>42.81</v>
+        <v>42.57</v>
       </c>
       <c r="F201" s="4">
-        <v>81.88</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="G201" s="4">
-        <v>142.4</v>
+        <v>142.68</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -3769,22 +3775,22 @@
         <v>2</v>
       </c>
       <c r="B202" s="4">
-        <v>394.82</v>
+        <v>316.83</v>
       </c>
       <c r="C202" s="4">
-        <v>311.47</v>
+        <v>288.98</v>
       </c>
       <c r="D202" s="4">
-        <v>147.9</v>
+        <v>179.2</v>
       </c>
       <c r="E202" s="4">
-        <v>127.74</v>
+        <v>151.2</v>
       </c>
       <c r="F202" s="4">
-        <v>190.79</v>
+        <v>219.69</v>
       </c>
       <c r="G202" s="4">
-        <v>356.85</v>
+        <v>352.64</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -3792,22 +3798,22 @@
         <v>3</v>
       </c>
       <c r="B203" s="4">
-        <v>83.31999999999999</v>
+        <v>60.32</v>
       </c>
       <c r="C203" s="4">
-        <v>98.28</v>
+        <v>77.38</v>
       </c>
       <c r="D203" s="4">
-        <v>147.55</v>
+        <v>188</v>
       </c>
       <c r="E203" s="4">
-        <v>108.36</v>
+        <v>128.65</v>
       </c>
       <c r="F203" s="4">
-        <v>198.38</v>
+        <v>183.37</v>
       </c>
       <c r="G203" s="4">
-        <v>1250.61</v>
+        <v>823.5700000000001</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -3849,19 +3855,19 @@
         <v>30</v>
       </c>
       <c r="C207" s="4">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D207" s="4">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E207" s="4">
         <v>60</v>
       </c>
       <c r="F207" s="4">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G207" s="4">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -3869,22 +3875,22 @@
         <v>2</v>
       </c>
       <c r="B208" s="4">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C208" s="4">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="D208" s="4">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="E208" s="4">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="F208" s="4">
-        <v>318</v>
+        <v>445</v>
       </c>
       <c r="G208" s="4">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -3892,22 +3898,22 @@
         <v>3</v>
       </c>
       <c r="B209" s="4">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="C209" s="4">
         <v>91</v>
       </c>
       <c r="D209" s="4">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="E209" s="4">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="F209" s="4">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="G209" s="4">
-        <v>4359</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -3946,22 +3952,22 @@
         <v>1</v>
       </c>
       <c r="B213" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C213" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D213" s="4">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E213" s="4">
         <v>126</v>
       </c>
       <c r="F213" s="4">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G213" s="4">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -3969,22 +3975,22 @@
         <v>2</v>
       </c>
       <c r="B214" s="4">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="C214" s="4">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="D214" s="4">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="E214" s="4">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="F214" s="4">
-        <v>465</v>
+        <v>502</v>
       </c>
       <c r="G214" s="4">
-        <v>693</v>
+        <v>668</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -3992,22 +3998,22 @@
         <v>3</v>
       </c>
       <c r="B215" s="4">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C215" s="4">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D215" s="4">
-        <v>343</v>
+        <v>245</v>
       </c>
       <c r="E215" s="4">
-        <v>326</v>
+        <v>420</v>
       </c>
       <c r="F215" s="4">
-        <v>2212</v>
+        <v>2114</v>
       </c>
       <c r="G215" s="4">
-        <v>10945</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -4046,22 +4052,22 @@
         <v>1</v>
       </c>
       <c r="B220" s="3">
-        <v>280000</v>
+        <v>241000</v>
       </c>
       <c r="C220" s="3">
-        <v>343000</v>
+        <v>338000</v>
       </c>
       <c r="D220" s="3">
-        <v>396000</v>
+        <v>405000</v>
       </c>
       <c r="E220" s="3">
-        <v>428000</v>
+        <v>438000</v>
       </c>
       <c r="F220" s="3">
-        <v>439000</v>
+        <v>423000</v>
       </c>
       <c r="G220" s="3">
-        <v>407000</v>
+        <v>402000</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -4069,22 +4075,22 @@
         <v>2</v>
       </c>
       <c r="B221" s="3">
-        <v>72000</v>
+        <v>75200</v>
       </c>
       <c r="C221" s="3">
-        <v>155000</v>
+        <v>151000</v>
       </c>
       <c r="D221" s="3">
-        <v>223000</v>
+        <v>224000</v>
       </c>
       <c r="E221" s="3">
-        <v>286000</v>
+        <v>284000</v>
       </c>
       <c r="F221" s="3">
-        <v>299000</v>
+        <v>307000</v>
       </c>
       <c r="G221" s="3">
-        <v>337000</v>
+        <v>348000</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -4092,22 +4098,22 @@
         <v>3</v>
       </c>
       <c r="B222" s="3">
-        <v>118000</v>
+        <v>137000</v>
       </c>
       <c r="C222" s="3">
-        <v>173000</v>
+        <v>158000</v>
       </c>
       <c r="D222" s="3">
         <v>269000</v>
       </c>
       <c r="E222" s="3">
-        <v>340000</v>
+        <v>334000</v>
       </c>
       <c r="F222" s="3">
-        <v>359000</v>
+        <v>377000</v>
       </c>
       <c r="G222" s="3">
-        <v>297000</v>
+        <v>239000</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -4146,22 +4152,22 @@
         <v>1</v>
       </c>
       <c r="B226" s="4">
-        <v>1147.142144</v>
+        <v>986.710016</v>
       </c>
       <c r="C226" s="4">
-        <v>1405.09184</v>
+        <v>1384.12032</v>
       </c>
       <c r="D226" s="4">
-        <v>1622.147072</v>
+        <v>1656.75008</v>
       </c>
       <c r="E226" s="4">
-        <v>1751.12192</v>
+        <v>1793.06496</v>
       </c>
       <c r="F226" s="4">
-        <v>1800.404992</v>
+        <v>1733.296128</v>
       </c>
       <c r="G226" s="4">
-        <v>1666.187264</v>
+        <v>1647.312896</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -4169,22 +4175,22 @@
         <v>2</v>
       </c>
       <c r="B227" s="4">
-        <v>294.649856</v>
+        <v>308.281344</v>
       </c>
       <c r="C227" s="4">
-        <v>636.485632</v>
+        <v>617.611264</v>
       </c>
       <c r="D227" s="4">
-        <v>914.3582720000001</v>
+        <v>917.504</v>
       </c>
       <c r="E227" s="4">
-        <v>1173.356544</v>
+        <v>1162.870784</v>
       </c>
       <c r="F227" s="4">
-        <v>1224.736768</v>
+        <v>1256.194048</v>
       </c>
       <c r="G227" s="4">
-        <v>1378.87744</v>
+        <v>1427.111936</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -4192,22 +4198,22 @@
         <v>3</v>
       </c>
       <c r="B228" s="4">
-        <v>482.34496</v>
+        <v>562.036736</v>
       </c>
       <c r="C228" s="4">
-        <v>709.885952</v>
+        <v>644.87424</v>
       </c>
       <c r="D228" s="4">
         <v>1102.053376</v>
       </c>
       <c r="E228" s="4">
-        <v>1390.411776</v>
+        <v>1367.343104</v>
       </c>
       <c r="F228" s="4">
-        <v>1469.054976</v>
+        <v>1544.552448</v>
       </c>
       <c r="G228" s="4">
-        <v>1216.34816</v>
+        <v>980.41856</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -4246,22 +4252,22 @@
         <v>1</v>
       </c>
       <c r="B232" s="4">
-        <v>1.01305</v>
+        <v>1.01687</v>
       </c>
       <c r="C232" s="4">
-        <v>1.04439</v>
+        <v>1.04411</v>
       </c>
       <c r="D232" s="4">
-        <v>1.1248</v>
+        <v>1.12142</v>
       </c>
       <c r="E232" s="4">
-        <v>1.38453</v>
+        <v>1.3743</v>
       </c>
       <c r="F232" s="4">
-        <v>2.51733</v>
+        <v>2.51215</v>
       </c>
       <c r="G232" s="4">
-        <v>4.12311</v>
+        <v>4.24955</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -4269,18 +4275,18 @@
         <v>2</v>
       </c>
       <c r="B233" s="4">
-        <v>10.93</v>
+        <v>10.52</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4">
-        <v>10.82</v>
+        <v>10.72</v>
       </c>
       <c r="F233" s="4">
-        <v>18.23</v>
+        <v>18.08</v>
       </c>
       <c r="G233" s="4">
-        <v>28.22</v>
+        <v>27.93</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -4290,12 +4296,14 @@
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
-      <c r="E234" s="4"/>
+      <c r="E234" s="4">
+        <v>12.26</v>
+      </c>
       <c r="F234" s="4">
-        <v>11.09</v>
+        <v>10.03</v>
       </c>
       <c r="G234" s="4">
-        <v>60.78</v>
+        <v>87.39</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -4334,22 +4342,22 @@
         <v>1</v>
       </c>
       <c r="B238" s="4">
-        <v>2.288</v>
+        <v>3.088</v>
       </c>
       <c r="C238" s="4">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="D238" s="4">
-        <v>2.024</v>
+        <v>1.896</v>
       </c>
       <c r="E238" s="4">
-        <v>2.8</v>
+        <v>2.736</v>
       </c>
       <c r="F238" s="4">
-        <v>4.512</v>
+        <v>4.448</v>
       </c>
       <c r="G238" s="4">
-        <v>5.984</v>
+        <v>6.048</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -4357,22 +4365,22 @@
         <v>2</v>
       </c>
       <c r="B239" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C239" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D239" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E239" s="4">
         <v>15</v>
       </c>
       <c r="F239" s="4">
+        <v>48</v>
+      </c>
+      <c r="G239" s="4">
         <v>49</v>
-      </c>
-      <c r="G239" s="4">
-        <v>45</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -4380,22 +4388,22 @@
         <v>3</v>
       </c>
       <c r="B240" s="4">
-        <v>6.88</v>
+        <v>5.536</v>
       </c>
       <c r="C240" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D240" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E240" s="4">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F240" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G240" s="4">
-        <v>153</v>
+        <v>293</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -4437,19 +4445,19 @@
         <v>4.256</v>
       </c>
       <c r="C244" s="4">
-        <v>4.384</v>
+        <v>4.32</v>
       </c>
       <c r="D244" s="4">
         <v>4.448</v>
       </c>
       <c r="E244" s="4">
-        <v>5.536</v>
+        <v>5.344</v>
       </c>
       <c r="F244" s="4">
         <v>9.152000000000001</v>
       </c>
       <c r="G244" s="4">
-        <v>12.736</v>
+        <v>13.376</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -4457,22 +4465,22 @@
         <v>2</v>
       </c>
       <c r="B245" s="4">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C245" s="4">
         <v>36</v>
       </c>
       <c r="D245" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E245" s="4">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F245" s="4">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G245" s="4">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -4480,22 +4488,22 @@
         <v>3</v>
       </c>
       <c r="B246" s="4">
-        <v>15.168</v>
+        <v>23.68</v>
       </c>
       <c r="C246" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D246" s="4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E246" s="4">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F246" s="4">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="G246" s="4">
-        <v>627</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>

--- a/rfuse/summary.xlsx
+++ b/rfuse/summary.xlsx
@@ -558,22 +558,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>7937</v>
+        <v>8605</v>
       </c>
       <c r="C3" s="3">
-        <v>13600</v>
+        <v>17200</v>
       </c>
       <c r="D3" s="3">
-        <v>4035</v>
+        <v>30100</v>
       </c>
       <c r="E3" s="3">
-        <v>8249</v>
+        <v>36100</v>
       </c>
       <c r="F3" s="3">
-        <v>12500</v>
+        <v>33000</v>
       </c>
       <c r="G3" s="3">
-        <v>12900</v>
+        <v>27400</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -581,22 +581,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2652</v>
+        <v>956</v>
       </c>
       <c r="C4" s="3">
-        <v>1850</v>
+        <v>2007</v>
       </c>
       <c r="D4" s="3">
-        <v>3615</v>
+        <v>3771</v>
       </c>
       <c r="E4" s="3">
-        <v>6330</v>
+        <v>8551</v>
       </c>
       <c r="F4" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="G4" s="3">
-        <v>13100</v>
+        <v>34500</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -604,22 +604,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>4899</v>
+        <v>1024</v>
       </c>
       <c r="C5" s="3">
-        <v>8031</v>
+        <v>1978</v>
       </c>
       <c r="D5" s="3">
-        <v>3657</v>
+        <v>4031</v>
       </c>
       <c r="E5" s="3">
-        <v>6553</v>
+        <v>9775</v>
       </c>
       <c r="F5" s="3">
-        <v>11500</v>
+        <v>10400</v>
       </c>
       <c r="G5" s="3">
-        <v>12800</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -658,22 +658,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="4">
-        <v>1040.187392</v>
+        <v>1128.267776</v>
       </c>
       <c r="C9" s="4">
-        <v>1777.33632</v>
+        <v>2255.486976</v>
       </c>
       <c r="D9" s="4">
-        <v>528.482304</v>
+        <v>3947.88864</v>
       </c>
       <c r="E9" s="4">
-        <v>1081.081856</v>
+        <v>4730.126336</v>
       </c>
       <c r="F9" s="4">
-        <v>1636.827136</v>
+        <v>4455.399424</v>
       </c>
       <c r="G9" s="4">
-        <v>1690.304512</v>
+        <v>3585.081344</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -681,22 +681,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>348.127232</v>
+        <v>125.82912</v>
       </c>
       <c r="C10" s="4">
-        <v>242.221056</v>
+        <v>263.192576</v>
       </c>
       <c r="D10" s="4">
-        <v>473.956352</v>
+        <v>493.879296</v>
       </c>
       <c r="E10" s="4">
-        <v>829.423616</v>
+        <v>1120.927744</v>
       </c>
       <c r="F10" s="4">
-        <v>1473.24928</v>
+        <v>1477.443584</v>
       </c>
       <c r="G10" s="4">
-        <v>1718.616064</v>
+        <v>4516.216832</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -704,22 +704,22 @@
         <v>3</v>
       </c>
       <c r="B11" s="4">
-        <v>641.728512</v>
+        <v>134.217728</v>
       </c>
       <c r="C11" s="4">
-        <v>1052.770304</v>
+        <v>258.998272</v>
       </c>
       <c r="D11" s="4">
-        <v>479.199232</v>
+        <v>528.482304</v>
       </c>
       <c r="E11" s="4">
-        <v>858.783744</v>
+        <v>1281.359872</v>
       </c>
       <c r="F11" s="4">
-        <v>1501.560832</v>
+        <v>1357.90592</v>
       </c>
       <c r="G11" s="4">
-        <v>1676.673024</v>
+        <v>1529.872384</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -758,22 +758,22 @@
         <v>1</v>
       </c>
       <c r="B15" s="4">
-        <v>125.24</v>
+        <v>115.11</v>
       </c>
       <c r="C15" s="4">
-        <v>144.85</v>
+        <v>115.02</v>
       </c>
       <c r="D15" s="4">
-        <v>911.16</v>
+        <v>131.27</v>
       </c>
       <c r="E15" s="4">
-        <v>805.22</v>
+        <v>206.65</v>
       </c>
       <c r="F15" s="4">
-        <v>1191.82</v>
+        <v>455.6</v>
       </c>
       <c r="G15" s="4">
-        <v>2373.09</v>
+        <v>1146.99</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -781,22 +781,22 @@
         <v>2</v>
       </c>
       <c r="B16" s="4">
-        <v>375.67</v>
+        <v>1044.61</v>
       </c>
       <c r="C16" s="4">
-        <v>1065.63</v>
+        <v>974.4400000000001</v>
       </c>
       <c r="D16" s="4">
-        <v>1087.76</v>
+        <v>1041.58</v>
       </c>
       <c r="E16" s="4">
-        <v>1161.6</v>
+        <v>846.63</v>
       </c>
       <c r="F16" s="4">
-        <v>1357.14</v>
+        <v>1359.72</v>
       </c>
       <c r="G16" s="4">
-        <v>2423.09</v>
+        <v>915.13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -804,22 +804,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="4">
-        <v>203.04</v>
+        <v>969.6799999999999</v>
       </c>
       <c r="C17" s="4">
-        <v>241.44</v>
+        <v>992.95</v>
       </c>
       <c r="D17" s="4">
-        <v>1068.68</v>
+        <v>921.92</v>
       </c>
       <c r="E17" s="4">
-        <v>1154.35</v>
+        <v>768.33</v>
       </c>
       <c r="F17" s="4">
-        <v>1264.3</v>
+        <v>1351.15</v>
       </c>
       <c r="G17" s="4">
-        <v>2046.16</v>
+        <v>2341.43</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -858,22 +858,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="4">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="C21" s="4">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="D21" s="4">
-        <v>1827</v>
+        <v>241</v>
       </c>
       <c r="E21" s="4">
-        <v>1893</v>
+        <v>453</v>
       </c>
       <c r="F21" s="4">
-        <v>2704</v>
+        <v>1037</v>
       </c>
       <c r="G21" s="4">
-        <v>5735</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -881,22 +881,22 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>668</v>
+        <v>1844</v>
       </c>
       <c r="C22" s="4">
-        <v>1893</v>
+        <v>1778</v>
       </c>
       <c r="D22" s="4">
-        <v>1958</v>
+        <v>1860</v>
       </c>
       <c r="E22" s="4">
-        <v>2114</v>
+        <v>1991</v>
       </c>
       <c r="F22" s="4">
-        <v>3261</v>
+        <v>2933</v>
       </c>
       <c r="G22" s="4">
-        <v>6128</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -904,22 +904,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>383</v>
+        <v>1762</v>
       </c>
       <c r="C23" s="4">
-        <v>404</v>
+        <v>1762</v>
       </c>
       <c r="D23" s="4">
-        <v>1876</v>
+        <v>1893</v>
       </c>
       <c r="E23" s="4">
-        <v>2057</v>
+        <v>1860</v>
       </c>
       <c r="F23" s="4">
-        <v>2638</v>
+        <v>3359</v>
       </c>
       <c r="G23" s="4">
-        <v>7701</v>
+        <v>8979</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -958,22 +958,22 @@
         <v>1</v>
       </c>
       <c r="B27" s="4">
-        <v>322</v>
+        <v>190</v>
       </c>
       <c r="C27" s="4">
-        <v>338</v>
+        <v>227</v>
       </c>
       <c r="D27" s="4">
-        <v>2057</v>
+        <v>265</v>
       </c>
       <c r="E27" s="4">
-        <v>2114</v>
+        <v>635</v>
       </c>
       <c r="F27" s="4">
-        <v>3752</v>
+        <v>1205</v>
       </c>
       <c r="G27" s="4">
-        <v>7308</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -981,22 +981,22 @@
         <v>2</v>
       </c>
       <c r="B28" s="4">
-        <v>734</v>
+        <v>3195</v>
       </c>
       <c r="C28" s="4">
-        <v>3130</v>
+        <v>1909</v>
       </c>
       <c r="D28" s="4">
-        <v>2507</v>
+        <v>2040</v>
       </c>
       <c r="E28" s="4">
-        <v>3392</v>
+        <v>2278</v>
       </c>
       <c r="F28" s="4">
-        <v>3818</v>
+        <v>4047</v>
       </c>
       <c r="G28" s="4">
-        <v>8094</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1004,22 +1004,22 @@
         <v>3</v>
       </c>
       <c r="B29" s="4">
-        <v>396</v>
+        <v>1893</v>
       </c>
       <c r="C29" s="4">
-        <v>433</v>
+        <v>2180</v>
       </c>
       <c r="D29" s="4">
+        <v>2024</v>
+      </c>
+      <c r="E29" s="4">
         <v>2040</v>
       </c>
-      <c r="E29" s="4">
-        <v>3163</v>
-      </c>
       <c r="F29" s="4">
-        <v>3851</v>
+        <v>4490</v>
       </c>
       <c r="G29" s="4">
-        <v>11076</v>
+        <v>14484</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1058,22 +1058,22 @@
         <v>1</v>
       </c>
       <c r="B34" s="3">
-        <v>5879</v>
+        <v>5038</v>
       </c>
       <c r="C34" s="3">
-        <v>46100</v>
+        <v>10400</v>
       </c>
       <c r="D34" s="3">
-        <v>99100</v>
+        <v>17300</v>
       </c>
       <c r="E34" s="3">
-        <v>143000</v>
+        <v>29900</v>
       </c>
       <c r="F34" s="3">
-        <v>63300</v>
+        <v>63000</v>
       </c>
       <c r="G34" s="3">
-        <v>436000</v>
+        <v>389000</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1081,22 +1081,22 @@
         <v>2</v>
       </c>
       <c r="B35" s="3">
-        <v>3698</v>
+        <v>4460</v>
       </c>
       <c r="C35" s="3">
-        <v>24600</v>
+        <v>7964</v>
       </c>
       <c r="D35" s="3">
-        <v>51800</v>
+        <v>16800</v>
       </c>
       <c r="E35" s="3">
-        <v>115000</v>
+        <v>30800</v>
       </c>
       <c r="F35" s="3">
-        <v>58200</v>
+        <v>66300</v>
       </c>
       <c r="G35" s="3">
-        <v>269000</v>
+        <v>85800</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1104,22 +1104,22 @@
         <v>3</v>
       </c>
       <c r="B36" s="3">
-        <v>4782</v>
+        <v>4753</v>
       </c>
       <c r="C36" s="3">
-        <v>35500</v>
+        <v>9004</v>
       </c>
       <c r="D36" s="3">
-        <v>98600</v>
+        <v>17200</v>
       </c>
       <c r="E36" s="3">
-        <v>157000</v>
+        <v>32400</v>
       </c>
       <c r="F36" s="3">
-        <v>60300</v>
+        <v>58100</v>
       </c>
       <c r="G36" s="3">
-        <v>278000</v>
+        <v>87800</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1158,22 +1158,22 @@
         <v>1</v>
       </c>
       <c r="B40" s="4">
-        <v>23.068672</v>
+        <v>20.6569472</v>
       </c>
       <c r="C40" s="4">
-        <v>188.74368</v>
+        <v>42.6770432</v>
       </c>
       <c r="D40" s="4">
-        <v>405.798912</v>
+        <v>70.67402240000001</v>
       </c>
       <c r="E40" s="4">
-        <v>587.2025599999999</v>
+        <v>122.683392</v>
       </c>
       <c r="F40" s="4">
-        <v>258.998272</v>
+        <v>262.144</v>
       </c>
       <c r="G40" s="4">
-        <v>1784.676352</v>
+        <v>1592.786944</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1181,22 +1181,22 @@
         <v>2</v>
       </c>
       <c r="B41" s="4">
-        <v>15.0994944</v>
+        <v>18.2452224</v>
       </c>
       <c r="C41" s="4">
-        <v>100.663296</v>
+        <v>32.6107136</v>
       </c>
       <c r="D41" s="4">
-        <v>211.812352</v>
+        <v>68.5768704</v>
       </c>
       <c r="E41" s="4">
-        <v>472.907776</v>
+        <v>125.82912</v>
       </c>
       <c r="F41" s="4">
-        <v>238.026752</v>
+        <v>271.581184</v>
       </c>
       <c r="G41" s="4">
-        <v>1103.101952</v>
+        <v>351.27296</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1204,22 +1204,22 @@
         <v>3</v>
       </c>
       <c r="B42" s="4">
-        <v>19.6083712</v>
+        <v>19.5035136</v>
       </c>
       <c r="C42" s="4">
-        <v>145.752064</v>
+        <v>36.9098752</v>
       </c>
       <c r="D42" s="4">
-        <v>403.70176</v>
+        <v>70.35944959999999</v>
       </c>
       <c r="E42" s="4">
-        <v>641.728512</v>
+        <v>132.120576</v>
       </c>
       <c r="F42" s="4">
-        <v>246.41536</v>
+        <v>238.026752</v>
       </c>
       <c r="G42" s="4">
-        <v>1139.802112</v>
+        <v>359.661568</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1258,22 +1258,22 @@
         <v>1</v>
       </c>
       <c r="B46" s="4">
-        <v>168.87664</v>
+        <v>198.16194</v>
       </c>
       <c r="C46" s="4">
-        <v>42.28108</v>
+        <v>189.51458</v>
       </c>
       <c r="D46" s="4">
-        <v>38.28733</v>
+        <v>223.29757</v>
       </c>
       <c r="E46" s="4">
-        <v>41.92276</v>
+        <v>260.96951</v>
       </c>
       <c r="F46" s="4">
-        <v>243.65374</v>
+        <v>246.39025</v>
       </c>
       <c r="G46" s="4">
-        <v>64.05472</v>
+        <v>79.07133999999999</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1281,22 +1281,22 @@
         <v>2</v>
       </c>
       <c r="B47" s="4">
-        <v>269.13898</v>
+        <v>223.97017</v>
       </c>
       <c r="C47" s="4">
-        <v>72.25129</v>
+        <v>247.32561</v>
       </c>
       <c r="D47" s="4">
-        <v>65.063</v>
+        <v>237.47531</v>
       </c>
       <c r="E47" s="4">
-        <v>53.11331</v>
+        <v>258.67722</v>
       </c>
       <c r="F47" s="4">
-        <v>265.2566</v>
+        <v>240.26036</v>
       </c>
       <c r="G47" s="4">
-        <v>111.89795</v>
+        <v>371.73891</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1304,22 +1304,22 @@
         <v>3</v>
       </c>
       <c r="B48" s="4">
-        <v>207.89832</v>
+        <v>209.85605</v>
       </c>
       <c r="C48" s="4">
-        <v>55.03463</v>
+        <v>221.69688</v>
       </c>
       <c r="D48" s="4">
-        <v>39.57362000000001</v>
+        <v>228.52552</v>
       </c>
       <c r="E48" s="4">
-        <v>39.81417</v>
+        <v>243.13351</v>
       </c>
       <c r="F48" s="4">
-        <v>255.95412</v>
+        <v>265.25533</v>
       </c>
       <c r="G48" s="4">
-        <v>84.10915</v>
+        <v>320.86286</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1358,22 +1358,22 @@
         <v>1</v>
       </c>
       <c r="B52" s="4">
-        <v>1400.832</v>
+        <v>1417.216</v>
       </c>
       <c r="C52" s="4">
-        <v>71.16800000000001</v>
+        <v>1433.6</v>
       </c>
       <c r="D52" s="4">
-        <v>71.16800000000001</v>
+        <v>1449.984</v>
       </c>
       <c r="E52" s="4">
-        <v>90.624</v>
+        <v>1482.752</v>
       </c>
       <c r="F52" s="4">
         <v>1499.136</v>
       </c>
       <c r="G52" s="4">
-        <v>179.2</v>
+        <v>240.64</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1381,22 +1381,22 @@
         <v>2</v>
       </c>
       <c r="B53" s="4">
-        <v>1613.824</v>
+        <v>1564.672</v>
       </c>
       <c r="C53" s="4">
-        <v>146.432</v>
+        <v>1499.136</v>
       </c>
       <c r="D53" s="4">
-        <v>138.24</v>
+        <v>1482.752</v>
       </c>
       <c r="E53" s="4">
-        <v>122.368</v>
+        <v>1515.52</v>
       </c>
       <c r="F53" s="4">
-        <v>1564.672</v>
+        <v>1548.288</v>
       </c>
       <c r="G53" s="4">
-        <v>325.632</v>
+        <v>1810.432</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1404,22 +1404,22 @@
         <v>3</v>
       </c>
       <c r="B54" s="4">
+        <v>1417.216</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1466.368</v>
+      </c>
+      <c r="D54" s="4">
         <v>1449.984</v>
       </c>
-      <c r="C54" s="4">
-        <v>102.912</v>
-      </c>
-      <c r="D54" s="4">
-        <v>91.648</v>
-      </c>
       <c r="E54" s="4">
-        <v>100.864</v>
+        <v>1499.136</v>
       </c>
       <c r="F54" s="4">
-        <v>1548.288</v>
+        <v>1564.672</v>
       </c>
       <c r="G54" s="4">
-        <v>432.128</v>
+        <v>1646.592</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1458,22 +1458,22 @@
         <v>1</v>
       </c>
       <c r="B58" s="4">
-        <v>1548.288</v>
+        <v>1531.904</v>
       </c>
       <c r="C58" s="4">
-        <v>77.312</v>
+        <v>1531.904</v>
       </c>
       <c r="D58" s="4">
-        <v>82.432</v>
+        <v>1564.672</v>
       </c>
       <c r="E58" s="4">
-        <v>110.08</v>
+        <v>1613.824</v>
       </c>
       <c r="F58" s="4">
-        <v>1744.896</v>
+        <v>1712.128</v>
       </c>
       <c r="G58" s="4">
-        <v>259.072</v>
+        <v>354.304</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1481,22 +1481,22 @@
         <v>2</v>
       </c>
       <c r="B59" s="4">
-        <v>1777.664</v>
+        <v>1679.36</v>
       </c>
       <c r="C59" s="4">
-        <v>197.632</v>
+        <v>1662.976</v>
       </c>
       <c r="D59" s="4">
-        <v>175.104</v>
+        <v>1613.824</v>
       </c>
       <c r="E59" s="4">
-        <v>166.912</v>
+        <v>1679.36</v>
       </c>
       <c r="F59" s="4">
-        <v>1761.28</v>
+        <v>1744.896</v>
       </c>
       <c r="G59" s="4">
-        <v>481.28</v>
+        <v>3293.184</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1504,22 +1504,22 @@
         <v>3</v>
       </c>
       <c r="B60" s="4">
-        <v>1564.672</v>
+        <v>1531.904</v>
       </c>
       <c r="C60" s="4">
-        <v>130.56</v>
+        <v>1581.056</v>
       </c>
       <c r="D60" s="4">
-        <v>113.152</v>
+        <v>1597.44</v>
       </c>
       <c r="E60" s="4">
-        <v>148.48</v>
+        <v>1662.976</v>
       </c>
       <c r="F60" s="4">
         <v>1859.584</v>
       </c>
       <c r="G60" s="4">
-        <v>626.688</v>
+        <v>3850.24</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1558,22 +1558,22 @@
         <v>1</v>
       </c>
       <c r="B65" s="3">
-        <v>9225</v>
+        <v>11100</v>
       </c>
       <c r="C65" s="3">
-        <v>16000</v>
+        <v>15100</v>
       </c>
       <c r="D65" s="3">
-        <v>16800</v>
+        <v>17100</v>
       </c>
       <c r="E65" s="3">
-        <v>19100</v>
+        <v>20100</v>
       </c>
       <c r="F65" s="3">
-        <v>20700</v>
+        <v>21000</v>
       </c>
       <c r="G65" s="3">
-        <v>20500</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1581,22 +1581,22 @@
         <v>2</v>
       </c>
       <c r="B66" s="3">
-        <v>2290</v>
+        <v>7937</v>
       </c>
       <c r="C66" s="3">
-        <v>4511</v>
+        <v>10900</v>
       </c>
       <c r="D66" s="3">
-        <v>9660</v>
+        <v>16200</v>
       </c>
       <c r="E66" s="3">
-        <v>14100</v>
+        <v>17100</v>
       </c>
       <c r="F66" s="3">
-        <v>16400</v>
+        <v>17600</v>
       </c>
       <c r="G66" s="3">
-        <v>18500</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1604,22 +1604,22 @@
         <v>3</v>
       </c>
       <c r="B67" s="3">
-        <v>6360</v>
+        <v>8827</v>
       </c>
       <c r="C67" s="3">
-        <v>9846</v>
+        <v>10900</v>
       </c>
       <c r="D67" s="3">
-        <v>14600</v>
+        <v>13700</v>
       </c>
       <c r="E67" s="3">
-        <v>19500</v>
+        <v>16700</v>
       </c>
       <c r="F67" s="3">
-        <v>17200</v>
+        <v>16700</v>
       </c>
       <c r="G67" s="3">
-        <v>13000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1658,22 +1658,22 @@
         <v>1</v>
       </c>
       <c r="B71" s="4">
-        <v>1209.008128</v>
+        <v>1458.569216</v>
       </c>
       <c r="C71" s="4">
-        <v>2097.152</v>
+        <v>1973.420032</v>
       </c>
       <c r="D71" s="4">
-        <v>2199.912448</v>
+        <v>2236.612608</v>
       </c>
       <c r="E71" s="4">
-        <v>2502.950912</v>
+        <v>2638.217216</v>
       </c>
       <c r="F71" s="4">
-        <v>2708.471808</v>
+        <v>2753.560576</v>
       </c>
       <c r="G71" s="4">
-        <v>2681.208832</v>
+        <v>2812.280832</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -1681,22 +1681,22 @@
         <v>2</v>
       </c>
       <c r="B72" s="4">
-        <v>299.892736</v>
+        <v>1040.187392</v>
       </c>
       <c r="C72" s="4">
-        <v>591.3968640000001</v>
+        <v>1428.160512</v>
       </c>
       <c r="D72" s="4">
-        <v>1266.679808</v>
+        <v>2122.317824</v>
       </c>
       <c r="E72" s="4">
-        <v>1854.930944</v>
+        <v>2246.049792</v>
       </c>
       <c r="F72" s="4">
-        <v>2151.677952</v>
+        <v>2312.11008</v>
       </c>
       <c r="G72" s="4">
-        <v>2421.161984</v>
+        <v>2378.170368</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -1704,22 +1704,22 @@
         <v>3</v>
       </c>
       <c r="B73" s="4">
-        <v>833.61792</v>
+        <v>1156.579328</v>
       </c>
       <c r="C73" s="4">
-        <v>1290.797056</v>
+        <v>1428.160512</v>
       </c>
       <c r="D73" s="4">
-        <v>1917.845504</v>
+        <v>1795.162112</v>
       </c>
       <c r="E73" s="4">
-        <v>2550.136832</v>
+        <v>2182.086656</v>
       </c>
       <c r="F73" s="4">
-        <v>2251.292672</v>
+        <v>2184.183808</v>
       </c>
       <c r="G73" s="4">
-        <v>1835.008</v>
+        <v>1881.145344</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -1758,22 +1758,22 @@
         <v>1</v>
       </c>
       <c r="B77" s="4">
-        <v>52.88</v>
+        <v>24.87</v>
       </c>
       <c r="C77" s="4">
-        <v>33.66</v>
+        <v>22.51</v>
       </c>
       <c r="D77" s="4">
-        <v>38.03</v>
+        <v>27.75</v>
       </c>
       <c r="E77" s="4">
-        <v>64</v>
+        <v>39.14</v>
       </c>
       <c r="F77" s="4">
-        <v>89.31</v>
+        <v>77.91</v>
       </c>
       <c r="G77" s="4">
-        <v>144.88</v>
+        <v>145.16</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -1781,22 +1781,22 @@
         <v>2</v>
       </c>
       <c r="B78" s="4">
-        <v>370.62</v>
+        <v>66.55</v>
       </c>
       <c r="C78" s="4">
-        <v>329.29</v>
+        <v>64.92</v>
       </c>
       <c r="D78" s="4">
-        <v>229.63</v>
+        <v>69.94</v>
       </c>
       <c r="E78" s="4">
-        <v>147.46</v>
+        <v>94.31999999999999</v>
       </c>
       <c r="F78" s="4">
-        <v>232.4</v>
+        <v>163.22</v>
       </c>
       <c r="G78" s="4">
-        <v>353.7</v>
+        <v>343.23</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -1804,22 +1804,22 @@
         <v>3</v>
       </c>
       <c r="B79" s="4">
-        <v>77.03</v>
+        <v>45.52</v>
       </c>
       <c r="C79" s="4">
-        <v>85.53</v>
+        <v>87.26000000000001</v>
       </c>
       <c r="D79" s="4">
-        <v>102.28</v>
+        <v>115.79</v>
       </c>
       <c r="E79" s="4">
-        <v>128.51</v>
+        <v>100.04</v>
       </c>
       <c r="F79" s="4">
-        <v>180.28</v>
+        <v>165.46</v>
       </c>
       <c r="G79" s="4">
-        <v>1152.47</v>
+        <v>1088.79</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -1858,22 +1858,22 @@
         <v>1</v>
       </c>
       <c r="B83" s="4">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="C83" s="4">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D83" s="4">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E83" s="4">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="F83" s="4">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G83" s="4">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -1881,19 +1881,19 @@
         <v>2</v>
       </c>
       <c r="B84" s="4">
-        <v>461</v>
+        <v>112</v>
       </c>
       <c r="C84" s="4">
-        <v>457</v>
+        <v>95</v>
       </c>
       <c r="D84" s="4">
-        <v>379</v>
+        <v>90</v>
       </c>
       <c r="E84" s="4">
-        <v>375</v>
+        <v>123</v>
       </c>
       <c r="F84" s="4">
-        <v>465</v>
+        <v>225</v>
       </c>
       <c r="G84" s="4">
         <v>486</v>
@@ -1904,22 +1904,22 @@
         <v>3</v>
       </c>
       <c r="B85" s="4">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C85" s="4">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="D85" s="4">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="E85" s="4">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="F85" s="4">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="G85" s="4">
-        <v>4015</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -1958,22 +1958,22 @@
         <v>1</v>
       </c>
       <c r="B89" s="4">
-        <v>922</v>
+        <v>109</v>
       </c>
       <c r="C89" s="4">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="D89" s="4">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="E89" s="4">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="F89" s="4">
-        <v>388</v>
+        <v>149</v>
       </c>
       <c r="G89" s="4">
-        <v>971</v>
+        <v>392</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -1981,22 +1981,22 @@
         <v>2</v>
       </c>
       <c r="B90" s="4">
-        <v>553</v>
+        <v>235</v>
       </c>
       <c r="C90" s="4">
-        <v>996</v>
+        <v>208</v>
       </c>
       <c r="D90" s="4">
-        <v>619</v>
+        <v>155</v>
       </c>
       <c r="E90" s="4">
-        <v>824</v>
+        <v>217</v>
       </c>
       <c r="F90" s="4">
+        <v>330</v>
+      </c>
+      <c r="G90" s="4">
         <v>1037</v>
-      </c>
-      <c r="G90" s="4">
-        <v>963</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2004,22 +2004,22 @@
         <v>3</v>
       </c>
       <c r="B91" s="4">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c r="C91" s="4">
-        <v>1303</v>
+        <v>326</v>
       </c>
       <c r="D91" s="4">
-        <v>1029</v>
+        <v>1012</v>
       </c>
       <c r="E91" s="4">
-        <v>1336</v>
+        <v>416</v>
       </c>
       <c r="F91" s="4">
-        <v>2147</v>
+        <v>1860</v>
       </c>
       <c r="G91" s="4">
-        <v>11207</v>
+        <v>9634</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2058,22 +2058,22 @@
         <v>1</v>
       </c>
       <c r="B96" s="3">
-        <v>328000</v>
+        <v>395000</v>
       </c>
       <c r="C96" s="3">
-        <v>415000</v>
+        <v>546000</v>
       </c>
       <c r="D96" s="3">
-        <v>537000</v>
+        <v>690000</v>
       </c>
       <c r="E96" s="3">
+        <v>790000</v>
+      </c>
+      <c r="F96" s="3">
         <v>586000</v>
       </c>
-      <c r="F96" s="3">
-        <v>558000</v>
-      </c>
       <c r="G96" s="3">
-        <v>675000</v>
+        <v>683000</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2081,22 +2081,22 @@
         <v>2</v>
       </c>
       <c r="B97" s="3">
-        <v>42300</v>
+        <v>106000</v>
       </c>
       <c r="C97" s="3">
-        <v>131000</v>
+        <v>197000</v>
       </c>
       <c r="D97" s="3">
-        <v>210000</v>
+        <v>311000</v>
       </c>
       <c r="E97" s="3">
-        <v>303000</v>
+        <v>406000</v>
       </c>
       <c r="F97" s="3">
-        <v>363000</v>
+        <v>401000</v>
       </c>
       <c r="G97" s="3">
-        <v>421000</v>
+        <v>437000</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2104,22 +2104,22 @@
         <v>3</v>
       </c>
       <c r="B98" s="3">
-        <v>122000</v>
+        <v>142000</v>
       </c>
       <c r="C98" s="3">
-        <v>165000</v>
+        <v>211000</v>
       </c>
       <c r="D98" s="3">
-        <v>260000</v>
+        <v>353000</v>
       </c>
       <c r="E98" s="3">
-        <v>392000</v>
+        <v>532000</v>
       </c>
       <c r="F98" s="3">
-        <v>373000</v>
+        <v>432000</v>
       </c>
       <c r="G98" s="3">
-        <v>251000</v>
+        <v>203000</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2158,22 +2158,22 @@
         <v>1</v>
       </c>
       <c r="B102" s="4">
-        <v>1342.17728</v>
+        <v>1616.904192</v>
       </c>
       <c r="C102" s="4">
-        <v>1698.69312</v>
+        <v>2236.612608</v>
       </c>
       <c r="D102" s="4">
-        <v>2199.912448</v>
+        <v>2825.91232</v>
       </c>
       <c r="E102" s="4">
+        <v>3233.808384</v>
+      </c>
+      <c r="F102" s="4">
         <v>2402.287616</v>
       </c>
-      <c r="F102" s="4">
-        <v>2284.847104</v>
-      </c>
       <c r="G102" s="4">
-        <v>2765.094912</v>
+        <v>2797.600768</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2181,22 +2181,22 @@
         <v>2</v>
       </c>
       <c r="B103" s="4">
-        <v>173.01504</v>
+        <v>436.207616</v>
       </c>
       <c r="C103" s="4">
-        <v>534.77376</v>
+        <v>808.452096</v>
       </c>
       <c r="D103" s="4">
-        <v>861.929472</v>
+        <v>1275.068416</v>
       </c>
       <c r="E103" s="4">
-        <v>1241.513984</v>
+        <v>1665.138688</v>
       </c>
       <c r="F103" s="4">
-        <v>1487.929344</v>
+        <v>1642.070016</v>
       </c>
       <c r="G103" s="4">
-        <v>1723.858944</v>
+        <v>1788.870656</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2204,22 +2204,22 @@
         <v>3</v>
       </c>
       <c r="B104" s="4">
-        <v>499.122176</v>
+        <v>580.911104</v>
       </c>
       <c r="C104" s="4">
-        <v>677.380096</v>
+        <v>866.123776</v>
       </c>
       <c r="D104" s="4">
-        <v>1063.256064</v>
+        <v>1447.03488</v>
       </c>
       <c r="E104" s="4">
-        <v>1607.467008</v>
+        <v>2177.892352</v>
       </c>
       <c r="F104" s="4">
-        <v>1527.775232</v>
+        <v>1767.899136</v>
       </c>
       <c r="G104" s="4">
-        <v>1028.653056</v>
+        <v>830.4721919999999</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2258,62 +2258,54 @@
         <v>1</v>
       </c>
       <c r="B108" s="4">
-        <v>1.10329</v>
+        <v>0.96441</v>
       </c>
       <c r="C108" s="4">
-        <v>1.19733</v>
+        <v>1.04086</v>
       </c>
       <c r="D108" s="4">
-        <v>1.3056</v>
+        <v>1.14305</v>
       </c>
       <c r="E108" s="4">
-        <v>1.68041</v>
+        <v>1.4879</v>
       </c>
       <c r="F108" s="4">
-        <v>2.76503</v>
+        <v>2.55293</v>
       </c>
       <c r="G108" s="4">
-        <v>4.58971</v>
+        <v>4.3003</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="4">
-        <v>21.2</v>
-      </c>
-      <c r="C109" s="4">
-        <v>11.4</v>
-      </c>
-      <c r="D109" s="4">
-        <v>12.12</v>
-      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
       <c r="E109" s="4">
-        <v>12.8</v>
+        <v>10.36</v>
       </c>
       <c r="F109" s="4">
-        <v>19.77</v>
+        <v>16.04</v>
       </c>
       <c r="G109" s="4">
-        <v>28.64</v>
+        <v>26.14</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B110" s="4">
-        <v>5.457020000000001</v>
-      </c>
+      <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4">
-        <v>15.41</v>
+        <v>10.99</v>
       </c>
       <c r="G110" s="4">
-        <v>83.54000000000001</v>
+        <v>101.95</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2352,22 +2344,22 @@
         <v>1</v>
       </c>
       <c r="B114" s="4">
-        <v>1.688</v>
+        <v>1.608</v>
       </c>
       <c r="C114" s="4">
-        <v>1.88</v>
+        <v>1.768</v>
       </c>
       <c r="D114" s="4">
-        <v>1.976</v>
+        <v>1.8</v>
       </c>
       <c r="E114" s="4">
-        <v>2.928</v>
+        <v>2.448</v>
       </c>
       <c r="F114" s="4">
-        <v>4.832</v>
+        <v>4.256</v>
       </c>
       <c r="G114" s="4">
-        <v>6.496</v>
+        <v>6.176</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -2375,22 +2367,22 @@
         <v>2</v>
       </c>
       <c r="B115" s="4">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C115" s="4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D115" s="4">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E115" s="4">
-        <v>33</v>
+        <v>14.4</v>
       </c>
       <c r="F115" s="4">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="G115" s="4">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -2398,22 +2390,22 @@
         <v>3</v>
       </c>
       <c r="B116" s="4">
-        <v>6.496</v>
+        <v>5.856</v>
       </c>
       <c r="C116" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D116" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E116" s="4">
-        <v>11</v>
+        <v>9.152000000000001</v>
       </c>
       <c r="F116" s="4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G116" s="4">
-        <v>330</v>
+        <v>371</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -2452,22 +2444,22 @@
         <v>1</v>
       </c>
       <c r="B120" s="4">
-        <v>6.368</v>
+        <v>1.848</v>
       </c>
       <c r="C120" s="4">
-        <v>6.688</v>
+        <v>2.128</v>
       </c>
       <c r="D120" s="4">
-        <v>6.432</v>
+        <v>2.224</v>
       </c>
       <c r="E120" s="4">
-        <v>7.072</v>
+        <v>3.152</v>
       </c>
       <c r="F120" s="4">
-        <v>9.92</v>
+        <v>5.664</v>
       </c>
       <c r="G120" s="4">
-        <v>10.944</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -2475,22 +2467,22 @@
         <v>2</v>
       </c>
       <c r="B121" s="4">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="C121" s="4">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D121" s="4">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E121" s="4">
-        <v>58</v>
+        <v>16.32</v>
       </c>
       <c r="F121" s="4">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="G121" s="4">
-        <v>122</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -2498,22 +2490,22 @@
         <v>3</v>
       </c>
       <c r="B122" s="4">
-        <v>14.4</v>
+        <v>6.24</v>
       </c>
       <c r="C122" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D122" s="4">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E122" s="4">
-        <v>24</v>
+        <v>31.36</v>
       </c>
       <c r="F122" s="4">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G122" s="4">
-        <v>742</v>
+        <v>979</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -2552,22 +2544,22 @@
         <v>1</v>
       </c>
       <c r="B127" s="3">
-        <v>17700</v>
+        <v>3696</v>
       </c>
       <c r="C127" s="3">
-        <v>32000</v>
+        <v>5885</v>
       </c>
       <c r="D127" s="3">
-        <v>25900</v>
+        <v>8551</v>
       </c>
       <c r="E127" s="3">
-        <v>8677</v>
+        <v>10000</v>
       </c>
       <c r="F127" s="3">
-        <v>8155</v>
+        <v>11100</v>
       </c>
       <c r="G127" s="3">
-        <v>10400</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -2575,22 +2567,22 @@
         <v>2</v>
       </c>
       <c r="B128" s="3">
-        <v>10700</v>
+        <v>20500</v>
       </c>
       <c r="C128" s="3">
-        <v>4394</v>
+        <v>28800</v>
       </c>
       <c r="D128" s="3">
-        <v>7098</v>
+        <v>43100</v>
       </c>
       <c r="E128" s="3">
-        <v>7160</v>
+        <v>42000</v>
       </c>
       <c r="F128" s="3">
-        <v>7560</v>
+        <v>38600</v>
       </c>
       <c r="G128" s="3">
-        <v>8114</v>
+        <v>36900</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -2598,22 +2590,22 @@
         <v>3</v>
       </c>
       <c r="B129" s="3">
-        <v>11800</v>
+        <v>13300</v>
       </c>
       <c r="C129" s="3">
-        <v>21100</v>
+        <v>18000</v>
       </c>
       <c r="D129" s="3">
-        <v>6390</v>
+        <v>25800</v>
       </c>
       <c r="E129" s="3">
-        <v>7620</v>
+        <v>32600</v>
       </c>
       <c r="F129" s="3">
-        <v>7772</v>
+        <v>33400</v>
       </c>
       <c r="G129" s="3">
-        <v>8255</v>
+        <v>35700</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -2652,22 +2644,22 @@
         <v>1</v>
       </c>
       <c r="B133" s="4">
-        <v>2314.207232</v>
+        <v>484.442112</v>
       </c>
       <c r="C133" s="4">
-        <v>4194.304</v>
+        <v>771.751936</v>
       </c>
       <c r="D133" s="4">
-        <v>3398.434816</v>
+        <v>1120.927744</v>
       </c>
       <c r="E133" s="4">
-        <v>1137.70496</v>
+        <v>1310.72</v>
       </c>
       <c r="F133" s="4">
-        <v>1068.498944</v>
+        <v>1459.617792</v>
       </c>
       <c r="G133" s="4">
-        <v>1364.197376</v>
+        <v>1310.72</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -2675,22 +2667,22 @@
         <v>2</v>
       </c>
       <c r="B134" s="4">
-        <v>1397.751808</v>
+        <v>2684.35456</v>
       </c>
       <c r="C134" s="4">
-        <v>575.668224</v>
+        <v>3781.165056</v>
       </c>
       <c r="D134" s="4">
-        <v>930.086912</v>
+        <v>5650.776064</v>
       </c>
       <c r="E134" s="4">
-        <v>938.47552</v>
+        <v>5506.072576</v>
       </c>
       <c r="F134" s="4">
-        <v>990.90432</v>
+        <v>5064.62208</v>
       </c>
       <c r="G134" s="4">
-        <v>1063.256064</v>
+        <v>4830.789632</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -2698,22 +2690,22 @@
         <v>3</v>
       </c>
       <c r="B135" s="4">
-        <v>1542.455296</v>
+        <v>1742.733312</v>
       </c>
       <c r="C135" s="4">
-        <v>2767.192064</v>
+        <v>2485.12512</v>
       </c>
       <c r="D135" s="4">
-        <v>837.812224</v>
+        <v>3376.41472</v>
       </c>
       <c r="E135" s="4">
-        <v>999.292928</v>
+        <v>4278.19008</v>
       </c>
       <c r="F135" s="4">
-        <v>1019.215872</v>
+        <v>4373.610496</v>
       </c>
       <c r="G135" s="4">
-        <v>1082.130432</v>
+        <v>4673.503232</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -2752,22 +2744,22 @@
         <v>1</v>
       </c>
       <c r="B139" s="4">
-        <v>55.6</v>
+        <v>269.95</v>
       </c>
       <c r="C139" s="4">
-        <v>60.78</v>
+        <v>338.63</v>
       </c>
       <c r="D139" s="4">
-        <v>153.15</v>
+        <v>465.52</v>
       </c>
       <c r="E139" s="4">
-        <v>902.46</v>
+        <v>790.37</v>
       </c>
       <c r="F139" s="4">
-        <v>1950.27</v>
+        <v>1433.13</v>
       </c>
       <c r="G139" s="4">
-        <v>3063.62</v>
+        <v>3191.52</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -2775,22 +2767,22 @@
         <v>2</v>
       </c>
       <c r="B140" s="4">
-        <v>92.47</v>
+        <v>47.97</v>
       </c>
       <c r="C140" s="4">
-        <v>412.15</v>
+        <v>66.77</v>
       </c>
       <c r="D140" s="4">
-        <v>548.05</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="E140" s="4">
-        <v>1018.02</v>
+        <v>183.59</v>
       </c>
       <c r="F140" s="4">
-        <v>1984.3</v>
+        <v>403.84</v>
       </c>
       <c r="G140" s="4">
-        <v>3733.28</v>
+        <v>853.66</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -2798,22 +2790,22 @@
         <v>3</v>
       </c>
       <c r="B141" s="4">
-        <v>77.27</v>
+        <v>67.19</v>
       </c>
       <c r="C141" s="4">
-        <v>81.69</v>
+        <v>87.53</v>
       </c>
       <c r="D141" s="4">
-        <v>595.9299999999999</v>
+        <v>130.26</v>
       </c>
       <c r="E141" s="4">
-        <v>868.2</v>
+        <v>180.89</v>
       </c>
       <c r="F141" s="4">
-        <v>1647.09</v>
+        <v>382.45</v>
       </c>
       <c r="G141" s="4">
-        <v>3033.47</v>
+        <v>681.88</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -2852,22 +2844,22 @@
         <v>1</v>
       </c>
       <c r="B145" s="4">
-        <v>151</v>
+        <v>1598</v>
       </c>
       <c r="C145" s="4">
-        <v>161</v>
+        <v>1598</v>
       </c>
       <c r="D145" s="4">
-        <v>383</v>
+        <v>1876</v>
       </c>
       <c r="E145" s="4">
-        <v>3261</v>
+        <v>2999</v>
       </c>
       <c r="F145" s="4">
-        <v>7701</v>
+        <v>6259</v>
       </c>
       <c r="G145" s="4">
-        <v>13829</v>
+        <v>13173</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -2875,22 +2867,22 @@
         <v>2</v>
       </c>
       <c r="B146" s="4">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="C146" s="4">
-        <v>1827</v>
+        <v>151</v>
       </c>
       <c r="D146" s="4">
-        <v>1762</v>
+        <v>306</v>
       </c>
       <c r="E146" s="4">
-        <v>2999</v>
+        <v>529</v>
       </c>
       <c r="F146" s="4">
-        <v>5407</v>
+        <v>947</v>
       </c>
       <c r="G146" s="4">
-        <v>10159</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -2898,22 +2890,22 @@
         <v>3</v>
       </c>
       <c r="B147" s="4">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="C147" s="4">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="D147" s="4">
-        <v>1926</v>
+        <v>469</v>
       </c>
       <c r="E147" s="4">
-        <v>3195</v>
+        <v>611</v>
       </c>
       <c r="F147" s="4">
-        <v>5669</v>
+        <v>1369</v>
       </c>
       <c r="G147" s="4">
-        <v>15664</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -2952,22 +2944,22 @@
         <v>1</v>
       </c>
       <c r="B151" s="4">
-        <v>165</v>
+        <v>1827</v>
       </c>
       <c r="C151" s="4">
-        <v>206</v>
+        <v>1696</v>
       </c>
       <c r="D151" s="4">
-        <v>469</v>
+        <v>2180</v>
       </c>
       <c r="E151" s="4">
-        <v>4555</v>
+        <v>4146</v>
       </c>
       <c r="F151" s="4">
-        <v>9634</v>
+        <v>7504</v>
       </c>
       <c r="G151" s="4">
-        <v>16188</v>
+        <v>15008</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -2975,22 +2967,22 @@
         <v>2</v>
       </c>
       <c r="B152" s="4">
-        <v>379</v>
+        <v>215</v>
       </c>
       <c r="C152" s="4">
-        <v>2999</v>
+        <v>297</v>
       </c>
       <c r="D152" s="4">
-        <v>2024</v>
+        <v>506</v>
       </c>
       <c r="E152" s="4">
-        <v>4146</v>
+        <v>627</v>
       </c>
       <c r="F152" s="4">
-        <v>6849</v>
+        <v>1057</v>
       </c>
       <c r="G152" s="4">
-        <v>13173</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -2998,22 +2990,22 @@
         <v>3</v>
       </c>
       <c r="B153" s="4">
-        <v>562</v>
+        <v>355</v>
       </c>
       <c r="C153" s="4">
-        <v>453</v>
+        <v>363</v>
       </c>
       <c r="D153" s="4">
-        <v>2343</v>
+        <v>611</v>
       </c>
       <c r="E153" s="4">
-        <v>4948</v>
+        <v>1221</v>
       </c>
       <c r="F153" s="4">
-        <v>15533</v>
+        <v>2540</v>
       </c>
       <c r="G153" s="4">
-        <v>28443</v>
+        <v>7046</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3052,22 +3044,22 @@
         <v>1</v>
       </c>
       <c r="B158" s="3">
-        <v>155000</v>
+        <v>122000</v>
       </c>
       <c r="C158" s="3">
-        <v>169000</v>
+        <v>172000</v>
       </c>
       <c r="D158" s="3">
-        <v>263000</v>
+        <v>286000</v>
       </c>
       <c r="E158" s="3">
-        <v>277000</v>
+        <v>287000</v>
       </c>
       <c r="F158" s="3">
-        <v>249000</v>
+        <v>290000</v>
       </c>
       <c r="G158" s="3">
-        <v>562000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -3075,22 +3067,22 @@
         <v>2</v>
       </c>
       <c r="B159" s="3">
-        <v>131000</v>
+        <v>655000</v>
       </c>
       <c r="C159" s="3">
-        <v>158000</v>
+        <v>819000</v>
       </c>
       <c r="D159" s="3">
-        <v>207000</v>
+        <v>1049000</v>
       </c>
       <c r="E159" s="3">
-        <v>246000</v>
+        <v>1036000</v>
       </c>
       <c r="F159" s="3">
-        <v>246000</v>
+        <v>1051000</v>
       </c>
       <c r="G159" s="3">
-        <v>246000</v>
+        <v>1074000</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -3098,22 +3090,22 @@
         <v>3</v>
       </c>
       <c r="B160" s="3">
-        <v>144000</v>
+        <v>426000</v>
       </c>
       <c r="C160" s="3">
-        <v>155000</v>
+        <v>537000</v>
       </c>
       <c r="D160" s="3">
-        <v>215000</v>
+        <v>819000</v>
       </c>
       <c r="E160" s="3">
-        <v>301000</v>
+        <v>895000</v>
       </c>
       <c r="F160" s="3">
-        <v>267000</v>
+        <v>986000</v>
       </c>
       <c r="G160" s="3">
-        <v>332000</v>
+        <v>995000</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -3152,22 +3144,22 @@
         <v>1</v>
       </c>
       <c r="B164" s="4">
-        <v>636.485632</v>
+        <v>501.219328</v>
       </c>
       <c r="C164" s="4">
-        <v>692.06016</v>
+        <v>706.740224</v>
       </c>
       <c r="D164" s="4">
-        <v>1077.936128</v>
+        <v>1169.16224</v>
       </c>
       <c r="E164" s="4">
-        <v>1133.510656</v>
+        <v>1174.40512</v>
       </c>
       <c r="F164" s="4">
-        <v>1019.215872</v>
+        <v>1188.036608</v>
       </c>
       <c r="G164" s="4">
-        <v>2301.62432</v>
+        <v>1227.882496</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -3175,22 +3167,22 @@
         <v>2</v>
       </c>
       <c r="B165" s="4">
-        <v>534.77376</v>
+        <v>2684.35456</v>
       </c>
       <c r="C165" s="4">
-        <v>644.87424</v>
+        <v>3355.4432</v>
       </c>
       <c r="D165" s="4">
-        <v>848.297984</v>
+        <v>4294.967296</v>
       </c>
       <c r="E165" s="4">
-        <v>1006.63296</v>
+        <v>4243.587072</v>
       </c>
       <c r="F165" s="4">
-        <v>1009.778688</v>
+        <v>4303.355904</v>
       </c>
       <c r="G165" s="4">
-        <v>1005.584384</v>
+        <v>4400.873472</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -3198,22 +3190,22 @@
         <v>3</v>
       </c>
       <c r="B166" s="4">
-        <v>588.251136</v>
+        <v>1742.733312</v>
       </c>
       <c r="C166" s="4">
-        <v>636.485632</v>
+        <v>2199.912448</v>
       </c>
       <c r="D166" s="4">
-        <v>879.755264</v>
+        <v>3355.4432</v>
       </c>
       <c r="E166" s="4">
-        <v>1231.028224</v>
+        <v>3664.77312</v>
       </c>
       <c r="F166" s="4">
-        <v>1092.616192</v>
+        <v>4037.0176</v>
       </c>
       <c r="G166" s="4">
-        <v>1360.003072</v>
+        <v>4074.766336</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -3252,22 +3244,22 @@
         <v>1</v>
       </c>
       <c r="B170" s="4">
-        <v>6.02574</v>
+        <v>7.94214</v>
       </c>
       <c r="C170" s="4">
-        <v>9.709899999999999</v>
+        <v>11.33679</v>
       </c>
       <c r="D170" s="4">
-        <v>14.51409</v>
+        <v>13.81346</v>
       </c>
       <c r="E170" s="4">
-        <v>27.85442</v>
+        <v>27.46817</v>
       </c>
       <c r="F170" s="4">
-        <v>63.31621</v>
+        <v>54.81034</v>
       </c>
       <c r="G170" s="4">
-        <v>56.08361</v>
+        <v>106.33994</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -3275,22 +3267,22 @@
         <v>2</v>
       </c>
       <c r="B171" s="4">
-        <v>7.14975</v>
+        <v>1.41504</v>
       </c>
       <c r="C171" s="4">
-        <v>10.04875</v>
+        <v>2.03072</v>
       </c>
       <c r="D171" s="4">
-        <v>17.99282</v>
+        <v>3.5334</v>
       </c>
       <c r="E171" s="4">
-        <v>29.62835</v>
+        <v>7.40739</v>
       </c>
       <c r="F171" s="4">
-        <v>60.65716</v>
+        <v>14.11403</v>
       </c>
       <c r="G171" s="4">
-        <v>124.11287</v>
+        <v>28.67039</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -3298,22 +3290,22 @@
         <v>3</v>
       </c>
       <c r="B172" s="4">
-        <v>6.44061</v>
+        <v>2.06662</v>
       </c>
       <c r="C172" s="4">
-        <v>10.20723</v>
+        <v>3.07137</v>
       </c>
       <c r="D172" s="4">
-        <v>16.9717</v>
+        <v>4.45406</v>
       </c>
       <c r="E172" s="4">
-        <v>24.61053</v>
+        <v>6.818750000000001</v>
       </c>
       <c r="F172" s="4">
-        <v>47.83172</v>
+        <v>12.33315</v>
       </c>
       <c r="G172" s="4">
-        <v>88.0149</v>
+        <v>24.86924</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -3355,19 +3347,19 @@
         <v>1.688</v>
       </c>
       <c r="C176" s="4">
-        <v>1.832</v>
+        <v>1.752</v>
       </c>
       <c r="D176" s="4">
-        <v>2.008</v>
+        <v>1.704</v>
       </c>
       <c r="E176" s="4">
-        <v>2.288</v>
+        <v>1.656</v>
       </c>
       <c r="F176" s="4">
-        <v>2.8</v>
+        <v>1.656</v>
       </c>
       <c r="G176" s="4">
-        <v>2.768</v>
+        <v>1.656</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -3375,22 +3367,22 @@
         <v>2</v>
       </c>
       <c r="B177" s="4">
-        <v>2.16</v>
+        <v>0.49</v>
       </c>
       <c r="C177" s="4">
-        <v>2.224</v>
+        <v>0.47</v>
       </c>
       <c r="D177" s="4">
-        <v>2.768</v>
+        <v>0.498</v>
       </c>
       <c r="E177" s="4">
-        <v>3.056</v>
+        <v>0.51</v>
       </c>
       <c r="F177" s="4">
-        <v>2.992</v>
+        <v>0.524</v>
       </c>
       <c r="G177" s="4">
-        <v>2.992</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -3398,22 +3390,22 @@
         <v>3</v>
       </c>
       <c r="B178" s="4">
-        <v>1.912</v>
+        <v>0.358</v>
       </c>
       <c r="C178" s="4">
-        <v>2.224</v>
+        <v>0.358</v>
       </c>
       <c r="D178" s="4">
-        <v>2.8</v>
+        <v>0.434</v>
       </c>
       <c r="E178" s="4">
-        <v>2.8</v>
+        <v>0.482</v>
       </c>
       <c r="F178" s="4">
-        <v>2.576</v>
+        <v>0.532</v>
       </c>
       <c r="G178" s="4">
-        <v>2.672</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -3452,22 +3444,22 @@
         <v>1</v>
       </c>
       <c r="B182" s="4">
-        <v>84.48</v>
+        <v>37.632</v>
       </c>
       <c r="C182" s="4">
-        <v>113.152</v>
+        <v>171.008</v>
       </c>
       <c r="D182" s="4">
-        <v>444.416</v>
+        <v>391.168</v>
       </c>
       <c r="E182" s="4">
-        <v>1122.304</v>
+        <v>872.448</v>
       </c>
       <c r="F182" s="4">
-        <v>2932.736</v>
+        <v>2179.072</v>
       </c>
       <c r="G182" s="4">
-        <v>1941.504</v>
+        <v>4145.152</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -3475,22 +3467,22 @@
         <v>2</v>
       </c>
       <c r="B183" s="4">
-        <v>144.384</v>
+        <v>61.184</v>
       </c>
       <c r="C183" s="4">
-        <v>162.816</v>
+        <v>64.768</v>
       </c>
       <c r="D183" s="4">
-        <v>514.048</v>
+        <v>160.768</v>
       </c>
       <c r="E183" s="4">
-        <v>1597.44</v>
+        <v>432.128</v>
       </c>
       <c r="F183" s="4">
-        <v>3227.648</v>
+        <v>815.104</v>
       </c>
       <c r="G183" s="4">
-        <v>7241.728</v>
+        <v>1630.208</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -3498,22 +3490,22 @@
         <v>3</v>
       </c>
       <c r="B184" s="4">
-        <v>101.888</v>
+        <v>66.048</v>
       </c>
       <c r="C184" s="4">
-        <v>120.32</v>
+        <v>116.224</v>
       </c>
       <c r="D184" s="4">
-        <v>407.552</v>
+        <v>230.4</v>
       </c>
       <c r="E184" s="4">
-        <v>1220.608</v>
+        <v>292.864</v>
       </c>
       <c r="F184" s="4">
-        <v>1662.976</v>
+        <v>309.248</v>
       </c>
       <c r="G184" s="4">
-        <v>2039.808</v>
+        <v>1073.152</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -3552,22 +3544,22 @@
         <v>1</v>
       </c>
       <c r="B189" s="3">
-        <v>8677</v>
+        <v>8752</v>
       </c>
       <c r="C189" s="3">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="D189" s="3">
-        <v>12300</v>
+        <v>12900</v>
       </c>
       <c r="E189" s="3">
-        <v>13700</v>
+        <v>12700</v>
       </c>
       <c r="F189" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="G189" s="3">
-        <v>12600</v>
+        <v>14100</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -3575,22 +3567,22 @@
         <v>2</v>
       </c>
       <c r="B190" s="3">
-        <v>2503</v>
+        <v>6481</v>
       </c>
       <c r="C190" s="3">
-        <v>4452</v>
+        <v>9183</v>
       </c>
       <c r="D190" s="3">
-        <v>8827</v>
+        <v>11200</v>
       </c>
       <c r="E190" s="3">
-        <v>11500</v>
+        <v>12700</v>
       </c>
       <c r="F190" s="3">
         <v>12300</v>
       </c>
       <c r="G190" s="3">
-        <v>12400</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -3598,22 +3590,22 @@
         <v>3</v>
       </c>
       <c r="B191" s="3">
-        <v>6564</v>
+        <v>5361</v>
       </c>
       <c r="C191" s="3">
-        <v>8427</v>
+        <v>8291</v>
       </c>
       <c r="D191" s="3">
-        <v>9266</v>
+        <v>11100</v>
       </c>
       <c r="E191" s="3">
-        <v>12500</v>
+        <v>13200</v>
       </c>
       <c r="F191" s="3">
-        <v>13200</v>
+        <v>12300</v>
       </c>
       <c r="G191" s="3">
-        <v>12900</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -3652,22 +3644,22 @@
         <v>1</v>
       </c>
       <c r="B195" s="4">
-        <v>1137.70496</v>
+        <v>1147.142144</v>
       </c>
       <c r="C195" s="4">
-        <v>1507.852288</v>
+        <v>1435.500544</v>
       </c>
       <c r="D195" s="4">
-        <v>1612.709888</v>
+        <v>1693.45024</v>
       </c>
       <c r="E195" s="4">
-        <v>1795.162112</v>
+        <v>1667.23584</v>
       </c>
       <c r="F195" s="4">
-        <v>1784.676352</v>
+        <v>1837.105152</v>
       </c>
       <c r="G195" s="4">
-        <v>1654.652928</v>
+        <v>1849.688064</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -3675,22 +3667,22 @@
         <v>2</v>
       </c>
       <c r="B196" s="4">
-        <v>328.204288</v>
+        <v>849.34656</v>
       </c>
       <c r="C196" s="4">
-        <v>584.056832</v>
+        <v>1203.765248</v>
       </c>
       <c r="D196" s="4">
-        <v>1156.579328</v>
+        <v>1471.152128</v>
       </c>
       <c r="E196" s="4">
-        <v>1509.94944</v>
+        <v>1659.895808</v>
       </c>
       <c r="F196" s="4">
-        <v>1609.56416</v>
+        <v>1615.855616</v>
       </c>
       <c r="G196" s="4">
-        <v>1625.2928</v>
+        <v>1712.324608</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -3698,22 +3690,22 @@
         <v>3</v>
       </c>
       <c r="B197" s="4">
-        <v>860.880896</v>
+        <v>702.54592</v>
       </c>
       <c r="C197" s="4">
-        <v>1104.150528</v>
+        <v>1086.324736</v>
       </c>
       <c r="D197" s="4">
-        <v>1214.251008</v>
+        <v>1455.423488</v>
       </c>
       <c r="E197" s="4">
-        <v>1642.070016</v>
+        <v>1729.101824</v>
       </c>
       <c r="F197" s="4">
-        <v>1732.247552</v>
+        <v>1606.418432</v>
       </c>
       <c r="G197" s="4">
-        <v>1686.110208</v>
+        <v>1592.786944</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -3752,22 +3744,22 @@
         <v>1</v>
       </c>
       <c r="B201" s="4">
-        <v>27.19</v>
+        <v>21.65344</v>
       </c>
       <c r="C201" s="4">
-        <v>28.1</v>
+        <v>23.42096</v>
       </c>
       <c r="D201" s="4">
-        <v>33.07</v>
+        <v>27.76456</v>
       </c>
       <c r="E201" s="4">
-        <v>42.57</v>
+        <v>38.03683</v>
       </c>
       <c r="F201" s="4">
-        <v>83.59999999999999</v>
+        <v>77.91</v>
       </c>
       <c r="G201" s="4">
-        <v>142.68</v>
+        <v>138.94</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -3775,22 +3767,22 @@
         <v>2</v>
       </c>
       <c r="B202" s="4">
-        <v>316.83</v>
+        <v>66.89</v>
       </c>
       <c r="C202" s="4">
-        <v>288.98</v>
+        <v>62.45</v>
       </c>
       <c r="D202" s="4">
-        <v>179.2</v>
+        <v>69.42</v>
       </c>
       <c r="E202" s="4">
-        <v>151.2</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F202" s="4">
-        <v>219.69</v>
+        <v>164.1</v>
       </c>
       <c r="G202" s="4">
-        <v>352.64</v>
+        <v>343.27</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -3798,22 +3790,22 @@
         <v>3</v>
       </c>
       <c r="B203" s="4">
-        <v>60.32</v>
+        <v>91.3</v>
       </c>
       <c r="C203" s="4">
-        <v>77.38</v>
+        <v>85.56999999999999</v>
       </c>
       <c r="D203" s="4">
-        <v>188</v>
+        <v>113.12</v>
       </c>
       <c r="E203" s="4">
-        <v>128.65</v>
+        <v>130.06</v>
       </c>
       <c r="F203" s="4">
-        <v>183.37</v>
+        <v>181.05</v>
       </c>
       <c r="G203" s="4">
-        <v>823.5700000000001</v>
+        <v>1017.82</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -3852,22 +3844,22 @@
         <v>1</v>
       </c>
       <c r="B207" s="4">
-        <v>30</v>
+        <v>23.424</v>
       </c>
       <c r="C207" s="4">
-        <v>31</v>
+        <v>25.472</v>
       </c>
       <c r="D207" s="4">
-        <v>37</v>
+        <v>30.592</v>
       </c>
       <c r="E207" s="4">
-        <v>60</v>
+        <v>50.944</v>
       </c>
       <c r="F207" s="4">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="G207" s="4">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -3875,22 +3867,22 @@
         <v>2</v>
       </c>
       <c r="B208" s="4">
-        <v>474</v>
+        <v>114</v>
       </c>
       <c r="C208" s="4">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="D208" s="4">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="E208" s="4">
-        <v>367</v>
+        <v>115</v>
       </c>
       <c r="F208" s="4">
-        <v>445</v>
+        <v>210</v>
       </c>
       <c r="G208" s="4">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -3898,22 +3890,22 @@
         <v>3</v>
       </c>
       <c r="B209" s="4">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C209" s="4">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D209" s="4">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E209" s="4">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="F209" s="4">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="G209" s="4">
-        <v>3359</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -3952,22 +3944,22 @@
         <v>1</v>
       </c>
       <c r="B213" s="4">
-        <v>110</v>
+        <v>24.96</v>
       </c>
       <c r="C213" s="4">
-        <v>115</v>
+        <v>27.008</v>
       </c>
       <c r="D213" s="4">
-        <v>116</v>
+        <v>33.536</v>
       </c>
       <c r="E213" s="4">
-        <v>126</v>
+        <v>54.528</v>
       </c>
       <c r="F213" s="4">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="G213" s="4">
-        <v>223</v>
+        <v>186</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -3975,22 +3967,22 @@
         <v>2</v>
       </c>
       <c r="B214" s="4">
-        <v>519</v>
+        <v>141</v>
       </c>
       <c r="C214" s="4">
-        <v>457</v>
+        <v>108</v>
       </c>
       <c r="D214" s="4">
-        <v>424</v>
+        <v>90</v>
       </c>
       <c r="E214" s="4">
-        <v>424</v>
+        <v>121</v>
       </c>
       <c r="F214" s="4">
-        <v>502</v>
+        <v>258</v>
       </c>
       <c r="G214" s="4">
-        <v>668</v>
+        <v>627</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -3998,22 +3990,22 @@
         <v>3</v>
       </c>
       <c r="B215" s="4">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="C215" s="4">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D215" s="4">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="E215" s="4">
-        <v>420</v>
+        <v>709</v>
       </c>
       <c r="F215" s="4">
-        <v>2114</v>
+        <v>2212</v>
       </c>
       <c r="G215" s="4">
-        <v>8291</v>
+        <v>8094</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -4052,22 +4044,22 @@
         <v>1</v>
       </c>
       <c r="B220" s="3">
-        <v>241000</v>
+        <v>262000</v>
       </c>
       <c r="C220" s="3">
-        <v>338000</v>
+        <v>349000</v>
       </c>
       <c r="D220" s="3">
-        <v>405000</v>
+        <v>400000</v>
       </c>
       <c r="E220" s="3">
-        <v>438000</v>
+        <v>419000</v>
       </c>
       <c r="F220" s="3">
-        <v>423000</v>
+        <v>441000</v>
       </c>
       <c r="G220" s="3">
-        <v>402000</v>
+        <v>436000</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -4075,22 +4067,22 @@
         <v>2</v>
       </c>
       <c r="B221" s="3">
-        <v>75200</v>
+        <v>96900</v>
       </c>
       <c r="C221" s="3">
-        <v>151000</v>
+        <v>178000</v>
       </c>
       <c r="D221" s="3">
-        <v>224000</v>
+        <v>226000</v>
       </c>
       <c r="E221" s="3">
-        <v>284000</v>
+        <v>295000</v>
       </c>
       <c r="F221" s="3">
-        <v>307000</v>
+        <v>329000</v>
       </c>
       <c r="G221" s="3">
-        <v>348000</v>
+        <v>359000</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -4098,22 +4090,22 @@
         <v>3</v>
       </c>
       <c r="B222" s="3">
-        <v>137000</v>
+        <v>120000</v>
       </c>
       <c r="C222" s="3">
-        <v>158000</v>
+        <v>163000</v>
       </c>
       <c r="D222" s="3">
-        <v>269000</v>
+        <v>279000</v>
       </c>
       <c r="E222" s="3">
-        <v>334000</v>
+        <v>340000</v>
       </c>
       <c r="F222" s="3">
-        <v>377000</v>
+        <v>356000</v>
       </c>
       <c r="G222" s="3">
-        <v>239000</v>
+        <v>215000</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -4152,22 +4144,22 @@
         <v>1</v>
       </c>
       <c r="B226" s="4">
-        <v>986.710016</v>
+        <v>1073.741824</v>
       </c>
       <c r="C226" s="4">
-        <v>1384.12032</v>
+        <v>1428.160512</v>
       </c>
       <c r="D226" s="4">
-        <v>1656.75008</v>
+        <v>1636.827136</v>
       </c>
       <c r="E226" s="4">
-        <v>1793.06496</v>
+        <v>1717.567488</v>
       </c>
       <c r="F226" s="4">
-        <v>1733.296128</v>
+        <v>1807.745024</v>
       </c>
       <c r="G226" s="4">
-        <v>1647.312896</v>
+        <v>1786.773504</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -4175,22 +4167,22 @@
         <v>2</v>
       </c>
       <c r="B227" s="4">
-        <v>308.281344</v>
+        <v>397.410304</v>
       </c>
       <c r="C227" s="4">
-        <v>617.611264</v>
+        <v>729.808896</v>
       </c>
       <c r="D227" s="4">
-        <v>917.504</v>
+        <v>925.892608</v>
       </c>
       <c r="E227" s="4">
-        <v>1162.870784</v>
+        <v>1206.910976</v>
       </c>
       <c r="F227" s="4">
-        <v>1256.194048</v>
+        <v>1345.323008</v>
       </c>
       <c r="G227" s="4">
-        <v>1427.111936</v>
+        <v>1470.103552</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -4198,22 +4190,22 @@
         <v>3</v>
       </c>
       <c r="B228" s="4">
-        <v>562.036736</v>
+        <v>489.684992</v>
       </c>
       <c r="C228" s="4">
-        <v>644.87424</v>
+        <v>665.84576</v>
       </c>
       <c r="D228" s="4">
-        <v>1102.053376</v>
+        <v>1145.044992</v>
       </c>
       <c r="E228" s="4">
-        <v>1367.343104</v>
+        <v>1394.60608</v>
       </c>
       <c r="F228" s="4">
-        <v>1544.552448</v>
+        <v>1458.569216</v>
       </c>
       <c r="G228" s="4">
-        <v>980.41856</v>
+        <v>879.755264</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -4252,41 +4244,37 @@
         <v>1</v>
       </c>
       <c r="B232" s="4">
-        <v>1.01687</v>
+        <v>0.8619600000000001</v>
       </c>
       <c r="C232" s="4">
-        <v>1.04411</v>
+        <v>0.8993200000000001</v>
       </c>
       <c r="D232" s="4">
-        <v>1.12142</v>
+        <v>0.97435</v>
       </c>
       <c r="E232" s="4">
-        <v>1.3743</v>
+        <v>1.25356</v>
       </c>
       <c r="F232" s="4">
-        <v>2.51215</v>
+        <v>2.3606</v>
       </c>
       <c r="G232" s="4">
-        <v>4.24955</v>
+        <v>4.0742</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B233" s="4">
-        <v>10.52</v>
-      </c>
+      <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
-      <c r="E233" s="4">
-        <v>10.72</v>
-      </c>
+      <c r="E233" s="4"/>
       <c r="F233" s="4">
-        <v>18.08</v>
+        <v>15.23</v>
       </c>
       <c r="G233" s="4">
-        <v>27.93</v>
+        <v>25.12</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -4296,14 +4284,12 @@
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
-      <c r="E234" s="4">
-        <v>12.26</v>
-      </c>
+      <c r="E234" s="4"/>
       <c r="F234" s="4">
-        <v>10.03</v>
+        <v>11.86</v>
       </c>
       <c r="G234" s="4">
-        <v>87.39</v>
+        <v>99.77</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -4342,22 +4328,22 @@
         <v>1</v>
       </c>
       <c r="B238" s="4">
-        <v>3.088</v>
+        <v>1.272</v>
       </c>
       <c r="C238" s="4">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="D238" s="4">
-        <v>1.896</v>
+        <v>1.544</v>
       </c>
       <c r="E238" s="4">
-        <v>2.736</v>
+        <v>2.064</v>
       </c>
       <c r="F238" s="4">
-        <v>4.448</v>
+        <v>3.984</v>
       </c>
       <c r="G238" s="4">
-        <v>6.048</v>
+        <v>5.664</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -4365,22 +4351,22 @@
         <v>2</v>
       </c>
       <c r="B239" s="4">
-        <v>31</v>
+        <v>8.768000000000001</v>
       </c>
       <c r="C239" s="4">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D239" s="4">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E239" s="4">
-        <v>15</v>
+        <v>13.12</v>
       </c>
       <c r="F239" s="4">
-        <v>48</v>
+        <v>28.8</v>
       </c>
       <c r="G239" s="4">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -4388,22 +4374,22 @@
         <v>3</v>
       </c>
       <c r="B240" s="4">
-        <v>5.536</v>
+        <v>5.344</v>
       </c>
       <c r="C240" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D240" s="4">
         <v>12</v>
       </c>
       <c r="E240" s="4">
-        <v>24</v>
+        <v>8.896000000000001</v>
       </c>
       <c r="F240" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G240" s="4">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -4442,22 +4428,22 @@
         <v>1</v>
       </c>
       <c r="B244" s="4">
-        <v>4.256</v>
+        <v>1.512</v>
       </c>
       <c r="C244" s="4">
-        <v>4.32</v>
+        <v>1.688</v>
       </c>
       <c r="D244" s="4">
-        <v>4.448</v>
+        <v>1.928</v>
       </c>
       <c r="E244" s="4">
-        <v>5.344</v>
+        <v>2.864</v>
       </c>
       <c r="F244" s="4">
-        <v>9.152000000000001</v>
+        <v>6.24</v>
       </c>
       <c r="G244" s="4">
-        <v>13.376</v>
+        <v>9.664</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -4465,22 +4451,22 @@
         <v>2</v>
       </c>
       <c r="B245" s="4">
-        <v>40</v>
+        <v>9.407999999999999</v>
       </c>
       <c r="C245" s="4">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D245" s="4">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E245" s="4">
-        <v>46</v>
+        <v>14.784</v>
       </c>
       <c r="F245" s="4">
-        <v>77</v>
+        <v>45.312</v>
       </c>
       <c r="G245" s="4">
-        <v>121</v>
+        <v>63</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -4488,22 +4474,22 @@
         <v>3</v>
       </c>
       <c r="B246" s="4">
-        <v>23.68</v>
+        <v>5.792</v>
       </c>
       <c r="C246" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D246" s="4">
         <v>15</v>
       </c>
       <c r="E246" s="4">
-        <v>32</v>
+        <v>23.424</v>
       </c>
       <c r="F246" s="4">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="G246" s="4">
-        <v>848</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
